--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -20,23 +20,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>melee_type</t>
+    <t>ＧＲ型用ビーム・ライフル[GN]</t>
   </si>
   <si>
-    <t>ＧＲ型用ビーム・ライフル[GN]</t>
+    <t>melee_power</t>
   </si>
   <si>
     <t>アクト・ザク
 [指揮官仕様]</t>
   </si>
   <si>
-    <t>○</t>
+    <t>id</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>id</t>
+    <t>○</t>
   </si>
   <si>
     <t>weak</t>
@@ -477,7 +477,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -491,7 +491,7 @@
     <col min="19" max="19" width="6.5" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
     <col min="21" max="21" width="11.5" customWidth="1"/>
-    <col min="22" max="22" width="9.25" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
     <col min="23" max="23" width="29.125" customWidth="1"/>
     <col min="24" max="24" width="31.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32.5" customWidth="1"/>
@@ -501,7 +501,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="str">
         <v>name</v>
@@ -564,7 +564,7 @@
         <v>compatibility</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1" s="3" t="str">
         <v>main_weapon1</v>
@@ -4129,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="5" t="str">
         <v>ビーム・ナギナタ</v>
@@ -6922,7 +6922,7 @@
         <v>○</v>
       </c>
       <c r="T74" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U74" s="5" t="str">
         <v>S</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>shield</t>
   </si>
   <si>
     <t>beam</t>
   </si>
   <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>strong</t>
   </si>
   <si>
     <t>S</t>
@@ -40,12 +43,6 @@
   </si>
   <si>
     <t>weak</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>強化された索敵装置。
@@ -66,6 +63,12 @@
       <t>ひょうじ</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>LL</t>
   </si>
   <si>
     <t>シュツルム・ファウスト</t>
@@ -450,11 +453,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S156" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y160" sqref="Y160"/>
+      <selection pane="bottomRight" activeCell="V336" sqref="V336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14074,7 +14077,7 @@
         <v>ヒート・ホーク[強化]</v>
       </c>
       <c r="Y157" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z157" s="3" t="str">
         <v>脚部ショックアブソーバーLv2
@@ -14159,7 +14162,7 @@
         <v>ヒート・ホーク[強化]</v>
       </c>
       <c r="Y158" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z158" s="3" t="str">
         <v>脚部ショックアブソーバーLv2
@@ -14244,7 +14247,7 @@
         <v>ヒート・ホーク[強化]</v>
       </c>
       <c r="Y159" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z159" s="3" t="str">
         <v>脚部ショックアブソーバーLv2
@@ -29376,8 +29379,8 @@
       <c r="U335" s="2" t="str">
         <v>S</v>
       </c>
-      <c r="V335" s="2" t="str">
-        <v>normal</v>
+      <c r="V335" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="W335" s="3" t="str">
         <v>試作１号機用ビーム・ライフル
@@ -29465,7 +29468,7 @@
       </c>
       <c r="U336" s="2"/>
       <c r="V336" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W336" s="2" t="str">
         <v>ジム・ライフル</v>
@@ -29552,7 +29555,7 @@
       </c>
       <c r="U337" s="2"/>
       <c r="V337" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W337" s="2" t="str">
         <v>ジム・ライフル</v>
@@ -39313,7 +39316,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -41147,7 +41150,7 @@
         <v>3250</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
@@ -41168,7 +41171,7 @@
         <v>3000</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
@@ -41189,7 +41192,7 @@
         <v>2750</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
@@ -41210,7 +41213,7 @@
         <v>2500</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
@@ -41505,7 +41508,7 @@
         <v>3</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -41528,7 +41531,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -41551,7 +41554,7 @@
         <v>3</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -41637,7 +41640,7 @@
         <v>4000</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
@@ -41681,7 +41684,7 @@
         <v>4000</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="2" t="s">
@@ -41726,7 +41729,7 @@
         <v>20000</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
@@ -41778,7 +41781,7 @@
         <v>3</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -41796,7 +41799,7 @@
         <v>2500</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
@@ -41817,7 +41820,7 @@
         <v>3850</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
@@ -41838,7 +41841,7 @@
         <v>3500</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
@@ -41865,7 +41868,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -41888,7 +41891,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -41911,7 +41914,7 @@
         <v>100</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -41934,7 +41937,7 @@
         <v>100</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -42043,7 +42046,7 @@
         <v>3850</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
@@ -42064,7 +42067,7 @@
         <v>3500</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
@@ -42091,7 +42094,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -42114,7 +42117,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -42367,7 +42370,7 @@
         <v>4</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -42390,7 +42393,7 @@
         <v>4</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -42413,7 +42416,7 @@
         <v>4</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -42430,7 +42433,7 @@
         <v>3500</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
@@ -42457,7 +42460,7 @@
         <v>25</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -42560,7 +42563,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -42579,7 +42582,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -42598,7 +42601,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -42617,7 +42620,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -42768,7 +42771,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -42787,7 +42790,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -42806,7 +42809,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -42909,7 +42912,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -42928,7 +42931,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -42947,7 +42950,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -42966,7 +42969,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -43282,7 +43285,7 @@
         <v>4200</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2" t="s">
@@ -43303,7 +43306,7 @@
         <v>3850</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2" t="s">
@@ -43324,7 +43327,7 @@
         <v>3500</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2" t="s">
@@ -43345,7 +43348,7 @@
         <v>4400</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
@@ -43366,7 +43369,7 @@
         <v>4000</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
@@ -43393,7 +43396,7 @@
         <v>3</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -43416,7 +43419,7 @@
         <v>3</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -43439,7 +43442,7 @@
         <v>15</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -43479,7 +43482,7 @@
         <v>2750</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
@@ -43500,7 +43503,7 @@
         <v>2500</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
@@ -43573,7 +43576,7 @@
         <v>100</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -43596,7 +43599,7 @@
         <v>100</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -43659,7 +43662,7 @@
         <v>3850</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
@@ -43680,7 +43683,7 @@
         <v>3500</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
@@ -43753,7 +43756,7 @@
         <v>100</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -43776,7 +43779,7 @@
         <v>100</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -43799,7 +43802,7 @@
         <v>50</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -43822,7 +43825,7 @@
         <v>50</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -43989,7 +43992,7 @@
         <v>3</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -44012,7 +44015,7 @@
         <v>3</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -44035,7 +44038,7 @@
         <v>3</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -44058,7 +44061,7 @@
         <v>3</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -44081,7 +44084,7 @@
         <v>3</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -44305,7 +44308,7 @@
         <v>3</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -44328,7 +44331,7 @@
         <v>3</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -44351,7 +44354,7 @@
         <v>3</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -44374,7 +44377,7 @@
         <v>3</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -44397,7 +44400,7 @@
         <v>3</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -44421,7 +44424,7 @@
         <v>3</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -44445,7 +44448,7 @@
         <v>3</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -44469,7 +44472,7 @@
         <v>3</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -44487,7 +44490,7 @@
         <v>4200</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2" t="s">
@@ -44509,7 +44512,7 @@
         <v>3850</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2" t="s">
@@ -44531,7 +44534,7 @@
         <v>3500</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2" t="s">
@@ -44630,7 +44633,7 @@
         <v>3</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -44653,7 +44656,7 @@
         <v>3</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -44676,7 +44679,7 @@
         <v>3</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -44699,7 +44702,7 @@
         <v>3</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -44722,7 +44725,7 @@
         <v>3</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -44745,7 +44748,7 @@
         <v>3</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -44975,7 +44978,7 @@
         <v>3</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -44998,7 +45001,7 @@
         <v>3</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -45021,7 +45024,7 @@
         <v>3</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -45044,7 +45047,7 @@
         <v>3</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -45136,7 +45139,7 @@
         <v>3</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -45159,7 +45162,7 @@
         <v>3</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -45182,7 +45185,7 @@
         <v>3</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -45205,7 +45208,7 @@
         <v>3</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -45501,7 +45504,7 @@
         <v>3000</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2" t="s">
@@ -45522,7 +45525,7 @@
         <v>2750</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2" t="s">
@@ -45543,7 +45546,7 @@
         <v>2500</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
@@ -46062,7 +46065,7 @@
         <v>3</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -46085,7 +46088,7 @@
         <v>3</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -46108,7 +46111,7 @@
         <v>3</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -46131,7 +46134,7 @@
         <v>3</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -46338,7 +46341,7 @@
         <v>6</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -46361,7 +46364,7 @@
         <v>6</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -46384,7 +46387,7 @@
         <v>6</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -46585,7 +46588,7 @@
         <v>3500</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2" t="s">
@@ -46606,7 +46609,7 @@
         <v>3250</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2" t="s">
@@ -46627,7 +46630,7 @@
         <v>3000</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2" t="s">
@@ -46648,7 +46651,7 @@
         <v>2750</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2" t="s">
@@ -46669,7 +46672,7 @@
         <v>2500</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2" t="s">
@@ -54757,7 +54760,7 @@
         <v>索敵並列処理装置Lv1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" customHeight="1">

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="2" r:id="rId1"/>
@@ -19,39 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>M</t>
+    <t>main_weapon1</t>
   </si>
   <si>
     <t>ammo</t>
   </si>
   <si>
-    <t>beam</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>shield</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>shield</t>
+    <t>beam</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>ＭＭＰ－７８マシンガン[GN]</t>
+    <t>sub_weapon</t>
   </si>
   <si>
     <t>melee</t>
   </si>
   <si>
+    <t>ＭＭＰ－７８マシンガン[GN]</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>レール・キャノン[MP装備]</t>
+    <t>フレーム・ランチャー[GT]</t>
   </si>
   <si>
-    <t>フレーム・ランチャー[GT]</t>
+    <t>レール・キャノン[MP装備]</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
   <dimension ref="A1:AA342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -526,8 +532,8 @@
       <c r="V1" s="1" t="str">
         <v>melee_power</v>
       </c>
-      <c r="W1" s="1" t="str">
-        <v>main_weapon1</v>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="X1" s="1" t="str">
         <v>main_weapon2</v>
@@ -29761,11 +29767,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29797,8 +29803,8 @@
       <c r="G1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="H1" s="1" t="str">
-        <v>sub_weapon</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -39487,8 +39493,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C710" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C692" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D722" sqref="D722"/>
@@ -51091,7 +51097,7 @@
         <v>100</v>
       </c>
       <c r="G515" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -51114,7 +51120,7 @@
         <v>100</v>
       </c>
       <c r="G516" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -51133,7 +51139,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -51152,7 +51158,7 @@
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -51221,7 +51227,7 @@
         <v>1</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -51244,7 +51250,7 @@
         <v>1</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -51353,11 +51359,11 @@
         <v>3600</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F527" s="2"/>
       <c r="G527" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -51374,11 +51380,11 @@
         <v>3300</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -51395,11 +51401,11 @@
         <v>3000</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F529" s="2"/>
       <c r="G529" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -51675,7 +51681,7 @@
         <v>50</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -51698,7 +51704,7 @@
         <v>50</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -51902,11 +51908,11 @@
         <v>3300</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F551" s="2"/>
       <c r="G551" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -51924,11 +51930,11 @@
         <v>3000</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -51952,7 +51958,7 @@
         <v>100</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -51976,7 +51982,7 @@
         <v>100</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -52077,7 +52083,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B559" s="2" t="str">
         <v>フレームランチャー[MP]</v>
@@ -52250,11 +52256,11 @@
         <v>2760</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F566" s="2"/>
       <c r="G566" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -52271,11 +52277,11 @@
         <v>2530</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F567" s="2"/>
       <c r="G567" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -52292,11 +52298,11 @@
         <v>2300</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F568" s="2"/>
       <c r="G568" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -52382,11 +52388,11 @@
         <v>3300</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -52403,11 +52409,11 @@
         <v>3000</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -52700,11 +52706,11 @@
         <v>3850</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -52721,11 +52727,11 @@
         <v>3500</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F587" s="2"/>
       <c r="G587" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -52817,7 +52823,7 @@
         <v>90</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -52858,11 +52864,11 @@
         <v>3500</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F593" s="2"/>
       <c r="G593" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -52934,7 +52940,7 @@
         <v>25</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -52981,7 +52987,7 @@
         <v>100</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -53004,7 +53010,7 @@
         <v>100</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -53067,11 +53073,11 @@
         <v>3300</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F602" s="2"/>
       <c r="G602" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -53088,11 +53094,11 @@
         <v>3000</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -53207,7 +53213,7 @@
         <v>100</v>
       </c>
       <c r="G608" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -53230,7 +53236,7 @@
         <v>100</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -53253,7 +53259,7 @@
         <v>100</v>
       </c>
       <c r="G610" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -53322,7 +53328,7 @@
         <v>100</v>
       </c>
       <c r="G613" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -53345,12 +53351,12 @@
         <v>100</v>
       </c>
       <c r="G614" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B615" s="2" t="str">
         <v>ＲＣ付属ミサイルポッド</v>
@@ -53431,11 +53437,11 @@
         <v>5200</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F618" s="2"/>
       <c r="G618" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -53452,11 +53458,11 @@
         <v>4800</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F619" s="2"/>
       <c r="G619" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -53473,11 +53479,11 @@
         <v>4400</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F620" s="2"/>
       <c r="G620" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -53494,11 +53500,11 @@
         <v>4000</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F621" s="2"/>
       <c r="G621" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -53676,11 +53682,11 @@
         <v>3300</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F629" s="2"/>
       <c r="G629" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -53697,11 +53703,11 @@
         <v>3000</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F630" s="2"/>
       <c r="G630" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -53724,7 +53730,7 @@
         <v>3</v>
       </c>
       <c r="G631" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -53747,7 +53753,7 @@
         <v>3</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -54184,7 +54190,7 @@
         <v>1</v>
       </c>
       <c r="G651" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -54207,7 +54213,7 @@
         <v>1</v>
       </c>
       <c r="G652" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -54230,7 +54236,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -54253,7 +54259,7 @@
         <v>1</v>
       </c>
       <c r="G654" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -54270,11 +54276,11 @@
         <v>2990</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F655" s="2"/>
       <c r="G655" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -54291,11 +54297,11 @@
         <v>2760</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F656" s="2"/>
       <c r="G656" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -54312,11 +54318,11 @@
         <v>2530</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F657" s="2"/>
       <c r="G657" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -54333,11 +54339,11 @@
         <v>2300</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F658" s="2"/>
       <c r="G658" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -54457,7 +54463,7 @@
         <v>1</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -54481,7 +54487,7 @@
         <v>1</v>
       </c>
       <c r="G664" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -54505,7 +54511,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -54529,7 +54535,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -54547,11 +54553,11 @@
         <v>2990</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F667" s="2"/>
       <c r="G667" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -54569,11 +54575,11 @@
         <v>2760</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F668" s="2"/>
       <c r="G668" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -54591,11 +54597,11 @@
         <v>2530</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F669" s="2"/>
       <c r="G669" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -54613,11 +54619,11 @@
         <v>2300</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -54634,11 +54640,11 @@
         <v>2000</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F671" s="2"/>
       <c r="G671" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -54701,11 +54707,11 @@
         <v>4000</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F674" s="2"/>
       <c r="G674" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -54774,7 +54780,7 @@
         <v>3</v>
       </c>
       <c r="G677" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -54797,7 +54803,7 @@
         <v>3</v>
       </c>
       <c r="G678" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -54820,7 +54826,7 @@
         <v>3</v>
       </c>
       <c r="G679" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -54843,7 +54849,7 @@
         <v>3</v>
       </c>
       <c r="G680" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -54866,7 +54872,7 @@
         <v>3</v>
       </c>
       <c r="G681" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -54883,11 +54889,11 @@
         <v>3220</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F682" s="2"/>
       <c r="G682" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -54904,11 +54910,11 @@
         <v>2990</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F683" s="2"/>
       <c r="G683" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -54925,11 +54931,11 @@
         <v>2760</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F684" s="2"/>
       <c r="G684" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -54946,11 +54952,11 @@
         <v>2530</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F685" s="2"/>
       <c r="G685" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -54967,11 +54973,11 @@
         <v>2300</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F686" s="2"/>
       <c r="G686" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -55086,7 +55092,7 @@
         <v>2</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -55109,7 +55115,7 @@
         <v>2</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -55270,7 +55276,7 @@
         <v>3</v>
       </c>
       <c r="G699" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -55293,7 +55299,7 @@
         <v>3</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -55316,7 +55322,7 @@
         <v>3</v>
       </c>
       <c r="G701" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -55333,11 +55339,11 @@
         <v>4800</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F702" s="2"/>
       <c r="G702" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -55354,11 +55360,11 @@
         <v>4400</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F703" s="2"/>
       <c r="G703" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -55375,11 +55381,11 @@
         <v>4000</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F704" s="2"/>
       <c r="G704" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -55402,7 +55408,7 @@
         <v>3</v>
       </c>
       <c r="G705" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -55425,7 +55431,7 @@
         <v>3</v>
       </c>
       <c r="G706" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -55448,7 +55454,7 @@
         <v>3</v>
       </c>
       <c r="G707" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -55555,7 +55561,7 @@
         <v>3</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="713" spans="1:7">
@@ -55578,7 +55584,7 @@
         <v>3</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="714" spans="1:7">
@@ -55601,7 +55607,7 @@
         <v>3</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -55693,7 +55699,7 @@
         <v>3</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="719" spans="1:7">
@@ -55716,7 +55722,7 @@
         <v>3</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="720" spans="1:7">
@@ -55826,7 +55832,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B725" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="2" r:id="rId1"/>
@@ -19,45 +19,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>main_weapon1</t>
+    <t>スプレッド・ビーム</t>
+  </si>
+  <si>
+    <t>ハイドボンブ</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>ammo</t>
   </si>
   <si>
-    <t>M</t>
+    <t>main_weapon1</t>
+  </si>
+  <si>
+    <t>閃光弾</t>
+  </si>
+  <si>
+    <t>機雷散布ポッド</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>shield</t>
   </si>
   <si>
-    <t>L</t>
+    <t>クラッカー</t>
   </si>
   <si>
-    <t>beam</t>
+    <t>ammo/heat_rate</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>sub_weapon</t>
+    <t>ハンド・グレネードＺ</t>
+  </si>
+  <si>
+    <t>ＭＭＰ－７８マシンガン[GN]</t>
   </si>
   <si>
     <t>melee</t>
   </si>
   <si>
-    <t>ＭＭＰ－７８マシンガン[GN]</t>
+    <t>sub_weapon</t>
+  </si>
+  <si>
+    <t>燃料爆雷</t>
+  </si>
+  <si>
+    <t>ハンド・ミサイル・ユニット</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>フレーム・ランチャー[GT]</t>
+    <t>レール・キャノン[MP装備]</t>
   </si>
   <si>
-    <t>レール・キャノン[MP装備]</t>
+    <t>フレーム・ランチャー[GT]</t>
   </si>
 </sst>
 </file>
@@ -533,7 +560,7 @@
         <v>melee_power</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X1" s="1" t="str">
         <v>main_weapon2</v>
@@ -29767,11 +29794,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29797,14 +29824,14 @@
       <c r="E1" s="1" t="str">
         <v>range</v>
       </c>
-      <c r="F1" s="1" t="str">
-        <v>ammo/heat_rate</v>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="str">
         <v>type</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -39493,11 +39520,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H896"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C692" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C707" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D722" sqref="D722"/>
+      <selection pane="bottomRight" activeCell="G725" sqref="G725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39736,8 +39763,8 @@
       <c r="A11" s="2" t="str">
         <v>アクト・ザク</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>ハンド・グレネードＺ</v>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -42531,8 +42558,8 @@
       <c r="A134" s="2" t="str">
         <v>ギャン</v>
       </c>
-      <c r="B134" s="2" t="str">
-        <v>ハイドボンブ</v>
+      <c r="B134" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C134" s="2">
         <v>3</v>
@@ -44176,8 +44203,8 @@
       <c r="A209" s="2" t="str">
         <v>ザクI</v>
       </c>
-      <c r="B209" s="2" t="str">
-        <v>クラッカー</v>
+      <c r="B209" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C209" s="2">
         <v>4</v>
@@ -46502,8 +46529,8 @@
       <c r="A310" s="2" t="str">
         <v>ザク・マインレイヤー</v>
       </c>
-      <c r="B310" s="2" t="str">
-        <v>機雷散布ポッド</v>
+      <c r="B310" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C310" s="2">
         <v>3</v>
@@ -50000,8 +50027,8 @@
       <c r="A466" s="2" t="str">
         <v>スレイヴ・レイス</v>
       </c>
-      <c r="B466" s="2" t="str">
-        <v>閃光弾</v>
+      <c r="B466" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C466" s="2">
         <v>1</v>
@@ -50423,8 +50450,8 @@
       <c r="A485" s="2" t="str">
         <v>ドム</v>
       </c>
-      <c r="B485" s="2" t="str">
-        <v>スプレッド・ビーム</v>
+      <c r="B485" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C485" s="2">
         <v>2</v>
@@ -51030,7 +51057,9 @@
       <c r="D511" s="2"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
+      <c r="G511" s="2" t="str">
+        <v>ammo</v>
+      </c>
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="2" t="str">
@@ -51045,7 +51074,9 @@
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
+      <c r="G512" s="2" t="str">
+        <v>ammo</v>
+      </c>
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="2" t="str">
@@ -51060,7 +51091,9 @@
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
+      <c r="G513" s="2" t="str">
+        <v>shield</v>
+      </c>
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="2" t="str">
@@ -51075,7 +51108,9 @@
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
+      <c r="G514" s="2" t="str">
+        <v>shield</v>
+      </c>
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="4" t="str">
@@ -51097,7 +51132,7 @@
         <v>100</v>
       </c>
       <c r="G515" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -51120,7 +51155,7 @@
         <v>100</v>
       </c>
       <c r="G516" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -51139,7 +51174,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -51158,7 +51193,7 @@
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -51181,7 +51216,7 @@
         <v>60</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -51204,15 +51239,15 @@
         <v>60</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:7">
       <c r="A521" s="2" t="str">
         <v>ハイゴッグ</v>
       </c>
-      <c r="B521" s="2" t="str">
-        <v>ハンド・ミサイル・ユニット</v>
+      <c r="B521" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C521" s="2">
         <v>2</v>
@@ -51227,7 +51262,7 @@
         <v>1</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -51250,7 +51285,7 @@
         <v>1</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -51273,7 +51308,7 @@
         <v>30</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -51296,7 +51331,7 @@
         <v>30</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -51319,7 +51354,7 @@
         <v>4</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -51342,7 +51377,7 @@
         <v>4</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -51359,11 +51394,11 @@
         <v>3600</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F527" s="2"/>
       <c r="G527" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -51380,11 +51415,11 @@
         <v>3300</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -51401,11 +51436,11 @@
         <v>3000</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F529" s="2"/>
       <c r="G529" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -51428,7 +51463,7 @@
         <v>30</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -51451,7 +51486,7 @@
         <v>30</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -51474,7 +51509,7 @@
         <v>30</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -51497,7 +51532,7 @@
         <v>2</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -51520,7 +51555,7 @@
         <v>2</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -51543,7 +51578,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -51566,7 +51601,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -51589,7 +51624,7 @@
         <v>6</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -51612,7 +51647,7 @@
         <v>6</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -51635,7 +51670,7 @@
         <v>6</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -51658,7 +51693,7 @@
         <v>6</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -51681,7 +51716,7 @@
         <v>50</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -51704,7 +51739,7 @@
         <v>50</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -51727,7 +51762,7 @@
         <v>6</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -51750,7 +51785,7 @@
         <v>6</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -51773,7 +51808,7 @@
         <v>30</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -51796,7 +51831,7 @@
         <v>30</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -51819,7 +51854,7 @@
         <v>8</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -51842,7 +51877,7 @@
         <v>8</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -51866,7 +51901,7 @@
         <v>12</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -51890,7 +51925,7 @@
         <v>12</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -51908,11 +51943,11 @@
         <v>3300</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F551" s="2"/>
       <c r="G551" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -51930,11 +51965,11 @@
         <v>3000</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -51958,7 +51993,7 @@
         <v>100</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -51982,7 +52017,7 @@
         <v>100</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -52006,7 +52041,7 @@
         <v>5</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -52030,7 +52065,7 @@
         <v>5</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -52054,7 +52089,7 @@
         <v>6</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -52078,12 +52113,12 @@
         <v>6</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B559" s="2" t="str">
         <v>フレームランチャー[MP]</v>
@@ -52101,7 +52136,7 @@
         <v>12</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -52124,7 +52159,7 @@
         <v>30</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -52147,7 +52182,7 @@
         <v>30</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -52170,7 +52205,7 @@
         <v>30</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -52193,7 +52228,7 @@
         <v>2</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -52216,7 +52251,7 @@
         <v>2</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -52239,7 +52274,7 @@
         <v>2</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -52256,11 +52291,11 @@
         <v>2760</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F566" s="2"/>
       <c r="G566" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -52277,11 +52312,11 @@
         <v>2530</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F567" s="2"/>
       <c r="G567" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -52298,11 +52333,11 @@
         <v>2300</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F568" s="2"/>
       <c r="G568" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -52325,7 +52360,7 @@
         <v>30</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -52348,7 +52383,7 @@
         <v>30</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -52371,7 +52406,7 @@
         <v>30</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -52388,11 +52423,11 @@
         <v>3300</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -52409,11 +52444,11 @@
         <v>3000</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -52436,7 +52471,7 @@
         <v>30</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -52459,7 +52494,7 @@
         <v>30</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -52482,7 +52517,7 @@
         <v>6</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -52505,7 +52540,7 @@
         <v>6</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -52528,7 +52563,7 @@
         <v>30</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -52551,7 +52586,7 @@
         <v>30</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -52574,7 +52609,7 @@
         <v>30</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -52597,7 +52632,7 @@
         <v>30</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -52620,7 +52655,7 @@
         <v>6</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -52643,7 +52678,7 @@
         <v>6</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -52666,7 +52701,7 @@
         <v>30</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -52689,7 +52724,7 @@
         <v>30</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -52706,11 +52741,11 @@
         <v>3850</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -52727,11 +52762,11 @@
         <v>3500</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F587" s="2"/>
       <c r="G587" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -52754,7 +52789,7 @@
         <v>30</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -52777,7 +52812,7 @@
         <v>30</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -52800,7 +52835,7 @@
         <v>30</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -52823,7 +52858,7 @@
         <v>90</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -52846,7 +52881,7 @@
         <v>30</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -52868,7 +52903,7 @@
       </c>
       <c r="F593" s="2"/>
       <c r="G593" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -52892,7 +52927,7 @@
         <v>1</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -52916,7 +52951,7 @@
         <v>6</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -52940,7 +52975,7 @@
         <v>25</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -52964,7 +52999,7 @@
         <v>30</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -52987,7 +53022,7 @@
         <v>100</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -53010,7 +53045,7 @@
         <v>100</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -53033,7 +53068,7 @@
         <v>4</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -53056,7 +53091,7 @@
         <v>4</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -53073,11 +53108,11 @@
         <v>3300</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F602" s="2"/>
       <c r="G602" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -53094,11 +53129,11 @@
         <v>3000</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -53121,7 +53156,7 @@
         <v>30</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -53144,7 +53179,7 @@
         <v>30</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -53167,7 +53202,7 @@
         <v>8</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -53190,7 +53225,7 @@
         <v>8</v>
       </c>
       <c r="G607" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -53213,7 +53248,7 @@
         <v>100</v>
       </c>
       <c r="G608" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -53236,7 +53271,7 @@
         <v>100</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -53259,7 +53294,7 @@
         <v>100</v>
       </c>
       <c r="G610" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -53282,7 +53317,7 @@
         <v>1</v>
       </c>
       <c r="G611" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -53305,7 +53340,7 @@
         <v>1</v>
       </c>
       <c r="G612" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -53328,7 +53363,7 @@
         <v>100</v>
       </c>
       <c r="G613" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -53351,12 +53386,12 @@
         <v>100</v>
       </c>
       <c r="G614" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="615" spans="1:7">
       <c r="A615" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B615" s="2" t="str">
         <v>ＲＣ付属ミサイルポッド</v>
@@ -53374,7 +53409,7 @@
         <v>16</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -53397,7 +53432,7 @@
         <v>16</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -53420,7 +53455,7 @@
         <v>16</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -53437,11 +53472,11 @@
         <v>5200</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F618" s="2"/>
       <c r="G618" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -53458,11 +53493,11 @@
         <v>4800</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F619" s="2"/>
       <c r="G619" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -53479,11 +53514,11 @@
         <v>4400</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F620" s="2"/>
       <c r="G620" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -53500,11 +53535,11 @@
         <v>4000</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F621" s="2"/>
       <c r="G621" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -53527,7 +53562,7 @@
         <v>50</v>
       </c>
       <c r="G622" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -53550,7 +53585,7 @@
         <v>50</v>
       </c>
       <c r="G623" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -53573,7 +53608,7 @@
         <v>50</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -53596,7 +53631,7 @@
         <v>50</v>
       </c>
       <c r="G625" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -53619,7 +53654,7 @@
         <v>1</v>
       </c>
       <c r="G626" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -53642,7 +53677,7 @@
         <v>1</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -53665,7 +53700,7 @@
         <v>1</v>
       </c>
       <c r="G628" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -53682,11 +53717,11 @@
         <v>3300</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F629" s="2"/>
       <c r="G629" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -53703,11 +53738,11 @@
         <v>3000</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F630" s="2"/>
       <c r="G630" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -53730,7 +53765,7 @@
         <v>3</v>
       </c>
       <c r="G631" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -53753,7 +53788,7 @@
         <v>3</v>
       </c>
       <c r="G632" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -53776,7 +53811,7 @@
         <v>12</v>
       </c>
       <c r="G633" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -53799,7 +53834,7 @@
         <v>12</v>
       </c>
       <c r="G634" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -53822,7 +53857,7 @@
         <v>12</v>
       </c>
       <c r="G635" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -53845,7 +53880,7 @@
         <v>30</v>
       </c>
       <c r="G636" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -53868,7 +53903,7 @@
         <v>30</v>
       </c>
       <c r="G637" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -53891,7 +53926,7 @@
         <v>30</v>
       </c>
       <c r="G638" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -53914,7 +53949,7 @@
         <v>12</v>
       </c>
       <c r="G639" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -53937,7 +53972,7 @@
         <v>12</v>
       </c>
       <c r="G640" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -53960,7 +53995,7 @@
         <v>12</v>
       </c>
       <c r="G641" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -53983,7 +54018,7 @@
         <v>12</v>
       </c>
       <c r="G642" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -54006,7 +54041,7 @@
         <v>6</v>
       </c>
       <c r="G643" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -54029,7 +54064,7 @@
         <v>6</v>
       </c>
       <c r="G644" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -54052,7 +54087,7 @@
         <v>6</v>
       </c>
       <c r="G645" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -54075,7 +54110,7 @@
         <v>6</v>
       </c>
       <c r="G646" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -54098,7 +54133,7 @@
         <v>30</v>
       </c>
       <c r="G647" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -54121,7 +54156,7 @@
         <v>30</v>
       </c>
       <c r="G648" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -54144,7 +54179,7 @@
         <v>30</v>
       </c>
       <c r="G649" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -54167,7 +54202,7 @@
         <v>30</v>
       </c>
       <c r="G650" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -54190,7 +54225,7 @@
         <v>1</v>
       </c>
       <c r="G651" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -54213,7 +54248,7 @@
         <v>1</v>
       </c>
       <c r="G652" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -54236,7 +54271,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -54259,7 +54294,7 @@
         <v>1</v>
       </c>
       <c r="G654" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -54276,11 +54311,11 @@
         <v>2990</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F655" s="2"/>
       <c r="G655" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -54297,11 +54332,11 @@
         <v>2760</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F656" s="2"/>
       <c r="G656" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -54318,11 +54353,11 @@
         <v>2530</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F657" s="2"/>
       <c r="G657" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -54339,11 +54374,11 @@
         <v>2300</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F658" s="2"/>
       <c r="G658" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -54367,7 +54402,7 @@
         <v>30</v>
       </c>
       <c r="G659" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -54391,7 +54426,7 @@
         <v>30</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -54415,7 +54450,7 @@
         <v>30</v>
       </c>
       <c r="G661" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -54439,7 +54474,7 @@
         <v>30</v>
       </c>
       <c r="G662" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -54463,7 +54498,7 @@
         <v>1</v>
       </c>
       <c r="G663" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -54487,7 +54522,7 @@
         <v>1</v>
       </c>
       <c r="G664" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -54511,7 +54546,7 @@
         <v>1</v>
       </c>
       <c r="G665" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -54535,7 +54570,7 @@
         <v>1</v>
       </c>
       <c r="G666" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -54553,11 +54588,11 @@
         <v>2990</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F667" s="2"/>
       <c r="G667" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -54575,11 +54610,11 @@
         <v>2760</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F668" s="2"/>
       <c r="G668" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -54597,11 +54632,11 @@
         <v>2530</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F669" s="2"/>
       <c r="G669" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -54619,11 +54654,11 @@
         <v>2300</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -54640,11 +54675,11 @@
         <v>2000</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F671" s="2"/>
       <c r="G671" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -54667,7 +54702,7 @@
         <v>24</v>
       </c>
       <c r="G672" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -54690,7 +54725,7 @@
         <v>3</v>
       </c>
       <c r="G673" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -54707,11 +54742,11 @@
         <v>4000</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F674" s="2"/>
       <c r="G674" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -54734,7 +54769,7 @@
         <v>24</v>
       </c>
       <c r="G675" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -54757,7 +54792,7 @@
         <v>3</v>
       </c>
       <c r="G676" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -54780,7 +54815,7 @@
         <v>3</v>
       </c>
       <c r="G677" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -54803,7 +54838,7 @@
         <v>3</v>
       </c>
       <c r="G678" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -54826,7 +54861,7 @@
         <v>3</v>
       </c>
       <c r="G679" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -54849,7 +54884,7 @@
         <v>3</v>
       </c>
       <c r="G680" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -54872,7 +54907,7 @@
         <v>3</v>
       </c>
       <c r="G681" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -54889,11 +54924,11 @@
         <v>3220</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F682" s="2"/>
       <c r="G682" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -54910,11 +54945,11 @@
         <v>2990</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F683" s="2"/>
       <c r="G683" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -54931,11 +54966,11 @@
         <v>2760</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F684" s="2"/>
       <c r="G684" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -54952,11 +54987,11 @@
         <v>2530</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F685" s="2"/>
       <c r="G685" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -54973,11 +55008,11 @@
         <v>2300</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F686" s="2"/>
       <c r="G686" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -55000,7 +55035,7 @@
         <v>2</v>
       </c>
       <c r="G687" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:7">
@@ -55023,7 +55058,7 @@
         <v>2</v>
       </c>
       <c r="G688" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -55046,7 +55081,7 @@
         <v>10</v>
       </c>
       <c r="G689" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:7">
@@ -55069,15 +55104,15 @@
         <v>10</v>
       </c>
       <c r="G690" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:7">
       <c r="A691" s="2" t="str">
         <v>陸戦強襲型ガンタンク</v>
       </c>
-      <c r="B691" s="2" t="str">
-        <v>燃料爆雷</v>
+      <c r="B691" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C691" s="2">
         <v>2</v>
@@ -55092,7 +55127,7 @@
         <v>2</v>
       </c>
       <c r="G691" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -55115,7 +55150,7 @@
         <v>2</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -55138,7 +55173,7 @@
         <v>100</v>
       </c>
       <c r="G693" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -55161,7 +55196,7 @@
         <v>100</v>
       </c>
       <c r="G694" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -55184,7 +55219,7 @@
         <v>4</v>
       </c>
       <c r="G695" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -55207,7 +55242,7 @@
         <v>4</v>
       </c>
       <c r="G696" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -55230,7 +55265,7 @@
         <v>6</v>
       </c>
       <c r="G697" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:7">
@@ -55253,7 +55288,7 @@
         <v>6</v>
       </c>
       <c r="G698" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -55276,7 +55311,7 @@
         <v>3</v>
       </c>
       <c r="G699" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -55299,7 +55334,7 @@
         <v>3</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -55322,7 +55357,7 @@
         <v>3</v>
       </c>
       <c r="G701" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -55339,11 +55374,11 @@
         <v>4800</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F702" s="2"/>
       <c r="G702" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -55360,11 +55395,11 @@
         <v>4400</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F703" s="2"/>
       <c r="G703" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -55381,11 +55416,11 @@
         <v>4000</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F704" s="2"/>
       <c r="G704" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -55408,7 +55443,7 @@
         <v>3</v>
       </c>
       <c r="G705" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -55431,7 +55466,7 @@
         <v>3</v>
       </c>
       <c r="G706" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -55454,7 +55489,7 @@
         <v>3</v>
       </c>
       <c r="G707" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -55477,7 +55512,7 @@
         <v>50</v>
       </c>
       <c r="G708" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -55500,7 +55535,7 @@
         <v>50</v>
       </c>
       <c r="G709" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -55523,7 +55558,7 @@
         <v>50</v>
       </c>
       <c r="G710" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -55539,7 +55574,9 @@
       <c r="D711" s="2"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
-      <c r="G711" s="2"/>
+      <c r="G711" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="712" spans="1:7">
       <c r="A712" s="2" t="str">
@@ -55561,7 +55598,7 @@
         <v>3</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="713" spans="1:7">
@@ -55584,7 +55621,7 @@
         <v>3</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="714" spans="1:7">
@@ -55607,7 +55644,7 @@
         <v>3</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -55630,7 +55667,7 @@
         <v>100</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -55653,7 +55690,7 @@
         <v>100</v>
       </c>
       <c r="G716" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="717" spans="1:7">
@@ -55676,7 +55713,7 @@
         <v>100</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" spans="1:7">
@@ -55699,7 +55736,7 @@
         <v>3</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="719" spans="1:7">
@@ -55722,7 +55759,7 @@
         <v>3</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="720" spans="1:7">
@@ -55745,7 +55782,7 @@
         <v>4</v>
       </c>
       <c r="G720" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:7">
@@ -55766,7 +55803,7 @@
         <v>4</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:7">
@@ -55789,7 +55826,7 @@
         <v>4</v>
       </c>
       <c r="G722" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -55812,7 +55849,7 @@
         <v>4</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -55828,11 +55865,13 @@
       <c r="D724" s="2"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
-      <c r="G724" s="2"/>
+      <c r="G724" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="725" spans="1:7">
       <c r="A725" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B725" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>
@@ -55850,7 +55889,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -55873,7 +55912,7 @@
         <v>1</v>
       </c>
       <c r="G726" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -55896,7 +55935,7 @@
         <v>1</v>
       </c>
       <c r="G727" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -55919,7 +55958,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729" spans="1:7">
@@ -55942,7 +55981,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730" spans="1:7">
@@ -55965,7 +56004,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="731" spans="1:7">
@@ -55988,7 +56027,7 @@
         <v>1</v>
       </c>
       <c r="G731" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="732" spans="1:7">
@@ -56011,7 +56050,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="733" spans="1:7">
@@ -56034,7 +56073,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -56057,7 +56096,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:7">
@@ -56080,7 +56119,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736" spans="1:7">

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -431,11 +431,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y61" sqref="Y61"/>
+      <selection pane="bottomRight" activeCell="V342" sqref="V342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29866,7 +29866,9 @@
         <v>○</v>
       </c>
       <c r="U341" s="2"/>
-      <c r="V341" s="2"/>
+      <c r="V341" s="2" t="str">
+        <v>strong</v>
+      </c>
       <c r="W341" s="2" t="str">
         <v>アサルトアーマー用ショットガン</v>
       </c>
@@ -29951,7 +29953,9 @@
         <v>○</v>
       </c>
       <c r="U342" s="2"/>
-      <c r="V342" s="2"/>
+      <c r="V342" s="2" t="str">
+        <v>strong</v>
+      </c>
       <c r="W342" s="2" t="str">
         <v>アサルトアーマー用ショットガン</v>
       </c>
@@ -39816,7 +39820,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H904"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -432,10 +432,10 @@
   <dimension ref="A1:AA343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V342" sqref="V342"/>
+      <selection pane="bottomRight" activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5888,7 +5888,9 @@
       <c r="U63" s="2" t="str">
         <v>G</v>
       </c>
-      <c r="V63" s="2"/>
+      <c r="V63" s="2" t="str">
+        <v>strong</v>
+      </c>
       <c r="W63" s="3" t="str">
         <v>ジャイアント・バズ(布付き)
 ＭＭＰ－７８マシンガン[GN]</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>shield+100</t>
+    <t>スラスターが１増加。</t>
+    <rPh sb="7" eb="9">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>hp+250</t>
+    <t>スラスターオーバーヒート時の
+回復時間が３％短縮。</t>
+    <rPh sb="12" eb="13">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>かいふく</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>たんしゅく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>anti_ammo+1</t>
+  </si>
+  <si>
+    <t>anti_beam+1</t>
+  </si>
+  <si>
+    <t>hp+100</t>
   </si>
   <si>
     <t>anti_beam+3</t>
@@ -34,37 +61,97 @@
     <t>thruster+1</t>
   </si>
   <si>
+    <t>フレーム補強Lv1
+シールド構造強化Lv1
+複合拡張パーツスロットLv1
+AD-FCSLv1</t>
+  </si>
+  <si>
+    <t>anti_melee+1</t>
+  </si>
+  <si>
+    <t>シールドＨＰが１００増加。</t>
+    <rPh sb="10" eb="12">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>耐ビーム補正が３増加。</t>
+    <rPh sb="0" eb="1">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>slot+1</t>
+  </si>
+  <si>
+    <t>slot+2</t>
+  </si>
+  <si>
+    <t>hp+250</t>
+  </si>
+  <si>
     <t>anti_melee+3</t>
   </si>
   <si>
     <t>thruster_overheat-3%</t>
   </si>
   <si>
-    <t>thruster+2</t>
+    <t>射撃補正が２増加。</t>
+    <rPh sb="0" eb="2">
+      <t>しゃげき</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>ranged+1</t>
+    <t>耐格闘補正が３増加。</t>
+    <rPh sb="0" eb="1">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>かくとう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>フレーム補強Lv1
-シールド構造強化Lv1
-複合拡張パーツスロットLv1
-AD-FCSLv1</t>
-  </si>
-  <si>
-    <t>anti_ammo+3</t>
-  </si>
-  <si>
-    <t>anti_melee+1</t>
-  </si>
-  <si>
-    <t>slot+1</t>
+    <t>近・中・遠距離のパーツスロットが
+２スロットずつ増加する。</t>
+    <rPh sb="0" eb="1">
+      <t>きん</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ちゅう</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>えんきょり</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>melee+2</t>
-  </si>
-  <si>
-    <t>anti_ammo+1</t>
   </si>
   <si>
     <t>複合拡張パーツスロットLv1
@@ -73,10 +160,117 @@
 AD-FCSLv1</t>
   </si>
   <si>
-    <t>anti_beam+1</t>
+    <t>shield+100</t>
+  </si>
+  <si>
+    <t>thruster+2</t>
+  </si>
+  <si>
+    <t>射撃補正が１増加。</t>
+    <rPh sb="0" eb="2">
+      <t>しゃげき</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>格闘補正が２増加。</t>
+    <rPh sb="0" eb="2">
+      <t>かくとう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>耐格闘補正が１増加。</t>
+    <rPh sb="0" eb="1">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>かくとう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>シールドＨＰが２００増加。</t>
+    <rPh sb="10" eb="12">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>耐ビーム補正が１増加。</t>
+    <rPh sb="0" eb="1">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ranged+2</t>
+  </si>
+  <si>
+    <t>shield+200</t>
+  </si>
+  <si>
+    <t>thruster_overheat-5%</t>
+  </si>
+  <si>
+    <t>melee+1</t>
+  </si>
+  <si>
+    <t>耐実弾補正が１増加。</t>
+    <rPh sb="0" eb="1">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>じつだん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>スラスターが２増加。</t>
+    <rPh sb="7" eb="9">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>機体ＨＰが２５０増加。</t>
+    <rPh sb="0" eb="2">
+      <t>きたい</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>耐格闘装甲補強Lv1
@@ -89,22 +283,86 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>shield+200</t>
+    <t>格闘補正が１増加。</t>
+    <rPh sb="0" eb="2">
+      <t>かくとう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>hp+100</t>
+    <t>ranged+1</t>
   </si>
   <si>
-    <t>slot+2</t>
+    <t>機体ＨＰが１００増加。</t>
+    <rPh sb="0" eb="2">
+      <t>きたい</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>スラスターオーバーヒート時の
+回復時間が５％短縮。</t>
+    <rPh sb="12" eb="13">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>かいふく</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>たんしゅく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>anti_ammo+3</t>
+  </si>
+  <si>
+    <t>近・中・遠距離のパーツスロットが
+１スロットずつ増加する。</t>
+    <rPh sb="0" eb="1">
+      <t>きん</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ちゅう</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>えんきょり</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>耐実弾補正が３増加。</t>
+    <rPh sb="0" eb="1">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>じつだん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ほせい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ぞうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>耐ビーム装甲補強Lv2</t>
-  </si>
-  <si>
-    <t>thruster_overheat-5%</t>
-  </si>
-  <si>
-    <t>melee+1</t>
   </si>
 </sst>
 </file>
@@ -501,11 +759,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y334" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y335" sqref="Y335"/>
+      <selection pane="bottomRight" activeCell="AA258" sqref="AA258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7033,7 +7291,7 @@
 能力UP「EXAM」Lv1</v>
       </c>
       <c r="AA70" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:27" ht="94.5" customHeight="1">
@@ -7126,7 +7384,7 @@
 能力UP「EXAM」Lv1</v>
       </c>
       <c r="AA71" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="94.5" customHeight="1">
@@ -7219,7 +7477,7 @@
 能力UP「EXAM」Lv1</v>
       </c>
       <c r="AA72" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:27" ht="94.5" customHeight="1">
@@ -14614,7 +14872,7 @@
 前線維持支援システムLv1</v>
       </c>
       <c r="AA152" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:27" ht="67.5" customHeight="1">
@@ -14700,7 +14958,7 @@
 前線維持支援システムLv1</v>
       </c>
       <c r="AA153" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:27" ht="67.5" customHeight="1">
@@ -14786,7 +15044,7 @@
 前線維持支援システムLv1</v>
       </c>
       <c r="AA154" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:27" ht="81" customHeight="1">
@@ -18011,7 +18269,7 @@
 頭部特殊緩衝材Lv1</v>
       </c>
       <c r="AA189" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:27" ht="67.5" customHeight="1">
@@ -62687,11 +62945,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -62717,180 +62975,220 @@
         <v>AD-FCSLv1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="str">
         <v>AD-FCSLv2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="str">
         <v>AD-PALv1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="str">
         <v>AD-PALv2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="str">
         <v>シールド構造強化Lv1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="str">
         <v>シールド構造強化Lv2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="str">
         <v>フレーム補強Lv1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="str">
         <v>フレーム補強Lv2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="str">
         <v>プロペラントタンクLv1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="str">
         <v>プロペラントタンクLv2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="5" t="str">
         <v>冷却補助システムLv1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27">
       <c r="A13" s="5" t="str">
         <v>冷却補助システムLv2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="str">
         <v>耐ビーム装甲補強Lv1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="str">
         <v>耐実弾装甲補強Lv1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="str">
         <v>耐実弾装甲補強Lv2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="str">
         <v>耐格闘装甲補強Lv1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="str">
         <v>耐格闘装甲補強Lv1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27">
       <c r="A20" s="5" t="str">
         <v>複合拡張パーツスロットLv1</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27">
       <c r="A21" s="5" t="str">
         <v>複合拡張パーツスロットLv2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6"/>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -423,10 +423,10 @@
   <dimension ref="A1:AA353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C349" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A354" sqref="A354"/>
+      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8952,7 +8952,7 @@
         <v>general</v>
       </c>
       <c r="G92" s="2">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H92" s="2">
         <v>15</v>
@@ -9043,7 +9043,7 @@
         <v>general</v>
       </c>
       <c r="G93" s="2">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="H93" s="2">
         <v>13</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -423,10 +423,10 @@
   <dimension ref="A1:AA353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R349" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G94" sqref="G94"/>
+      <selection pane="bottomRight" activeCell="V352" sqref="V352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32874,7 +32874,9 @@
       <c r="U351" s="2" t="str">
         <v>S</v>
       </c>
-      <c r="V351" s="2"/>
+      <c r="V351" s="2" t="str">
+        <v>strong</v>
+      </c>
       <c r="W351" s="3" t="str">
         <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
@@ -32964,7 +32966,9 @@
       <c r="U352" s="2" t="str">
         <v>S</v>
       </c>
-      <c r="V352" s="2"/>
+      <c r="V352" s="2" t="str">
+        <v>strong</v>
+      </c>
       <c r="W352" s="3" t="str">
         <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="W354" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -45916,11 +45916,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J944"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D330" sqref="D330"/>
+      <selection pane="bottomRight" activeCell="J323" sqref="J323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55680,7 +55680,7 @@
         <v>×</v>
       </c>
       <c r="J321" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -55712,7 +55712,7 @@
         <v>×</v>
       </c>
       <c r="J322" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -55744,7 +55744,7 @@
         <v>×</v>
       </c>
       <c r="J323" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="324" spans="1:10">

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>タッチパッドを押すことで、
 機体の前後を反転することが可能。
@@ -52,7 +52,25 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
+    <t>格闘連撃制御Lv2
+高性能バランサーLv1
+耐爆機構Lv1
+衝撃吸収機構Lv1
+ダメージコントロールLv3
+強化タックルLv3</t>
+  </si>
+  <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>高性能レーダーLv3
+高性能スコープLv3
+観測情報連結Lv1
+索敵並列処理装置Lv1
+高性能航宙ジンバルLv1
+強制噴射装置Lv1
+高性能AMBACLv1
+格闘連撃制御Lv1</t>
   </si>
 </sst>
 </file>
@@ -446,11 +464,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X382" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="X381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X384" sqref="X384"/>
+      <selection pane="bottomRight" activeCell="Z381" sqref="Z381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35834,13 +35852,8 @@
       <c r="Y382" s="2" t="str">
         <v>腹部魚雷発射管ｘ２</v>
       </c>
-      <c r="Z382" s="4" t="str">
-        <v>高性能バランサーLv1
-格闘連撃制御Lv2
-強化タックルLv3
-耐爆機構Lv1
-衝撃吸収機構Lv1
-ダメージコントロールLv3</v>
+      <c r="Z382" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AA382" s="4" t="str">
         <v>フレーム補強Lv1
@@ -35925,13 +35938,8 @@
       <c r="Y383" s="2" t="str">
         <v>腹部魚雷発射管ｘ２</v>
       </c>
-      <c r="Z383" s="4" t="str">
-        <v>高性能バランサーLv1
-格闘連撃制御Lv2
-強化タックルLv3
-耐爆機構Lv1
-衝撃吸収機構Lv1
-ダメージコントロールLv3</v>
+      <c r="Z383" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="AA383" s="4" t="str">
         <v>フレーム補強Lv1
@@ -36017,15 +36025,8 @@
         <v>試作４号機用ビーム・ライフル
 ガーベラシールド</v>
       </c>
-      <c r="Z384" s="4" t="str">
-        <v>強制噴射装置Lv1
-高性能AMBACLv1
-格闘連撃制御Lv1
-高性能レーダーLv3
-高性能スコープLv3
-観測情報連結Lv1
-高性能航宙ジンバルLv1
-索敵並列処理装置Lv1</v>
+      <c r="Z384" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="AA384" s="4" t="str">
         <v>AD-FCSLv1
@@ -49433,7 +49434,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -52929,7 +52930,7 @@
         <v>3500</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -52,15 +52,15 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>格闘連撃制御Lv2
 高性能バランサーLv1
 耐爆機構Lv1
 衝撃吸収機構Lv1
 ダメージコントロールLv3
 強化タックルLv3</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>高性能レーダーLv3
@@ -464,11 +464,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X381" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z381" sqref="Z381"/>
+      <selection pane="bottomRight" activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17764,7 +17764,7 @@
         <v>raid</v>
       </c>
       <c r="G187" s="2">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="H187" s="2">
         <v>11</v>
@@ -17859,7 +17859,7 @@
         <v>raid</v>
       </c>
       <c r="G188" s="2">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="H188" s="2">
         <v>9</v>
@@ -35853,7 +35853,7 @@
         <v>腹部魚雷発射管ｘ２</v>
       </c>
       <c r="Z382" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA382" s="4" t="str">
         <v>フレーム補強Lv1
@@ -35939,7 +35939,7 @@
         <v>腹部魚雷発射管ｘ２</v>
       </c>
       <c r="Z383" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA383" s="4" t="str">
         <v>フレーム補強Lv1
@@ -49434,11 +49434,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1022"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C377" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
+      <selection pane="bottomRight" activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -52930,7 +52930,7 @@
         <v>3500</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -61401,7 +61401,7 @@
         <v>3</v>
       </c>
       <c r="D396" s="2">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E396" s="2">
         <v>250</v>
@@ -61433,7 +61433,7 @@
         <v>2</v>
       </c>
       <c r="D397" s="2">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E397" s="2">
         <v>250</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -52,15 +52,15 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>格闘連撃制御Lv2
 高性能バランサーLv1
 耐爆機構Lv1
 衝撃吸収機構Lv1
 ダメージコントロールLv3
 強化タックルLv3</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>高性能レーダーLv3
@@ -464,11 +464,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G188" sqref="G188"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10485,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F108" s="2" t="str">
         <v>raid</v>
@@ -35853,7 +35853,7 @@
         <v>腹部魚雷発射管ｘ２</v>
       </c>
       <c r="Z382" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA382" s="4" t="str">
         <v>フレーム補強Lv1
@@ -35939,7 +35939,7 @@
         <v>腹部魚雷発射管ｘ２</v>
       </c>
       <c r="Z383" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA383" s="4" t="str">
         <v>フレーム補強Lv1
@@ -49434,8 +49434,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C377" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C296" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D397" sqref="D397"/>
@@ -52930,7 +52930,7 @@
         <v>3500</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -471,10 +471,10 @@
   <dimension ref="A1:AA388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V387" sqref="V387"/>
+      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6468,7 +6468,7 @@
         <v>raid</v>
       </c>
       <c r="G65" s="2">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="H65" s="2">
         <v>20</v>
@@ -6477,7 +6477,7 @@
         <v>20</v>
       </c>
       <c r="J65" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K65" s="2">
         <v>33</v>
@@ -6563,7 +6563,7 @@
         <v>raid</v>
       </c>
       <c r="G66" s="2">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="H66" s="2">
         <v>18</v>
@@ -6572,7 +6572,7 @@
         <v>18</v>
       </c>
       <c r="J66" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K66" s="2">
         <v>30</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -471,10 +471,10 @@
   <dimension ref="A1:AA388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C375" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomRight" activeCell="E376" sqref="E376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35135,7 +35135,7 @@
         <v>2</v>
       </c>
       <c r="E375" s="2">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F375" s="2" t="str">
         <v>general</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>シールド構造強化Lv1
+フレーム補強Lv1
+複合拡張パーツスロットLv1
+AD-FCSLv1</t>
+    <rPh sb="4" eb="6">
+      <t>こうぞう</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>きょうか</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ほきょう</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ふくごう</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>かくちょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
 </sst>
 </file>
@@ -416,11 +438,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA398"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W396" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="AA397" sqref="AA397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37125,7 +37147,9 @@
 爆発反応装甲Lv1
 シールドタックルLv1</v>
       </c>
-      <c r="AA396" s="2"/>
+      <c r="AA396" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="397" spans="1:27" ht="121.5" customHeight="1">
       <c r="A397" s="2">
@@ -37217,7 +37241,9 @@
 爆発反応装甲Lv1
 シールドタックルLv1</v>
       </c>
-      <c r="AA397" s="2"/>
+      <c r="AA397" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="398" spans="1:27">
       <c r="A398" s="3">
@@ -50749,7 +50775,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1053"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>L</t>
+    <t>背部バインダーへ攻撃を受けた際、
+機体HPへのダメージを１５％軽減する。</t>
+    <rPh sb="0" eb="2">
+      <t>はいぶ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>こうげき</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>う</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>さい</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>きたい</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>けいげん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
 </sst>
 </file>
@@ -414,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA418"/>
+  <dimension ref="A1:AA419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C415" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B417" sqref="B417"/>
+      <selection pane="bottomRight" activeCell="Y417" sqref="Y417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39105,9 +39125,105 @@
 AD-FCSLv1</v>
       </c>
     </row>
-    <row r="418" spans="1:27">
-      <c r="A418" s="3">
+    <row r="418" spans="1:27" ht="108" customHeight="1">
+      <c r="A418" s="2">
         <v>417</v>
+      </c>
+      <c r="B418" s="2" t="str">
+        <v>百式</v>
+      </c>
+      <c r="C418" s="2">
+        <v>3</v>
+      </c>
+      <c r="D418" s="2">
+        <v>1</v>
+      </c>
+      <c r="E418" s="2">
+        <v>550</v>
+      </c>
+      <c r="F418" s="2" t="str">
+        <v>raid</v>
+      </c>
+      <c r="G418" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H418" s="2">
+        <v>22</v>
+      </c>
+      <c r="I418" s="2">
+        <v>40</v>
+      </c>
+      <c r="J418" s="2">
+        <v>16</v>
+      </c>
+      <c r="K418" s="2">
+        <v>27</v>
+      </c>
+      <c r="L418" s="2">
+        <v>28</v>
+      </c>
+      <c r="M418" s="2">
+        <v>130</v>
+      </c>
+      <c r="N418" s="2">
+        <v>70</v>
+      </c>
+      <c r="O418" s="2">
+        <v>15</v>
+      </c>
+      <c r="P418" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q418" s="2">
+        <v>11</v>
+      </c>
+      <c r="R418" s="2">
+        <v>19</v>
+      </c>
+      <c r="S418" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="T418" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="U418" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="V418" s="2" t="str">
+        <v>strong</v>
+      </c>
+      <c r="W418" s="4" t="str">
+        <v>百式用ビーム・ライフル
+クレイ・バズーカ
+クレイ・バズーカ[散弾]</v>
+      </c>
+      <c r="X418" s="2" t="str">
+        <v>百式用ビーム・サーベル</v>
+      </c>
+      <c r="Y418" s="4" t="str">
+        <v>頭部バルカン[改修型]
+拳部トリモチ・ランチャー</v>
+      </c>
+      <c r="Z418" s="4" t="str">
+        <v>高性能バランサーLv1
+高性能AMBACLv1
+マニューバーアーマーLv2
+強制噴射装置Lv2
+格闘連撃制御Lv2
+空中制御プログラムLv2
+緊急回避制御Lv1
+背部バインダー特殊緩衝材Lv2</v>
+      </c>
+      <c r="AA418" s="4" t="str">
+        <v>AD-FCSLv1
+耐実弾装甲補強Lv1
+耐ビーム装甲補強Lv1
+複合拡張パーツスロットLv1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27">
+      <c r="A419" s="3">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -39119,13 +39235,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K341"/>
+  <dimension ref="A1:K342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45843,29 +45959,29 @@
       <c r="K203" s="2"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="2" t="str">
-        <v>簡略式ミサイル・ランチャー</v>
-      </c>
-      <c r="B204" s="2">
-        <v>2</v>
-      </c>
-      <c r="C204" s="2">
-        <v>3</v>
-      </c>
-      <c r="D204" s="2">
-        <v>935</v>
-      </c>
-      <c r="E204" s="2">
-        <v>410</v>
+      <c r="A204" s="5" t="str">
+        <v>百式用ビーム・ライフル</v>
+      </c>
+      <c r="B204" s="5">
+        <v>2</v>
+      </c>
+      <c r="C204" s="5">
+        <v>1</v>
+      </c>
+      <c r="D204" s="5">
+        <v>2400</v>
+      </c>
+      <c r="E204" s="5">
+        <v>350</v>
       </c>
       <c r="F204" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204" s="5">
         <v>4</v>
       </c>
       <c r="H204" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I204" s="2" t="str">
         <v>×</v>
@@ -45873,7 +45989,7 @@
       <c r="J204" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K204" s="2"/>
+      <c r="K204" s="5"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="2" t="str">
@@ -45883,13 +45999,13 @@
         <v>2</v>
       </c>
       <c r="C205" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205" s="2">
-        <v>892</v>
+        <v>935</v>
       </c>
       <c r="E205" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F205" s="2" t="str">
         <v>bullet</v>
@@ -45916,13 +46032,13 @@
         <v>2</v>
       </c>
       <c r="C206" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" s="2">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="E206" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F206" s="2" t="str">
         <v>bullet</v>
@@ -45943,31 +46059,31 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="2" t="str">
-        <v>胸部４連装メガ粒子砲</v>
+        <v>簡略式ミサイル・ランチャー</v>
       </c>
       <c r="B207" s="2">
         <v>2</v>
       </c>
       <c r="C207" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" s="2">
-        <v>305</v>
+        <v>850</v>
       </c>
       <c r="E207" s="2">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="F207" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G207" s="2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H207" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I207" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J207" s="2" t="str">
         <v>×</v>
@@ -45982,13 +46098,13 @@
         <v>2</v>
       </c>
       <c r="C208" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E208" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F208" s="2" t="str">
         <v>heat</v>
@@ -46009,34 +46125,34 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="2" t="str">
-        <v>腕部３連装ガトリング</v>
+        <v>胸部４連装メガ粒子砲</v>
       </c>
       <c r="B209" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D209" s="2">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="E209" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F209" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G209" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H209" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I209" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J209" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K209" s="2"/>
     </row>
@@ -46048,10 +46164,10 @@
         <v>1</v>
       </c>
       <c r="C210" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E210" s="2">
         <v>200</v>
@@ -46060,7 +46176,7 @@
         <v>bullet</v>
       </c>
       <c r="G210" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H210" s="2" t="str">
         <v>ammo</v>
@@ -46081,10 +46197,10 @@
         <v>1</v>
       </c>
       <c r="C211" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E211" s="2">
         <v>200</v>
@@ -46093,7 +46209,7 @@
         <v>bullet</v>
       </c>
       <c r="G211" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211" s="2" t="str">
         <v>ammo</v>
@@ -46108,16 +46224,16 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="2" t="str">
-        <v>腕部４０ｍｍバルカン砲</v>
+        <v>腕部３連装ガトリング</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
       </c>
       <c r="C212" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E212" s="2">
         <v>200</v>
@@ -46126,7 +46242,7 @@
         <v>bullet</v>
       </c>
       <c r="G212" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H212" s="2" t="str">
         <v>ammo</v>
@@ -46147,10 +46263,10 @@
         <v>1</v>
       </c>
       <c r="C213" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D213" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E213" s="2">
         <v>200</v>
@@ -46159,7 +46275,7 @@
         <v>bullet</v>
       </c>
       <c r="G213" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H213" s="2" t="str">
         <v>ammo</v>
@@ -46180,10 +46296,10 @@
         <v>1</v>
       </c>
       <c r="C214" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E214" s="2">
         <v>200</v>
@@ -46192,7 +46308,7 @@
         <v>bullet</v>
       </c>
       <c r="G214" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H214" s="2" t="str">
         <v>ammo</v>
@@ -46207,34 +46323,34 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="2" t="str">
-        <v>腹部２連装メガ粒子砲</v>
+        <v>腕部４０ｍｍバルカン砲</v>
       </c>
       <c r="B215" s="2">
         <v>1</v>
       </c>
       <c r="C215" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" s="2">
-        <v>675</v>
+        <v>130</v>
       </c>
       <c r="E215" s="2">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="F215" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G215" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H215" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I215" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J215" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K215" s="2"/>
     </row>
@@ -46246,13 +46362,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="E216" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F216" s="2" t="str">
         <v>heat</v>
@@ -46272,32 +46388,32 @@
       <c r="K216" s="2"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="3" t="str">
-        <v>試作大型ビーム・ライフル</v>
+      <c r="A217" s="2" t="str">
+        <v>腹部２連装メガ粒子砲</v>
       </c>
       <c r="B217" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C217" s="2">
         <v>1</v>
       </c>
       <c r="D217" s="2">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="E217" s="2">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="F217" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G217" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H217" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I217" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J217" s="2" t="str">
         <v>×</v>
@@ -46305,8 +46421,8 @@
       <c r="K217" s="2"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="2" t="str">
-        <v>試作１号機用ビーム・ライフル</v>
+      <c r="A218" s="3" t="str">
+        <v>試作大型ビーム・ライフル</v>
       </c>
       <c r="B218" s="2">
         <v>3</v>
@@ -46315,22 +46431,22 @@
         <v>1</v>
       </c>
       <c r="D218" s="2">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E218" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F218" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G218" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H218" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I218" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J218" s="2" t="str">
         <v>×</v>
@@ -46338,8 +46454,8 @@
       <c r="K218" s="2"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="3" t="str">
-        <v>試作２号機用MLRS</v>
+      <c r="A219" s="2" t="str">
+        <v>試作１号機用ビーム・ライフル</v>
       </c>
       <c r="B219" s="2">
         <v>3</v>
@@ -46348,19 +46464,19 @@
         <v>1</v>
       </c>
       <c r="D219" s="2">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E219" s="2">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F219" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G219" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H219" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I219" s="2" t="str">
         <v>×</v>
@@ -46368,13 +46484,11 @@
       <c r="J219" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K219" s="2" t="str">
-        <v>試作２号機用MLRS[垂直発射]</v>
-      </c>
+      <c r="K219" s="2"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="2" t="str">
-        <v>試作２号機用ビーム・バズーカ</v>
+      <c r="A220" s="3" t="str">
+        <v>試作２号機用MLRS</v>
       </c>
       <c r="B220" s="2">
         <v>3</v>
@@ -46383,31 +46497,33 @@
         <v>1</v>
       </c>
       <c r="D220" s="2">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="E220" s="2">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="F220" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G220" s="2">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="H220" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I220" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J220" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K220" s="2"/>
+      <c r="K220" s="2" t="str">
+        <v>試作２号機用MLRS[垂直発射]</v>
+      </c>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="2" t="str">
-        <v>試作４号機用Ｌ・レンジ・ライフル</v>
+        <v>試作２号機用ビーム・バズーカ</v>
       </c>
       <c r="B221" s="2">
         <v>3</v>
@@ -46416,22 +46532,22 @@
         <v>1</v>
       </c>
       <c r="D221" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E221" s="2">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F221" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G221" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H221" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I221" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J221" s="2" t="str">
         <v>×</v>
@@ -46440,31 +46556,31 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="2" t="str">
-        <v>試作５連装メガ粒子砲ｘ２</v>
+        <v>試作４号機用Ｌ・レンジ・ライフル</v>
       </c>
       <c r="B222" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C222" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222" s="2">
-        <v>175</v>
+        <v>2000</v>
       </c>
       <c r="E222" s="2">
-        <v>405</v>
+        <v>700</v>
       </c>
       <c r="F222" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G222" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H222" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I222" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J222" s="2" t="str">
         <v>×</v>
@@ -46479,13 +46595,13 @@
         <v>2</v>
       </c>
       <c r="C223" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F223" s="2" t="str">
         <v>heat</v>
@@ -46506,25 +46622,25 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="2" t="str">
-        <v>陸戦型ガンダム用ビーム・ライフル</v>
+        <v>試作５連装メガ粒子砲ｘ２</v>
       </c>
       <c r="B224" s="2">
         <v>2</v>
       </c>
       <c r="C224" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D224" s="2">
-        <v>1380</v>
+        <v>150</v>
       </c>
       <c r="E224" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F224" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G224" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H224" s="2" t="str">
         <v>beam</v>
@@ -46545,13 +46661,13 @@
         <v>2</v>
       </c>
       <c r="C225" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D225" s="2">
-        <v>1320</v>
+        <v>1380</v>
       </c>
       <c r="E225" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F225" s="2" t="str">
         <v>heat</v>
@@ -46578,13 +46694,13 @@
         <v>2</v>
       </c>
       <c r="C226" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D226" s="2">
-        <v>1260</v>
+        <v>1320</v>
       </c>
       <c r="E226" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F226" s="2" t="str">
         <v>heat</v>
@@ -46611,13 +46727,13 @@
         <v>2</v>
       </c>
       <c r="C227" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" s="2">
-        <v>1200</v>
+        <v>1260</v>
       </c>
       <c r="E227" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F227" s="2" t="str">
         <v>heat</v>
@@ -46638,25 +46754,25 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="2" t="str">
-        <v>陸戦型Ｇ用試作ビーム・ライフル</v>
+        <v>陸戦型ガンダム用ビーム・ライフル</v>
       </c>
       <c r="B228" s="2">
         <v>2</v>
       </c>
       <c r="C228" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" s="2">
-        <v>1890</v>
+        <v>1200</v>
       </c>
       <c r="E228" s="2">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F228" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G228" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H228" s="2" t="str">
         <v>beam</v>
@@ -46677,10 +46793,10 @@
         <v>2</v>
       </c>
       <c r="C229" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" s="2">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="E229" s="2">
         <v>550</v>
@@ -46704,31 +46820,31 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="2" t="str">
-        <v>高機動型Ｇ用ロケット・ランチャー</v>
+        <v>陸戦型Ｇ用試作ビーム・ライフル</v>
       </c>
       <c r="B230" s="2">
         <v>2</v>
       </c>
       <c r="C230" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D230" s="2">
-        <v>1650</v>
+        <v>1800</v>
       </c>
       <c r="E230" s="2">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="F230" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G230" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H230" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I230" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J230" s="2" t="str">
         <v>×</v>
@@ -46743,13 +46859,13 @@
         <v>2</v>
       </c>
       <c r="C231" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D231" s="2">
-        <v>1575</v>
+        <v>1650</v>
       </c>
       <c r="E231" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F231" s="2" t="str">
         <v>bullet</v>
@@ -46776,13 +46892,13 @@
         <v>2</v>
       </c>
       <c r="C232" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232" s="2">
-        <v>1500</v>
+        <v>1575</v>
       </c>
       <c r="E232" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F232" s="2" t="str">
         <v>bullet</v>
@@ -46803,25 +46919,25 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="2" t="str">
-        <v>１００ｍｍマシンガン</v>
+        <v>高機動型Ｇ用ロケット・ランチャー</v>
       </c>
       <c r="B233" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D233" s="2">
-        <v>177</v>
+        <v>1500</v>
       </c>
       <c r="E233" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F233" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G233" s="2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H233" s="2" t="str">
         <v>ammo</v>
@@ -46830,7 +46946,7 @@
         <v>×</v>
       </c>
       <c r="J233" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K233" s="2"/>
     </row>
@@ -46842,10 +46958,10 @@
         <v>1</v>
       </c>
       <c r="C234" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D234" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E234" s="2">
         <v>250</v>
@@ -46854,7 +46970,7 @@
         <v>bullet</v>
       </c>
       <c r="G234" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H234" s="2" t="str">
         <v>ammo</v>
@@ -46875,10 +46991,10 @@
         <v>1</v>
       </c>
       <c r="C235" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D235" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E235" s="2">
         <v>250</v>
@@ -46887,7 +47003,7 @@
         <v>bullet</v>
       </c>
       <c r="G235" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H235" s="2" t="str">
         <v>ammo</v>
@@ -46908,10 +47024,10 @@
         <v>1</v>
       </c>
       <c r="C236" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D236" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E236" s="2">
         <v>250</v>
@@ -46920,7 +47036,7 @@
         <v>bullet</v>
       </c>
       <c r="G236" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H236" s="2" t="str">
         <v>ammo</v>
@@ -46941,10 +47057,10 @@
         <v>1</v>
       </c>
       <c r="C237" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E237" s="2">
         <v>250</v>
@@ -46953,7 +47069,7 @@
         <v>bullet</v>
       </c>
       <c r="G237" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H237" s="2" t="str">
         <v>ammo</v>
@@ -46968,16 +47084,16 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="2" t="str">
-        <v>１００ｍｍマシンガン[改良型]</v>
+        <v>１００ｍｍマシンガン</v>
       </c>
       <c r="B238" s="2">
         <v>1</v>
       </c>
       <c r="C238" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238" s="2">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="E238" s="2">
         <v>250</v>
@@ -46986,7 +47102,7 @@
         <v>bullet</v>
       </c>
       <c r="G238" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H238" s="2" t="str">
         <v>ammo</v>
@@ -47007,10 +47123,10 @@
         <v>1</v>
       </c>
       <c r="C239" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D239" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E239" s="2">
         <v>250</v>
@@ -47019,7 +47135,7 @@
         <v>bullet</v>
       </c>
       <c r="G239" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H239" s="2" t="str">
         <v>ammo</v>
@@ -47040,10 +47156,10 @@
         <v>1</v>
       </c>
       <c r="C240" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E240" s="2">
         <v>250</v>
@@ -47052,7 +47168,7 @@
         <v>bullet</v>
       </c>
       <c r="G240" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H240" s="2" t="str">
         <v>ammo</v>
@@ -47067,16 +47183,16 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="2" t="str">
-        <v>１００ｍｍマシンガンｘ２</v>
+        <v>１００ｍｍマシンガン[改良型]</v>
       </c>
       <c r="B241" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241" s="2">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E241" s="2">
         <v>250</v>
@@ -47085,7 +47201,7 @@
         <v>bullet</v>
       </c>
       <c r="G241" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H241" s="2" t="str">
         <v>ammo</v>
@@ -47106,10 +47222,10 @@
         <v>2</v>
       </c>
       <c r="C242" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D242" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E242" s="2">
         <v>250</v>
@@ -47118,7 +47234,7 @@
         <v>bullet</v>
       </c>
       <c r="G242" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H242" s="2" t="str">
         <v>ammo</v>
@@ -47139,10 +47255,10 @@
         <v>2</v>
       </c>
       <c r="C243" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E243" s="2">
         <v>250</v>
@@ -47151,7 +47267,7 @@
         <v>bullet</v>
       </c>
       <c r="G243" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H243" s="2" t="str">
         <v>ammo</v>
@@ -47166,25 +47282,25 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="2" t="str">
-        <v>１２０ｍｍマシンガン</v>
+        <v>１００ｍｍマシンガンｘ２</v>
       </c>
       <c r="B244" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D244" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E244" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F244" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G244" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H244" s="2" t="str">
         <v>ammo</v>
@@ -47205,10 +47321,10 @@
         <v>1</v>
       </c>
       <c r="C245" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E245" s="2">
         <v>350</v>
@@ -47217,7 +47333,7 @@
         <v>bullet</v>
       </c>
       <c r="G245" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H245" s="2" t="str">
         <v>ammo</v>
@@ -47238,10 +47354,10 @@
         <v>1</v>
       </c>
       <c r="C246" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E246" s="2">
         <v>350</v>
@@ -47250,7 +47366,7 @@
         <v>bullet</v>
       </c>
       <c r="G246" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H246" s="2" t="str">
         <v>ammo</v>
@@ -47265,25 +47381,25 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="2" t="str">
-        <v>１３５ｍｍ対艦ライフル</v>
+        <v>１２０ｍｍマシンガン</v>
       </c>
       <c r="B247" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C247" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D247" s="2">
-        <v>2701</v>
+        <v>150</v>
       </c>
       <c r="E247" s="2">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="F247" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G247" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H247" s="2" t="str">
         <v>ammo</v>
@@ -47292,7 +47408,7 @@
         <v>×</v>
       </c>
       <c r="J247" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K247" s="2"/>
     </row>
@@ -47304,13 +47420,13 @@
         <v>2</v>
       </c>
       <c r="C248" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>2584</v>
+        <v>2701</v>
       </c>
       <c r="E248" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F248" s="2" t="str">
         <v>bullet</v>
@@ -47337,13 +47453,13 @@
         <v>2</v>
       </c>
       <c r="C249" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D249" s="2">
-        <v>2467</v>
+        <v>2584</v>
       </c>
       <c r="E249" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F249" s="2" t="str">
         <v>bullet</v>
@@ -47370,13 +47486,13 @@
         <v>2</v>
       </c>
       <c r="C250" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250" s="2">
-        <v>2350</v>
+        <v>2467</v>
       </c>
       <c r="E250" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F250" s="2" t="str">
         <v>bullet</v>
@@ -47397,25 +47513,25 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="2" t="str">
-        <v>１７０ｍｍキャノン砲</v>
+        <v>１３５ｍｍ対艦ライフル</v>
       </c>
       <c r="B251" s="2">
+        <v>2</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2">
+        <v>2350</v>
+      </c>
+      <c r="E251" s="2">
+        <v>450</v>
+      </c>
+      <c r="F251" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G251" s="2">
         <v>3</v>
-      </c>
-      <c r="C251" s="2">
-        <v>2</v>
-      </c>
-      <c r="D251" s="2">
-        <v>1995</v>
-      </c>
-      <c r="E251" s="2">
-        <v>505</v>
-      </c>
-      <c r="F251" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G251" s="2">
-        <v>6</v>
       </c>
       <c r="H251" s="2" t="str">
         <v>ammo</v>
@@ -47436,13 +47552,13 @@
         <v>3</v>
       </c>
       <c r="C252" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" s="2">
-        <v>1900</v>
+        <v>1995</v>
       </c>
       <c r="E252" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F252" s="2" t="str">
         <v>bullet</v>
@@ -47463,19 +47579,19 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="2" t="str">
-        <v>１８０ｍｍキャノン</v>
+        <v>１７０ｍｍキャノン砲</v>
       </c>
       <c r="B253" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C253" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D253" s="2">
-        <v>2070</v>
+        <v>1900</v>
       </c>
       <c r="E253" s="2">
-        <v>615</v>
+        <v>500</v>
       </c>
       <c r="F253" s="2" t="str">
         <v>bullet</v>
@@ -47502,13 +47618,13 @@
         <v>2</v>
       </c>
       <c r="C254" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D254" s="2">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="E254" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F254" s="2" t="str">
         <v>bullet</v>
@@ -47535,13 +47651,13 @@
         <v>2</v>
       </c>
       <c r="C255" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D255" s="2">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="E255" s="2">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F255" s="2" t="str">
         <v>bullet</v>
@@ -47568,13 +47684,13 @@
         <v>2</v>
       </c>
       <c r="C256" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="2">
-        <v>1800</v>
+        <v>1890</v>
       </c>
       <c r="E256" s="2">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F256" s="2" t="str">
         <v>bullet</v>
@@ -47595,34 +47711,34 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="2" t="str">
-        <v>２連装ビームガン</v>
+        <v>１８０ｍｍキャノン</v>
       </c>
       <c r="B257" s="2">
         <v>2</v>
       </c>
       <c r="C257" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D257" s="2">
-        <v>1045</v>
+        <v>1800</v>
       </c>
       <c r="E257" s="2">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="F257" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G257" s="2">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H257" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I257" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J257" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K257" s="2"/>
     </row>
@@ -47634,13 +47750,13 @@
         <v>2</v>
       </c>
       <c r="C258" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D258" s="2">
-        <v>997</v>
+        <v>1045</v>
       </c>
       <c r="E258" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F258" s="2" t="str">
         <v>heat</v>
@@ -47667,13 +47783,13 @@
         <v>2</v>
       </c>
       <c r="C259" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" s="2">
-        <v>950</v>
+        <v>997</v>
       </c>
       <c r="E259" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F259" s="2" t="str">
         <v>heat</v>
@@ -47694,25 +47810,25 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="2" t="str">
-        <v>２連装ビーム・ライフル</v>
+        <v>２連装ビームガン</v>
       </c>
       <c r="B260" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260" s="2">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="E260" s="2">
-        <v>505</v>
+        <v>200</v>
       </c>
       <c r="F260" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G260" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H260" s="2" t="str">
         <v>beam</v>
@@ -47721,7 +47837,7 @@
         <v>×</v>
       </c>
       <c r="J260" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K260" s="2"/>
     </row>
@@ -47733,13 +47849,13 @@
         <v>3</v>
       </c>
       <c r="C261" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261" s="2">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="E261" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F261" s="2" t="str">
         <v>heat</v>
@@ -47760,25 +47876,25 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="2" t="str">
-        <v>２連装ビーム・ライフル[TB]</v>
+        <v>２連装ビーム・ライフル</v>
       </c>
       <c r="B262" s="2">
         <v>3</v>
       </c>
       <c r="C262" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262" s="2">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="E262" s="2">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="F262" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G262" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H262" s="2" t="str">
         <v>beam</v>
@@ -47799,13 +47915,13 @@
         <v>3</v>
       </c>
       <c r="C263" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263" s="2">
-        <v>900</v>
+        <v>945</v>
       </c>
       <c r="E263" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F263" s="2" t="str">
         <v>heat</v>
@@ -47826,28 +47942,28 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="2" t="str">
-        <v>２８０ｍｍバズーカ</v>
+        <v>２連装ビーム・ライフル[TB]</v>
       </c>
       <c r="B264" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C264" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D264" s="2">
-        <v>1540</v>
+        <v>900</v>
       </c>
       <c r="E264" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F264" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G264" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H264" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I264" s="2" t="str">
         <v>×</v>
@@ -47865,13 +47981,13 @@
         <v>1</v>
       </c>
       <c r="C265" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265" s="2">
-        <v>1470</v>
+        <v>1540</v>
       </c>
       <c r="E265" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F265" s="2" t="str">
         <v>bullet</v>
@@ -47898,13 +48014,13 @@
         <v>1</v>
       </c>
       <c r="C266" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" s="2">
-        <v>1400</v>
+        <v>1470</v>
       </c>
       <c r="E266" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F266" s="2" t="str">
         <v>bullet</v>
@@ -47925,28 +48041,28 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="2" t="str">
-        <v>３連装ビーム・ライフル</v>
+        <v>２８０ｍｍバズーカ</v>
       </c>
       <c r="B267" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C267" s="2">
         <v>1</v>
       </c>
       <c r="D267" s="2">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="E267" s="2">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="F267" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G267" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H267" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I267" s="2" t="str">
         <v>×</v>
@@ -47958,28 +48074,28 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="2" t="str">
-        <v>３連装ロケット・ランチャーｘ２</v>
+        <v>３連装ビーム・ライフル</v>
       </c>
       <c r="B268" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C268" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D268" s="2">
+        <v>750</v>
+      </c>
+      <c r="E268" s="2">
         <v>400</v>
       </c>
-      <c r="E268" s="2">
-        <v>460</v>
-      </c>
       <c r="F268" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G268" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H268" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I268" s="2" t="str">
         <v>×</v>
@@ -47997,13 +48113,13 @@
         <v>2</v>
       </c>
       <c r="C269" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D269" s="2">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E269" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F269" s="2" t="str">
         <v>bullet</v>
@@ -48030,13 +48146,13 @@
         <v>2</v>
       </c>
       <c r="C270" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270" s="2">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="E270" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F270" s="2" t="str">
         <v>bullet</v>
@@ -48057,25 +48173,25 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="2" t="str">
-        <v>４連装ガン・ランチャーｘ２</v>
+        <v>３連装ロケット・ランチャーｘ２</v>
       </c>
       <c r="B271" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C271" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D271" s="2">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="E271" s="2">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="F271" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G271" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H271" s="2" t="str">
         <v>ammo</v>
@@ -48096,13 +48212,13 @@
         <v>1</v>
       </c>
       <c r="C272" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D272" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E272" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F272" s="2" t="str">
         <v>bullet</v>
@@ -48129,13 +48245,13 @@
         <v>1</v>
       </c>
       <c r="C273" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D273" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E273" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F273" s="2" t="str">
         <v>bullet</v>
@@ -48162,13 +48278,13 @@
         <v>1</v>
       </c>
       <c r="C274" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E274" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F274" s="2" t="str">
         <v>bullet</v>
@@ -48189,25 +48305,25 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="2" t="str">
-        <v>４連装ボップ・ガン</v>
+        <v>４連装ガン・ランチャーｘ２</v>
       </c>
       <c r="B275" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C275" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E275" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F275" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G275" s="2">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H275" s="2" t="str">
         <v>ammo</v>
@@ -48228,10 +48344,10 @@
         <v>2</v>
       </c>
       <c r="C276" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E276" s="2">
         <v>300</v>
@@ -48240,7 +48356,7 @@
         <v>bullet</v>
       </c>
       <c r="G276" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H276" s="2" t="str">
         <v>ammo</v>
@@ -48255,25 +48371,25 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="2" t="str">
-        <v>４連装ボップ・ミサイルｘ２</v>
+        <v>４連装ボップ・ガン</v>
       </c>
       <c r="B277" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C277" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D277" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E277" s="2">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="F277" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G277" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H277" s="2" t="str">
         <v>ammo</v>
@@ -48294,13 +48410,13 @@
         <v>1</v>
       </c>
       <c r="C278" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D278" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E278" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F278" s="2" t="str">
         <v>bullet</v>
@@ -48327,13 +48443,13 @@
         <v>1</v>
       </c>
       <c r="C279" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E279" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F279" s="2" t="str">
         <v>bullet</v>
@@ -48354,25 +48470,25 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="2" t="str">
-        <v>４連装１２０ｍｍ砲</v>
+        <v>４連装ボップ・ミサイルｘ２</v>
       </c>
       <c r="B280" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C280" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D280" s="2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E280" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F280" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G280" s="2">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H280" s="2" t="str">
         <v>ammo</v>
@@ -48381,7 +48497,7 @@
         <v>×</v>
       </c>
       <c r="J280" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K280" s="2"/>
     </row>
@@ -48393,10 +48509,10 @@
         <v>2</v>
       </c>
       <c r="C281" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D281" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E281" s="2">
         <v>350</v>
@@ -48405,7 +48521,7 @@
         <v>bullet</v>
       </c>
       <c r="G281" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H281" s="2" t="str">
         <v>ammo</v>
@@ -48426,10 +48542,10 @@
         <v>2</v>
       </c>
       <c r="C282" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E282" s="2">
         <v>350</v>
@@ -48438,7 +48554,7 @@
         <v>bullet</v>
       </c>
       <c r="G282" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H282" s="2" t="str">
         <v>ammo</v>
@@ -48453,7 +48569,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="2" t="str">
-        <v>５連装メガ粒子砲ｘ２</v>
+        <v>４連装１２０ｍｍ砲</v>
       </c>
       <c r="B283" s="2">
         <v>2</v>
@@ -48462,55 +48578,55 @@
         <v>1</v>
       </c>
       <c r="D283" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E283" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F283" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G283" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H283" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I283" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J283" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K283" s="2"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="2" t="str">
-        <v>５連装メガ粒子砲ｘ２[低出力]</v>
+        <v>５連装メガ粒子砲ｘ２</v>
       </c>
       <c r="B284" s="2">
         <v>2</v>
       </c>
       <c r="C284" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E284" s="2">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="F284" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G284" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H284" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I284" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J284" s="2" t="str">
         <v>×</v>
@@ -48525,13 +48641,13 @@
         <v>2</v>
       </c>
       <c r="C285" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D285" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E285" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F285" s="2" t="str">
         <v>heat</v>
@@ -48552,28 +48668,28 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="2" t="str">
-        <v>７５ｍｍスナイパー・ライフル</v>
+        <v>５連装メガ粒子砲ｘ２[低出力]</v>
       </c>
       <c r="B286" s="2">
         <v>2</v>
       </c>
       <c r="C286" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286" s="2">
-        <v>1760</v>
+        <v>200</v>
       </c>
       <c r="E286" s="2">
-        <v>805</v>
+        <v>200</v>
       </c>
       <c r="F286" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G286" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H286" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I286" s="2" t="str">
         <v>×</v>
@@ -48591,13 +48707,13 @@
         <v>2</v>
       </c>
       <c r="C287" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" s="2">
-        <v>1600</v>
+        <v>1760</v>
       </c>
       <c r="E287" s="2">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="F287" s="2" t="str">
         <v>bullet</v>
@@ -48618,25 +48734,25 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="2" t="str">
-        <v>８連装ミサイル・ランチャー</v>
+        <v>７５ｍｍスナイパー・ライフル</v>
       </c>
       <c r="B288" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288" s="2">
-        <v>157</v>
+        <v>1600</v>
       </c>
       <c r="E288" s="2">
-        <v>405</v>
+        <v>800</v>
       </c>
       <c r="F288" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G288" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H288" s="2" t="str">
         <v>ammo</v>
@@ -48657,13 +48773,13 @@
         <v>3</v>
       </c>
       <c r="C289" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E289" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F289" s="2" t="str">
         <v>bullet</v>
@@ -48684,25 +48800,25 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="2" t="str">
-        <v>９０ｍｍサブマシンガンｘ２</v>
+        <v>８連装ミサイル・ランチャー</v>
       </c>
       <c r="B290" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C290" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D290" s="2">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E290" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F290" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G290" s="2">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H290" s="2" t="str">
         <v>ammo</v>
@@ -48711,7 +48827,7 @@
         <v>×</v>
       </c>
       <c r="J290" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K290" s="2"/>
     </row>
@@ -48723,10 +48839,10 @@
         <v>2</v>
       </c>
       <c r="C291" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D291" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E291" s="2">
         <v>100</v>
@@ -48735,7 +48851,7 @@
         <v>bullet</v>
       </c>
       <c r="G291" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H291" s="2" t="str">
         <v>ammo</v>
@@ -48756,10 +48872,10 @@
         <v>2</v>
       </c>
       <c r="C292" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E292" s="2">
         <v>100</v>
@@ -48768,7 +48884,7 @@
         <v>bullet</v>
       </c>
       <c r="G292" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H292" s="2" t="str">
         <v>ammo</v>
@@ -48783,25 +48899,25 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="2" t="str">
-        <v>９５ｍｍ狙撃ライフル</v>
+        <v>９０ｍｍサブマシンガンｘ２</v>
       </c>
       <c r="B293" s="2">
         <v>2</v>
       </c>
       <c r="C293" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293" s="2">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="E293" s="2">
-        <v>555</v>
+        <v>100</v>
       </c>
       <c r="F293" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G293" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H293" s="2" t="str">
         <v>ammo</v>
@@ -48810,7 +48926,7 @@
         <v>×</v>
       </c>
       <c r="J293" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K293" s="2"/>
     </row>
@@ -48822,13 +48938,13 @@
         <v>2</v>
       </c>
       <c r="C294" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294" s="2">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E294" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F294" s="2" t="str">
         <v>bullet</v>
@@ -48849,34 +48965,34 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="2" t="str">
-        <v>Ｅ－２ビーム・スプレーガン</v>
+        <v>９５ｍｍ狙撃ライフル</v>
       </c>
       <c r="B295" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" s="2">
+        <v>1</v>
+      </c>
+      <c r="D295" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E295" s="2">
+        <v>550</v>
+      </c>
+      <c r="F295" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G295" s="2">
         <v>3</v>
       </c>
-      <c r="D295" s="2">
-        <v>1100</v>
-      </c>
-      <c r="E295" s="2">
-        <v>310</v>
-      </c>
-      <c r="F295" s="2" t="str">
-        <v>heat</v>
-      </c>
-      <c r="G295" s="2">
-        <v>65</v>
-      </c>
       <c r="H295" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I295" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J295" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K295" s="2"/>
     </row>
@@ -48888,13 +49004,13 @@
         <v>1</v>
       </c>
       <c r="C296" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D296" s="2">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="E296" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F296" s="2" t="str">
         <v>heat</v>
@@ -48921,13 +49037,13 @@
         <v>1</v>
       </c>
       <c r="C297" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297" s="2">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="E297" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F297" s="2" t="str">
         <v>heat</v>
@@ -48948,10 +49064,10 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="2" t="str">
-        <v>Ｇガンダム用ビーム・ライフル</v>
+        <v>Ｅ－２ビーム・スプレーガン</v>
       </c>
       <c r="B298" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" s="2">
         <v>1</v>
@@ -48960,28 +49076,28 @@
         <v>1000</v>
       </c>
       <c r="E298" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F298" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G298" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H298" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I298" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J298" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K298" s="2"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="2" t="str">
-        <v>Ｇ・テトラ用ビーム・マシンガン</v>
+        <v>Ｇガンダム用ビーム・ライフル</v>
       </c>
       <c r="B299" s="2">
         <v>2</v>
@@ -48990,16 +49106,16 @@
         <v>1</v>
       </c>
       <c r="D299" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E299" s="2">
         <v>500</v>
-      </c>
-      <c r="E299" s="2">
-        <v>300</v>
       </c>
       <c r="F299" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G299" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H299" s="2" t="str">
         <v>beam</v>
@@ -49014,25 +49130,25 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>Ｇ・テトラ用ビーム・マシンガン</v>
       </c>
       <c r="B300" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D300" s="2">
-        <v>1782</v>
+        <v>500</v>
       </c>
       <c r="E300" s="2">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="F300" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G300" s="2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H300" s="2" t="str">
         <v>beam</v>
@@ -49043,9 +49159,7 @@
       <c r="J300" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K300" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
-      </c>
+      <c r="K300" s="2"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="2" t="str">
@@ -49055,13 +49169,13 @@
         <v>3</v>
       </c>
       <c r="C301" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D301" s="2">
-        <v>1705</v>
+        <v>1782</v>
       </c>
       <c r="E301" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F301" s="2" t="str">
         <v>heat</v>
@@ -49090,13 +49204,13 @@
         <v>3</v>
       </c>
       <c r="C302" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302" s="2">
-        <v>1627</v>
+        <v>1705</v>
       </c>
       <c r="E302" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F302" s="2" t="str">
         <v>heat</v>
@@ -49125,13 +49239,13 @@
         <v>3</v>
       </c>
       <c r="C303" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" s="2">
-        <v>1550</v>
+        <v>1627</v>
       </c>
       <c r="E303" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F303" s="2" t="str">
         <v>heat</v>
@@ -49154,25 +49268,25 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="2" t="str">
-        <v>ＧＭ指揮官用ビーム・ライフル</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B304" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C304" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304" s="2">
-        <v>420</v>
+        <v>1550</v>
       </c>
       <c r="E304" s="2">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="F304" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G304" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H304" s="2" t="str">
         <v>beam</v>
@@ -49183,7 +49297,9 @@
       <c r="J304" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K304" s="2"/>
+      <c r="K304" s="2" t="str">
+        <v>Ｂライフル付属スーパー・ナパーム</v>
+      </c>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="2" t="str">
@@ -49193,13 +49309,13 @@
         <v>2</v>
       </c>
       <c r="C305" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D305" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E305" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F305" s="2" t="str">
         <v>heat</v>
@@ -49220,25 +49336,25 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＭ指揮官用ビーム・ライフル</v>
       </c>
       <c r="B306" s="2">
         <v>2</v>
       </c>
       <c r="C306" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>1785</v>
+        <v>400</v>
       </c>
       <c r="E306" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F306" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G306" s="2">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H306" s="2" t="str">
         <v>beam</v>
@@ -49249,9 +49365,7 @@
       <c r="J306" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K306" s="4" t="str">
-        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
-      </c>
+      <c r="K306" s="2"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="2" t="str">
@@ -49261,13 +49375,13 @@
         <v>2</v>
       </c>
       <c r="C307" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" s="2">
-        <v>1700</v>
+        <v>1785</v>
       </c>
       <c r="E307" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F307" s="2" t="str">
         <v>heat</v>
@@ -49290,36 +49404,38 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="2" t="str">
-        <v>ＨＧ用ビーム・カノン</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B308" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C308" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D308" s="2">
-        <v>420</v>
+        <v>1700</v>
       </c>
       <c r="E308" s="2">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="F308" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G308" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H308" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I308" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J308" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K308" s="2"/>
+      <c r="K308" s="4" t="str">
+        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
+      </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="2" t="str">
@@ -49329,13 +49445,13 @@
         <v>1</v>
       </c>
       <c r="C309" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D309" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E309" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F309" s="2" t="str">
         <v>heat</v>
@@ -49356,31 +49472,31 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="2" t="str">
-        <v>Ｌ・ビーム・ライフル[改修型]</v>
+        <v>ＨＧ用ビーム・カノン</v>
       </c>
       <c r="B310" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C310" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D310" s="2">
-        <v>1680</v>
+        <v>400</v>
       </c>
       <c r="E310" s="2">
-        <v>505</v>
+        <v>300</v>
       </c>
       <c r="F310" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G310" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H310" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I310" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J310" s="2" t="str">
         <v>×</v>
@@ -49395,13 +49511,13 @@
         <v>3</v>
       </c>
       <c r="C311" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311" s="2">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="E311" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F311" s="2" t="str">
         <v>heat</v>
@@ -49422,38 +49538,36 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>Ｌ・ビーム・ライフル[改修型]</v>
       </c>
       <c r="B312" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C312" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D312" s="2">
-        <v>198</v>
+        <v>1600</v>
       </c>
       <c r="E312" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F312" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G312" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H312" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I312" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J312" s="2" t="str">
-        <v>○</v>
-      </c>
-      <c r="K312" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
-      </c>
+        <v>×</v>
+      </c>
+      <c r="K312" s="2"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="2" t="str">
@@ -49463,10 +49577,10 @@
         <v>1</v>
       </c>
       <c r="C313" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D313" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E313" s="2">
         <v>250</v>
@@ -49475,7 +49589,7 @@
         <v>bullet</v>
       </c>
       <c r="G313" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H313" s="2" t="str">
         <v>ammo</v>
@@ -49498,10 +49612,10 @@
         <v>1</v>
       </c>
       <c r="C314" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D314" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E314" s="2">
         <v>250</v>
@@ -49510,7 +49624,7 @@
         <v>bullet</v>
       </c>
       <c r="G314" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H314" s="2" t="str">
         <v>ammo</v>
@@ -49533,10 +49647,10 @@
         <v>1</v>
       </c>
       <c r="C315" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E315" s="2">
         <v>250</v>
@@ -49545,7 +49659,7 @@
         <v>bullet</v>
       </c>
       <c r="G315" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H315" s="2" t="str">
         <v>ammo</v>
@@ -49562,25 +49676,25 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B316" s="2">
         <v>1</v>
       </c>
       <c r="C316" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D316" s="2">
-        <v>850</v>
+        <v>173</v>
       </c>
       <c r="E316" s="2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="F316" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G316" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H316" s="2" t="str">
         <v>ammo</v>
@@ -49603,13 +49717,13 @@
         <v>1</v>
       </c>
       <c r="C317" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D317" s="2">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="E317" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F317" s="2" t="str">
         <v>bullet</v>
@@ -49638,13 +49752,13 @@
         <v>1</v>
       </c>
       <c r="C318" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318" s="2">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E318" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F318" s="2" t="str">
         <v>bullet</v>
@@ -49667,25 +49781,25 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B319" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D319" s="2">
-        <v>175</v>
+        <v>750</v>
       </c>
       <c r="E319" s="2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F319" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G319" s="2">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H319" s="2" t="str">
         <v>ammo</v>
@@ -49696,7 +49810,9 @@
       <c r="J319" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K319" s="2"/>
+      <c r="K319" s="2" t="str">
+        <v>ＭＭＰ－７８付属グレネード</v>
+      </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="2" t="str">
@@ -49706,10 +49822,10 @@
         <v>2</v>
       </c>
       <c r="C320" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D320" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E320" s="2">
         <v>200</v>
@@ -49718,7 +49834,7 @@
         <v>bullet</v>
       </c>
       <c r="G320" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H320" s="2" t="str">
         <v>ammo</v>
@@ -49739,10 +49855,10 @@
         <v>2</v>
       </c>
       <c r="C321" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D321" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E321" s="2">
         <v>200</v>
@@ -49751,7 +49867,7 @@
         <v>bullet</v>
       </c>
       <c r="G321" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H321" s="2" t="str">
         <v>ammo</v>
@@ -49772,10 +49888,10 @@
         <v>2</v>
       </c>
       <c r="C322" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D322" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E322" s="2">
         <v>200</v>
@@ -49784,7 +49900,7 @@
         <v>bullet</v>
       </c>
       <c r="G322" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H322" s="2" t="str">
         <v>ammo</v>
@@ -49805,10 +49921,10 @@
         <v>2</v>
       </c>
       <c r="C323" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D323" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E323" s="2">
         <v>200</v>
@@ -49817,7 +49933,7 @@
         <v>bullet</v>
       </c>
       <c r="G323" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H323" s="2" t="str">
         <v>ammo</v>
@@ -49832,16 +49948,16 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="B324" s="2">
         <v>2</v>
       </c>
       <c r="C324" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D324" s="2">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E324" s="2">
         <v>200</v>
@@ -49850,7 +49966,7 @@
         <v>bullet</v>
       </c>
       <c r="G324" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H324" s="2" t="str">
         <v>ammo</v>
@@ -49861,9 +49977,7 @@
       <c r="J324" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K324" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
-      </c>
+      <c r="K324" s="2"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="2" t="str">
@@ -49873,10 +49987,10 @@
         <v>2</v>
       </c>
       <c r="C325" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D325" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E325" s="2">
         <v>200</v>
@@ -49885,7 +49999,7 @@
         <v>bullet</v>
       </c>
       <c r="G325" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H325" s="2" t="str">
         <v>ammo</v>
@@ -49908,10 +50022,10 @@
         <v>2</v>
       </c>
       <c r="C326" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D326" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E326" s="2">
         <v>200</v>
@@ -49920,7 +50034,7 @@
         <v>bullet</v>
       </c>
       <c r="G326" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H326" s="2" t="str">
         <v>ammo</v>
@@ -49943,10 +50057,10 @@
         <v>2</v>
       </c>
       <c r="C327" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D327" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E327" s="2">
         <v>200</v>
@@ -49955,7 +50069,7 @@
         <v>bullet</v>
       </c>
       <c r="G327" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H327" s="2" t="str">
         <v>ammo</v>
@@ -49972,25 +50086,25 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガンｘ２</v>
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
       <c r="B328" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D328" s="2">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="E328" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F328" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G328" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H328" s="2" t="str">
         <v>ammo</v>
@@ -50001,7 +50115,9 @@
       <c r="J328" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K328" s="2"/>
+      <c r="K328" s="2" t="str">
+        <v>ＭＭＰ－８０付属グレネード</v>
+      </c>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="2" t="str">
@@ -50011,10 +50127,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D329" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E329" s="2">
         <v>400</v>
@@ -50023,7 +50139,7 @@
         <v>bullet</v>
       </c>
       <c r="G329" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H329" s="2" t="str">
         <v>ammo</v>
@@ -50044,10 +50160,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E330" s="2">
         <v>400</v>
@@ -50056,7 +50172,7 @@
         <v>bullet</v>
       </c>
       <c r="G330" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H330" s="2" t="str">
         <v>ammo</v>
@@ -50071,34 +50187,34 @@
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="2" t="str">
-        <v>Ｐガンダム用ビーム・ライフル</v>
+        <v>ＭＭＰ－８０マシンガンｘ２</v>
       </c>
       <c r="B331" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D331" s="2">
-        <v>1375</v>
+        <v>88</v>
       </c>
       <c r="E331" s="2">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="F331" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G331" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H331" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I331" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J331" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K331" s="2"/>
     </row>
@@ -50110,13 +50226,13 @@
         <v>2</v>
       </c>
       <c r="C332" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D332" s="2">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="E332" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F332" s="2" t="str">
         <v>heat</v>
@@ -50143,13 +50259,13 @@
         <v>2</v>
       </c>
       <c r="C333" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333" s="2">
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="E333" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F333" s="2" t="str">
         <v>heat</v>
@@ -50170,28 +50286,28 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="2" t="str">
-        <v>Ｒ・ＤII用ジャイアント・バズ</v>
+        <v>Ｐガンダム用ビーム・ライフル</v>
       </c>
       <c r="B334" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C334" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D334" s="2">
-        <v>1995</v>
+        <v>1250</v>
       </c>
       <c r="E334" s="2">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="F334" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G334" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H334" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I334" s="2" t="str">
         <v>×</v>
@@ -50209,13 +50325,13 @@
         <v>1</v>
       </c>
       <c r="C335" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D335" s="2">
-        <v>1900</v>
+        <v>1995</v>
       </c>
       <c r="E335" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F335" s="2" t="str">
         <v>bullet</v>
@@ -50236,31 +50352,31 @@
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="2" t="str">
-        <v>Ｒ－４タイプ・ビーム・ライフル</v>
+        <v>Ｒ・ＤII用ジャイアント・バズ</v>
       </c>
       <c r="B336" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C336" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D336" s="2">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E336" s="2">
-        <v>660</v>
+        <v>350</v>
       </c>
       <c r="F336" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G336" s="2">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H336" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I336" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J336" s="2" t="str">
         <v>×</v>
@@ -50275,13 +50391,13 @@
         <v>2</v>
       </c>
       <c r="C337" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D337" s="2">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E337" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="F337" s="2" t="str">
         <v>heat</v>
@@ -50308,13 +50424,13 @@
         <v>2</v>
       </c>
       <c r="C338" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D338" s="2">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E338" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F338" s="2" t="str">
         <v>heat</v>
@@ -50335,31 +50451,31 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="2" t="str">
-        <v>ＺＥ用ビーム・カノン</v>
+        <v>Ｒ－４タイプ・ビーム・ライフル</v>
       </c>
       <c r="B339" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C339" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339" s="2">
-        <v>880</v>
+        <v>2000</v>
       </c>
       <c r="E339" s="2">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="F339" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G339" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H339" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I339" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J339" s="2" t="str">
         <v>×</v>
@@ -50374,13 +50490,13 @@
         <v>1</v>
       </c>
       <c r="C340" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D340" s="2">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="E340" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F340" s="2" t="str">
         <v>heat</v>
@@ -50407,13 +50523,13 @@
         <v>1</v>
       </c>
       <c r="C341" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D341" s="2">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="E341" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F341" s="2" t="str">
         <v>heat</v>
@@ -50431,6 +50547,39 @@
         <v>×</v>
       </c>
       <c r="K341" s="2"/>
+    </row>
+    <row r="342" spans="1:11">
+      <c r="A342" s="2" t="str">
+        <v>ＺＥ用ビーム・カノン</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1</v>
+      </c>
+      <c r="C342" s="2">
+        <v>1</v>
+      </c>
+      <c r="D342" s="2">
+        <v>800</v>
+      </c>
+      <c r="E342" s="2">
+        <v>300</v>
+      </c>
+      <c r="F342" s="2" t="str">
+        <v>heat</v>
+      </c>
+      <c r="G342" s="2">
+        <v>40</v>
+      </c>
+      <c r="H342" s="2" t="str">
+        <v>beam</v>
+      </c>
+      <c r="I342" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J342" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="K342" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
@@ -50441,13 +50590,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D200" sqref="A200:D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53238,17 +53387,17 @@
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="2" t="str">
-        <v>試作大型ヒート・サーベル</v>
-      </c>
-      <c r="B200" s="2">
-        <v>2</v>
-      </c>
-      <c r="C200" s="2">
-        <v>2</v>
-      </c>
-      <c r="D200" s="2">
-        <v>3150</v>
+      <c r="A200" s="5" t="str">
+        <v>百式用ビーム・サーベル</v>
+      </c>
+      <c r="B200" s="5">
+        <v>1</v>
+      </c>
+      <c r="C200" s="5">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5">
+        <v>2500</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -53259,38 +53408,38 @@
         <v>2</v>
       </c>
       <c r="C201" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" s="2">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="str">
+        <v>試作大型ヒート・サーベル</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1</v>
+      </c>
+      <c r="D202" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="3" t="str">
+    <row r="203" spans="1:4">
+      <c r="A203" s="3" t="str">
         <v>Ｇ・テトラ用ビーム・サーベル</v>
       </c>
-      <c r="B202" s="2">
-        <v>1</v>
-      </c>
-      <c r="C202" s="2">
-        <v>1</v>
-      </c>
-      <c r="D202" s="2">
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203" s="2">
         <v>2300</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2" t="str">
-        <v>Ｇ・Ｇカスタムビーム・ダガー</v>
-      </c>
-      <c r="B203" s="2">
-        <v>2</v>
-      </c>
-      <c r="C203" s="2">
-        <v>3</v>
-      </c>
-      <c r="D203" s="2">
-        <v>2420</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -53301,10 +53450,10 @@
         <v>2</v>
       </c>
       <c r="C204" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D204" s="2">
-        <v>2310</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -53315,23 +53464,37 @@
         <v>2</v>
       </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205" s="2">
-        <v>2200</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="str">
+        <v>Ｇ・Ｇカスタムビーム・ダガー</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="str">
         <v>Ｒ・ディアス用ビーム・サーベル</v>
       </c>
-      <c r="B206" s="2">
-        <v>1</v>
-      </c>
-      <c r="C206" s="2">
-        <v>1</v>
-      </c>
-      <c r="D206" s="2">
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2">
         <v>2100</v>
       </c>
     </row>
@@ -53344,13 +53507,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1093"/>
+  <dimension ref="A1:J1095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C797" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E419" sqref="E419"/>
+      <selection pane="bottomRight" activeCell="G815" sqref="G815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -66059,97 +66222,97 @@
       </c>
     </row>
     <row r="418" spans="1:10">
-      <c r="A418" s="5" t="str">
+      <c r="A418" s="2" t="str">
         <v>ジムII</v>
       </c>
-      <c r="B418" s="5" t="str">
+      <c r="B418" s="2" t="str">
         <v>ラージシールド</v>
       </c>
-      <c r="C418" s="5">
+      <c r="C418" s="2">
         <v>3</v>
       </c>
-      <c r="D418" s="5">
+      <c r="D418" s="2">
         <v>3000</v>
       </c>
-      <c r="E418" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F418" s="5"/>
-      <c r="G418" s="5"/>
+      <c r="E418" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
       <c r="H418" s="2" t="str">
         <v>shield</v>
       </c>
-      <c r="I418" s="5"/>
-      <c r="J418" s="5"/>
+      <c r="I418" s="2"/>
+      <c r="J418" s="2"/>
     </row>
     <row r="419" spans="1:10">
-      <c r="A419" s="5" t="str">
+      <c r="A419" s="2" t="str">
         <v>ジムII</v>
       </c>
-      <c r="B419" s="5" t="str">
+      <c r="B419" s="2" t="str">
         <v>ラージシールド</v>
       </c>
-      <c r="C419" s="5">
-        <v>2</v>
-      </c>
-      <c r="D419" s="5">
+      <c r="C419" s="2">
+        <v>2</v>
+      </c>
+      <c r="D419" s="2">
         <v>2750</v>
       </c>
-      <c r="E419" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F419" s="5"/>
-      <c r="G419" s="5"/>
+      <c r="E419" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
       <c r="H419" s="2" t="str">
         <v>shield</v>
       </c>
-      <c r="I419" s="5"/>
-      <c r="J419" s="5"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
     </row>
     <row r="420" spans="1:10">
-      <c r="A420" s="5" t="str">
+      <c r="A420" s="2" t="str">
         <v>ジムII</v>
       </c>
-      <c r="B420" s="5" t="str">
+      <c r="B420" s="2" t="str">
         <v>ラージシールド</v>
       </c>
-      <c r="C420" s="5">
-        <v>1</v>
-      </c>
-      <c r="D420" s="5">
+      <c r="C420" s="2">
+        <v>1</v>
+      </c>
+      <c r="D420" s="2">
         <v>2500</v>
       </c>
-      <c r="E420" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F420" s="5"/>
-      <c r="G420" s="5"/>
+      <c r="E420" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
       <c r="H420" s="2" t="str">
         <v>shield</v>
       </c>
-      <c r="I420" s="5"/>
-      <c r="J420" s="5"/>
+      <c r="I420" s="2"/>
+      <c r="J420" s="2"/>
     </row>
     <row r="421" spans="1:10">
-      <c r="A421" s="5" t="str">
+      <c r="A421" s="2" t="str">
         <v>ジムII</v>
       </c>
-      <c r="B421" s="5" t="str">
+      <c r="B421" s="2" t="str">
         <v>頭部バルカン[後期型]</v>
       </c>
-      <c r="C421" s="5">
+      <c r="C421" s="2">
         <v>3</v>
       </c>
-      <c r="D421" s="5">
+      <c r="D421" s="2">
         <v>73</v>
       </c>
-      <c r="E421" s="5">
+      <c r="E421" s="2">
         <v>150</v>
       </c>
       <c r="F421" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G421" s="5">
+      <c r="G421" s="2">
         <v>30</v>
       </c>
       <c r="H421" s="2" t="str">
@@ -66163,25 +66326,25 @@
       </c>
     </row>
     <row r="422" spans="1:10">
-      <c r="A422" s="5" t="str">
+      <c r="A422" s="2" t="str">
         <v>ジムII</v>
       </c>
-      <c r="B422" s="5" t="str">
+      <c r="B422" s="2" t="str">
         <v>頭部バルカン[後期型]</v>
       </c>
-      <c r="C422" s="5">
-        <v>2</v>
-      </c>
-      <c r="D422" s="5">
+      <c r="C422" s="2">
+        <v>2</v>
+      </c>
+      <c r="D422" s="2">
         <v>70</v>
       </c>
-      <c r="E422" s="5">
+      <c r="E422" s="2">
         <v>150</v>
       </c>
       <c r="F422" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G422" s="5">
+      <c r="G422" s="2">
         <v>30</v>
       </c>
       <c r="H422" s="2" t="str">
@@ -66195,25 +66358,25 @@
       </c>
     </row>
     <row r="423" spans="1:10">
-      <c r="A423" s="5" t="str">
+      <c r="A423" s="2" t="str">
         <v>ジムII</v>
       </c>
-      <c r="B423" s="5" t="str">
+      <c r="B423" s="2" t="str">
         <v>頭部バルカン[後期型]</v>
       </c>
-      <c r="C423" s="5">
-        <v>1</v>
-      </c>
-      <c r="D423" s="5">
+      <c r="C423" s="2">
+        <v>1</v>
+      </c>
+      <c r="D423" s="2">
         <v>67</v>
       </c>
-      <c r="E423" s="5">
+      <c r="E423" s="2">
         <v>150</v>
       </c>
       <c r="F423" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G423" s="5">
+      <c r="G423" s="2">
         <v>30</v>
       </c>
       <c r="H423" s="2" t="str">
@@ -77827,52 +77990,68 @@
       </c>
     </row>
     <row r="809" spans="1:10">
-      <c r="A809" s="2" t="str">
-        <v>装甲強化型ジム</v>
-      </c>
-      <c r="B809" s="2" t="str">
-        <v>コマンドシールド</v>
-      </c>
-      <c r="C809" s="2">
-        <v>4</v>
-      </c>
-      <c r="D809" s="2">
-        <v>3900</v>
-      </c>
-      <c r="E809" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F809" s="2"/>
-      <c r="G809" s="2"/>
+      <c r="A809" s="5" t="str">
+        <v>百式</v>
+      </c>
+      <c r="B809" s="5" t="str">
+        <v>拳部トリモチ・ランチャー</v>
+      </c>
+      <c r="C809" s="5">
+        <v>1</v>
+      </c>
+      <c r="D809" s="5">
+        <v>300</v>
+      </c>
+      <c r="E809" s="5">
+        <v>200</v>
+      </c>
+      <c r="F809" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G809" s="5">
+        <v>1</v>
+      </c>
       <c r="H809" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I809" s="2"/>
-      <c r="J809" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I809" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J809" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="810" spans="1:10">
-      <c r="A810" s="2" t="str">
-        <v>装甲強化型ジム</v>
-      </c>
-      <c r="B810" s="2" t="str">
-        <v>コマンドシールド</v>
-      </c>
-      <c r="C810" s="2">
-        <v>3</v>
-      </c>
-      <c r="D810" s="2">
-        <v>3600</v>
-      </c>
-      <c r="E810" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F810" s="2"/>
-      <c r="G810" s="2"/>
+      <c r="A810" s="5" t="str">
+        <v>百式</v>
+      </c>
+      <c r="B810" s="5" t="str">
+        <v>頭部バルカン[改修型]</v>
+      </c>
+      <c r="C810" s="5">
+        <v>1</v>
+      </c>
+      <c r="D810" s="5">
+        <v>70</v>
+      </c>
+      <c r="E810" s="5">
+        <v>150</v>
+      </c>
+      <c r="F810" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G810" s="5">
+        <v>60</v>
+      </c>
       <c r="H810" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I810" s="2"/>
-      <c r="J810" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I810" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J810" s="2" t="str">
+        <v>○</v>
+      </c>
     </row>
     <row r="811" spans="1:10">
       <c r="A811" s="2" t="str">
@@ -77882,10 +78061,10 @@
         <v>コマンドシールド</v>
       </c>
       <c r="C811" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D811" s="2">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="E811" s="2" t="str">
         <v>L</v>
@@ -77906,10 +78085,10 @@
         <v>コマンドシールド</v>
       </c>
       <c r="C812" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D812" s="2">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E812" s="2" t="str">
         <v>L</v>
@@ -77927,64 +78106,48 @@
         <v>装甲強化型ジム</v>
       </c>
       <c r="B813" s="2" t="str">
-        <v>ハンド・グレネードＥ</v>
+        <v>コマンドシールド</v>
       </c>
       <c r="C813" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D813" s="2">
-        <v>1150</v>
-      </c>
-      <c r="E813" s="2">
-        <v>150</v>
-      </c>
-      <c r="F813" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G813" s="2">
-        <v>3</v>
-      </c>
+        <v>3300</v>
+      </c>
+      <c r="E813" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F813" s="2"/>
+      <c r="G813" s="2"/>
       <c r="H813" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I813" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J813" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I813" s="2"/>
+      <c r="J813" s="2"/>
     </row>
     <row r="814" spans="1:10">
       <c r="A814" s="2" t="str">
         <v>装甲強化型ジム</v>
       </c>
       <c r="B814" s="2" t="str">
-        <v>ハンド・グレネードＥ</v>
+        <v>コマンドシールド</v>
       </c>
       <c r="C814" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D814" s="2">
-        <v>1100</v>
-      </c>
-      <c r="E814" s="2">
-        <v>150</v>
-      </c>
-      <c r="F814" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G814" s="2">
-        <v>3</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="E814" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F814" s="2"/>
+      <c r="G814" s="2"/>
       <c r="H814" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I814" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J814" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I814" s="2"/>
+      <c r="J814" s="2"/>
     </row>
     <row r="815" spans="1:10">
       <c r="A815" s="2" t="str">
@@ -77994,10 +78157,10 @@
         <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C815" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D815" s="2">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="E815" s="2">
         <v>150</v>
@@ -78026,10 +78189,10 @@
         <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C816" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D816" s="2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E816" s="2">
         <v>150</v>
@@ -78052,28 +78215,28 @@
     </row>
     <row r="817" spans="1:10">
       <c r="A817" s="2" t="str">
-        <v>試作２号機用MLRS</v>
+        <v>装甲強化型ジム</v>
       </c>
       <c r="B817" s="2" t="str">
-        <v>試作２号機用MLRS[垂直発射]</v>
+        <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C817" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D817" s="2">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="E817" s="2">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="F817" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G817" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H817" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I817" s="2" t="str">
         <v>×</v>
@@ -78084,28 +78247,28 @@
     </row>
     <row r="818" spans="1:10">
       <c r="A818" s="2" t="str">
-        <v>量産型ガンキャノン</v>
+        <v>装甲強化型ジム</v>
       </c>
       <c r="B818" s="2" t="str">
-        <v>伸縮式２４０ｍｍキャノンｘ２</v>
+        <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C818" s="2">
+        <v>1</v>
+      </c>
+      <c r="D818" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E818" s="2">
+        <v>150</v>
+      </c>
+      <c r="F818" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G818" s="2">
         <v>3</v>
       </c>
-      <c r="D818" s="2">
-        <v>710</v>
-      </c>
-      <c r="E818" s="2">
-        <v>550</v>
-      </c>
-      <c r="F818" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G818" s="2">
-        <v>12</v>
-      </c>
       <c r="H818" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I818" s="2" t="str">
         <v>×</v>
@@ -78116,16 +78279,16 @@
     </row>
     <row r="819" spans="1:10">
       <c r="A819" s="2" t="str">
-        <v>量産型ガンキャノン</v>
+        <v>試作２号機用MLRS</v>
       </c>
       <c r="B819" s="2" t="str">
-        <v>伸縮式２４０ｍｍキャノンｘ２</v>
+        <v>試作２号機用MLRS[垂直発射]</v>
       </c>
       <c r="C819" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D819" s="2">
-        <v>680</v>
+        <v>1600</v>
       </c>
       <c r="E819" s="2">
         <v>550</v>
@@ -78134,7 +78297,7 @@
         <v>bullet</v>
       </c>
       <c r="G819" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H819" s="2" t="str">
         <v>ammo</v>
@@ -78154,10 +78317,10 @@
         <v>伸縮式２４０ｍｍキャノンｘ２</v>
       </c>
       <c r="C820" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D820" s="2">
-        <v>650</v>
+        <v>710</v>
       </c>
       <c r="E820" s="2">
         <v>550</v>
@@ -78183,22 +78346,22 @@
         <v>量産型ガンキャノン</v>
       </c>
       <c r="B821" s="2" t="str">
-        <v>頭部バルカン[後期型]</v>
+        <v>伸縮式２４０ｍｍキャノンｘ２</v>
       </c>
       <c r="C821" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D821" s="2">
-        <v>73</v>
+        <v>680</v>
       </c>
       <c r="E821" s="2">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="F821" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G821" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H821" s="2" t="str">
         <v>ammo</v>
@@ -78207,7 +78370,7 @@
         <v>×</v>
       </c>
       <c r="J821" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="822" spans="1:10">
@@ -78215,22 +78378,22 @@
         <v>量産型ガンキャノン</v>
       </c>
       <c r="B822" s="2" t="str">
-        <v>頭部バルカン[後期型]</v>
+        <v>伸縮式２４０ｍｍキャノンｘ２</v>
       </c>
       <c r="C822" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D822" s="2">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="E822" s="2">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="F822" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G822" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H822" s="2" t="str">
         <v>ammo</v>
@@ -78239,7 +78402,7 @@
         <v>×</v>
       </c>
       <c r="J822" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="823" spans="1:10">
@@ -78250,10 +78413,10 @@
         <v>頭部バルカン[後期型]</v>
       </c>
       <c r="C823" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D823" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E823" s="2">
         <v>150</v>
@@ -78276,25 +78439,25 @@
     </row>
     <row r="824" spans="1:10">
       <c r="A824" s="2" t="str">
-        <v>量産型ガンタンク</v>
+        <v>量産型ガンキャノン</v>
       </c>
       <c r="B824" s="2" t="str">
-        <v>１２０ｍｍキャノン徹甲榴弾ｘ２</v>
+        <v>頭部バルカン[後期型]</v>
       </c>
       <c r="C824" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D824" s="2">
-        <v>805</v>
+        <v>70</v>
       </c>
       <c r="E824" s="2">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="F824" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G824" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H824" s="2" t="str">
         <v>ammo</v>
@@ -78308,25 +78471,25 @@
     </row>
     <row r="825" spans="1:10">
       <c r="A825" s="2" t="str">
-        <v>量産型ガンタンク</v>
+        <v>量産型ガンキャノン</v>
       </c>
       <c r="B825" s="2" t="str">
-        <v>１２０ｍｍキャノン徹甲榴弾ｘ２</v>
+        <v>頭部バルカン[後期型]</v>
       </c>
       <c r="C825" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D825" s="2">
-        <v>770</v>
+        <v>67</v>
       </c>
       <c r="E825" s="2">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="F825" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G825" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H825" s="2" t="str">
         <v>ammo</v>
@@ -78346,10 +78509,10 @@
         <v>１２０ｍｍキャノン徹甲榴弾ｘ２</v>
       </c>
       <c r="C826" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D826" s="2">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="E826" s="2">
         <v>800</v>
@@ -78378,10 +78541,10 @@
         <v>１２０ｍｍキャノン徹甲榴弾ｘ２</v>
       </c>
       <c r="C827" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D827" s="2">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="E827" s="2">
         <v>800</v>
@@ -78407,22 +78570,22 @@
         <v>量産型ガンタンク</v>
       </c>
       <c r="B828" s="2" t="str">
-        <v>１２０ｍｍキャノン榴散弾ｘ２</v>
+        <v>１２０ｍｍキャノン徹甲榴弾ｘ２</v>
       </c>
       <c r="C828" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D828" s="2">
-        <v>575</v>
+        <v>735</v>
       </c>
       <c r="E828" s="2">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="F828" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G828" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H828" s="2" t="str">
         <v>ammo</v>
@@ -78439,22 +78602,22 @@
         <v>量産型ガンタンク</v>
       </c>
       <c r="B829" s="2" t="str">
-        <v>１２０ｍｍキャノン榴散弾ｘ２</v>
+        <v>１２０ｍｍキャノン徹甲榴弾ｘ２</v>
       </c>
       <c r="C829" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D829" s="2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E829" s="2">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="F829" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G829" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H829" s="2" t="str">
         <v>ammo</v>
@@ -78474,10 +78637,10 @@
         <v>１２０ｍｍキャノン榴散弾ｘ２</v>
       </c>
       <c r="C830" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D830" s="2">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="E830" s="2">
         <v>450</v>
@@ -78506,10 +78669,10 @@
         <v>１２０ｍｍキャノン榴散弾ｘ２</v>
       </c>
       <c r="C831" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D831" s="2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E831" s="2">
         <v>450</v>
@@ -78532,25 +78695,25 @@
     </row>
     <row r="832" spans="1:10">
       <c r="A832" s="2" t="str">
-        <v>陸戦型ガンダム</v>
+        <v>量産型ガンタンク</v>
       </c>
       <c r="B832" s="2" t="str">
-        <v>胸部バルカン砲</v>
+        <v>１２０ｍｍキャノン榴散弾ｘ２</v>
       </c>
       <c r="C832" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D832" s="2">
-        <v>74</v>
+        <v>525</v>
       </c>
       <c r="E832" s="2">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F832" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G832" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H832" s="2" t="str">
         <v>ammo</v>
@@ -78564,25 +78727,25 @@
     </row>
     <row r="833" spans="1:10">
       <c r="A833" s="2" t="str">
-        <v>陸戦型ガンダム</v>
+        <v>量産型ガンタンク</v>
       </c>
       <c r="B833" s="2" t="str">
-        <v>胸部バルカン砲</v>
+        <v>１２０ｍｍキャノン榴散弾ｘ２</v>
       </c>
       <c r="C833" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D833" s="2">
-        <v>71</v>
+        <v>500</v>
       </c>
       <c r="E833" s="2">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="F833" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G833" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H833" s="2" t="str">
         <v>ammo</v>
@@ -78602,10 +78765,10 @@
         <v>胸部バルカン砲</v>
       </c>
       <c r="C834" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D834" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E834" s="2">
         <v>200</v>
@@ -78634,10 +78797,10 @@
         <v>胸部バルカン砲</v>
       </c>
       <c r="C835" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D835" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E835" s="2">
         <v>200</v>
@@ -78663,31 +78826,31 @@
         <v>陸戦型ガンダム</v>
       </c>
       <c r="B836" s="2" t="str">
-        <v>閃光弾</v>
+        <v>胸部バルカン砲</v>
       </c>
       <c r="C836" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D836" s="2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E836" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F836" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G836" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H836" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I836" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J836" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="837" spans="1:10">
@@ -78695,31 +78858,31 @@
         <v>陸戦型ガンダム</v>
       </c>
       <c r="B837" s="2" t="str">
-        <v>閃光弾</v>
+        <v>胸部バルカン砲</v>
       </c>
       <c r="C837" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D837" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E837" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F837" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G837" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H837" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I837" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J837" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="838" spans="1:10">
@@ -78730,7 +78893,7 @@
         <v>閃光弾</v>
       </c>
       <c r="C838" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D838" s="2">
         <v>0</v>
@@ -78762,7 +78925,7 @@
         <v>閃光弾</v>
       </c>
       <c r="C839" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D839" s="2">
         <v>0</v>
@@ -78791,48 +78954,64 @@
         <v>陸戦型ガンダム</v>
       </c>
       <c r="B840" s="2" t="str">
-        <v>陸戦型シールド</v>
+        <v>閃光弾</v>
       </c>
       <c r="C840" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D840" s="2">
-        <v>2990</v>
-      </c>
-      <c r="E840" s="2" t="str">
-        <v>S</v>
-      </c>
-      <c r="F840" s="2"/>
-      <c r="G840" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E840" s="2">
+        <v>80</v>
+      </c>
+      <c r="F840" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G840" s="2">
+        <v>1</v>
+      </c>
       <c r="H840" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I840" s="2"/>
-      <c r="J840" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I840" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J840" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="841" spans="1:10">
       <c r="A841" s="2" t="str">
         <v>陸戦型ガンダム</v>
       </c>
       <c r="B841" s="2" t="str">
-        <v>陸戦型シールド</v>
+        <v>閃光弾</v>
       </c>
       <c r="C841" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D841" s="2">
-        <v>2760</v>
-      </c>
-      <c r="E841" s="2" t="str">
-        <v>S</v>
-      </c>
-      <c r="F841" s="2"/>
-      <c r="G841" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E841" s="2">
+        <v>80</v>
+      </c>
+      <c r="F841" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G841" s="2">
+        <v>1</v>
+      </c>
       <c r="H841" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I841" s="2"/>
-      <c r="J841" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I841" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J841" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="842" spans="1:10">
       <c r="A842" s="2" t="str">
@@ -78842,10 +79021,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C842" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D842" s="2">
-        <v>2530</v>
+        <v>2990</v>
       </c>
       <c r="E842" s="2" t="str">
         <v>S</v>
@@ -78866,10 +79045,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C843" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D843" s="2">
-        <v>2300</v>
+        <v>2760</v>
       </c>
       <c r="E843" s="2" t="str">
         <v>S</v>
@@ -78884,69 +79063,51 @@
     </row>
     <row r="844" spans="1:10">
       <c r="A844" s="2" t="str">
-        <v>陸戦型ガンダム
-[WR装備]</v>
+        <v>陸戦型ガンダム</v>
       </c>
       <c r="B844" s="2" t="str">
-        <v>胸部バルカン砲</v>
+        <v>陸戦型シールド</v>
       </c>
       <c r="C844" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D844" s="2">
-        <v>74</v>
-      </c>
-      <c r="E844" s="2">
-        <v>200</v>
-      </c>
-      <c r="F844" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G844" s="2">
-        <v>30</v>
-      </c>
+        <v>2530</v>
+      </c>
+      <c r="E844" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="F844" s="2"/>
+      <c r="G844" s="2"/>
       <c r="H844" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I844" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J844" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I844" s="2"/>
+      <c r="J844" s="2"/>
     </row>
     <row r="845" spans="1:10">
       <c r="A845" s="2" t="str">
-        <v>陸戦型ガンダム
-[WR装備]</v>
+        <v>陸戦型ガンダム</v>
       </c>
       <c r="B845" s="2" t="str">
-        <v>胸部バルカン砲</v>
+        <v>陸戦型シールド</v>
       </c>
       <c r="C845" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D845" s="2">
-        <v>71</v>
-      </c>
-      <c r="E845" s="2">
-        <v>200</v>
-      </c>
-      <c r="F845" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G845" s="2">
-        <v>30</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="E845" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="F845" s="2"/>
+      <c r="G845" s="2"/>
       <c r="H845" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I845" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J845" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I845" s="2"/>
+      <c r="J845" s="2"/>
     </row>
     <row r="846" spans="1:10">
       <c r="A846" s="2" t="str">
@@ -78957,10 +79118,10 @@
         <v>胸部バルカン砲</v>
       </c>
       <c r="C846" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D846" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E846" s="2">
         <v>200</v>
@@ -78990,10 +79151,10 @@
         <v>胸部バルカン砲</v>
       </c>
       <c r="C847" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D847" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E847" s="2">
         <v>200</v>
@@ -79020,31 +79181,31 @@
 [WR装備]</v>
       </c>
       <c r="B848" s="2" t="str">
-        <v>閃光弾</v>
+        <v>胸部バルカン砲</v>
       </c>
       <c r="C848" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D848" s="2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E848" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F848" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G848" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H848" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I848" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J848" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="849" spans="1:10">
@@ -79053,31 +79214,31 @@
 [WR装備]</v>
       </c>
       <c r="B849" s="2" t="str">
-        <v>閃光弾</v>
+        <v>胸部バルカン砲</v>
       </c>
       <c r="C849" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D849" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E849" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F849" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G849" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H849" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I849" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J849" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="850" spans="1:10">
@@ -79089,7 +79250,7 @@
         <v>閃光弾</v>
       </c>
       <c r="C850" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D850" s="2">
         <v>0</v>
@@ -79122,7 +79283,7 @@
         <v>閃光弾</v>
       </c>
       <c r="C851" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D851" s="2">
         <v>0</v>
@@ -79152,24 +79313,32 @@
 [WR装備]</v>
       </c>
       <c r="B852" s="2" t="str">
-        <v>陸戦型シールド</v>
+        <v>閃光弾</v>
       </c>
       <c r="C852" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D852" s="2">
-        <v>2990</v>
-      </c>
-      <c r="E852" s="2" t="str">
-        <v>S</v>
-      </c>
-      <c r="F852" s="2"/>
-      <c r="G852" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E852" s="2">
+        <v>80</v>
+      </c>
+      <c r="F852" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G852" s="2">
+        <v>1</v>
+      </c>
       <c r="H852" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I852" s="2"/>
-      <c r="J852" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I852" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J852" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="853" spans="1:10">
       <c r="A853" s="2" t="str">
@@ -79177,24 +79346,32 @@
 [WR装備]</v>
       </c>
       <c r="B853" s="2" t="str">
-        <v>陸戦型シールド</v>
+        <v>閃光弾</v>
       </c>
       <c r="C853" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D853" s="2">
-        <v>2760</v>
-      </c>
-      <c r="E853" s="2" t="str">
-        <v>S</v>
-      </c>
-      <c r="F853" s="2"/>
-      <c r="G853" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E853" s="2">
+        <v>80</v>
+      </c>
+      <c r="F853" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G853" s="2">
+        <v>1</v>
+      </c>
       <c r="H853" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I853" s="2"/>
-      <c r="J853" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I853" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J853" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="854" spans="1:10">
       <c r="A854" s="2" t="str">
@@ -79205,10 +79382,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C854" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D854" s="2">
-        <v>2530</v>
+        <v>2990</v>
       </c>
       <c r="E854" s="2" t="str">
         <v>S</v>
@@ -79230,10 +79407,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C855" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D855" s="2">
-        <v>2300</v>
+        <v>2760</v>
       </c>
       <c r="E855" s="2" t="str">
         <v>S</v>
@@ -79248,16 +79425,17 @@
     </row>
     <row r="856" spans="1:10">
       <c r="A856" s="2" t="str">
-        <v>陸戦型ゲルググ</v>
+        <v>陸戦型ガンダム
+[WR装備]</v>
       </c>
       <c r="B856" s="2" t="str">
-        <v>ショートシールド</v>
+        <v>陸戦型シールド</v>
       </c>
       <c r="C856" s="2">
         <v>2</v>
       </c>
       <c r="D856" s="2">
-        <v>2200</v>
+        <v>2530</v>
       </c>
       <c r="E856" s="2" t="str">
         <v>S</v>
@@ -79272,16 +79450,17 @@
     </row>
     <row r="857" spans="1:10">
       <c r="A857" s="2" t="str">
-        <v>陸戦型ゲルググ</v>
+        <v>陸戦型ガンダム
+[WR装備]</v>
       </c>
       <c r="B857" s="2" t="str">
-        <v>ショートシールド</v>
+        <v>陸戦型シールド</v>
       </c>
       <c r="C857" s="2">
         <v>1</v>
       </c>
       <c r="D857" s="2">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="E857" s="2" t="str">
         <v>S</v>
@@ -79299,86 +79478,70 @@
         <v>陸戦型ゲルググ</v>
       </c>
       <c r="B858" s="2" t="str">
-        <v>腕部ガトリング砲</v>
+        <v>ショートシールド</v>
       </c>
       <c r="C858" s="2">
         <v>2</v>
       </c>
       <c r="D858" s="2">
-        <v>115</v>
-      </c>
-      <c r="E858" s="2">
-        <v>200</v>
-      </c>
-      <c r="F858" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G858" s="2">
-        <v>24</v>
-      </c>
+        <v>2200</v>
+      </c>
+      <c r="E858" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="F858" s="2"/>
+      <c r="G858" s="2"/>
       <c r="H858" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I858" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J858" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I858" s="2"/>
+      <c r="J858" s="2"/>
     </row>
     <row r="859" spans="1:10">
       <c r="A859" s="2" t="str">
         <v>陸戦型ゲルググ</v>
       </c>
       <c r="B859" s="2" t="str">
-        <v>腕部ガトリング砲</v>
+        <v>ショートシールド</v>
       </c>
       <c r="C859" s="2">
         <v>1</v>
       </c>
       <c r="D859" s="2">
-        <v>110</v>
-      </c>
-      <c r="E859" s="2">
-        <v>200</v>
-      </c>
-      <c r="F859" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G859" s="2">
-        <v>24</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="E859" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="F859" s="2"/>
+      <c r="G859" s="2"/>
       <c r="H859" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I859" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J859" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I859" s="2"/>
+      <c r="J859" s="2"/>
     </row>
     <row r="860" spans="1:10">
       <c r="A860" s="2" t="str">
         <v>陸戦型ゲルググ</v>
       </c>
       <c r="B860" s="2" t="str">
-        <v>腕部グレネード・ランチャー</v>
+        <v>腕部ガトリング砲</v>
       </c>
       <c r="C860" s="2">
         <v>2</v>
       </c>
       <c r="D860" s="2">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="E860" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F860" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G860" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H860" s="2" t="str">
         <v>ammo</v>
@@ -79387,7 +79550,7 @@
         <v>×</v>
       </c>
       <c r="J860" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="861" spans="1:10">
@@ -79395,22 +79558,22 @@
         <v>陸戦型ゲルググ</v>
       </c>
       <c r="B861" s="2" t="str">
-        <v>腕部グレネード・ランチャー</v>
+        <v>腕部ガトリング砲</v>
       </c>
       <c r="C861" s="2">
         <v>1</v>
       </c>
       <c r="D861" s="2">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="E861" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F861" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G861" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H861" s="2" t="str">
         <v>ammo</v>
@@ -79419,142 +79582,142 @@
         <v>×</v>
       </c>
       <c r="J861" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="862" spans="1:10">
       <c r="A862" s="2" t="str">
-        <v>陸戦型ゲルググ(VD)</v>
+        <v>陸戦型ゲルググ</v>
       </c>
       <c r="B862" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>腕部グレネード・ランチャー</v>
       </c>
       <c r="C862" s="2">
         <v>2</v>
       </c>
       <c r="D862" s="2">
-        <v>4400</v>
-      </c>
-      <c r="E862" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F862" s="2"/>
-      <c r="G862" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="E862" s="2">
+        <v>300</v>
+      </c>
+      <c r="F862" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G862" s="2">
+        <v>3</v>
+      </c>
       <c r="H862" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I862" s="2"/>
-      <c r="J862" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I862" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J862" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="863" spans="1:10">
       <c r="A863" s="2" t="str">
-        <v>陸戦型ゲルググ(VD)</v>
+        <v>陸戦型ゲルググ</v>
       </c>
       <c r="B863" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>腕部グレネード・ランチャー</v>
       </c>
       <c r="C863" s="2">
         <v>1</v>
       </c>
       <c r="D863" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E863" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F863" s="2"/>
-      <c r="G863" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="E863" s="2">
+        <v>300</v>
+      </c>
+      <c r="F863" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G863" s="2">
+        <v>3</v>
+      </c>
       <c r="H863" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I863" s="2"/>
-      <c r="J863" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I863" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J863" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="864" spans="1:10">
       <c r="A864" s="2" t="str">
         <v>陸戦型ゲルググ(VD)</v>
       </c>
       <c r="B864" s="2" t="str">
-        <v>腕部ガトリング砲</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C864" s="2">
         <v>2</v>
       </c>
       <c r="D864" s="2">
-        <v>115</v>
-      </c>
-      <c r="E864" s="2">
-        <v>200</v>
-      </c>
-      <c r="F864" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G864" s="2">
-        <v>24</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="E864" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F864" s="2"/>
+      <c r="G864" s="2"/>
       <c r="H864" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I864" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J864" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I864" s="2"/>
+      <c r="J864" s="2"/>
     </row>
     <row r="865" spans="1:10">
       <c r="A865" s="2" t="str">
         <v>陸戦型ゲルググ(VD)</v>
       </c>
       <c r="B865" s="2" t="str">
-        <v>腕部ガトリング砲</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C865" s="2">
         <v>1</v>
       </c>
       <c r="D865" s="2">
-        <v>110</v>
-      </c>
-      <c r="E865" s="2">
-        <v>200</v>
-      </c>
-      <c r="F865" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G865" s="2">
-        <v>24</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E865" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F865" s="2"/>
+      <c r="G865" s="2"/>
       <c r="H865" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I865" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J865" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I865" s="2"/>
+      <c r="J865" s="2"/>
     </row>
     <row r="866" spans="1:10">
       <c r="A866" s="2" t="str">
         <v>陸戦型ゲルググ(VD)</v>
       </c>
       <c r="B866" s="2" t="str">
-        <v>腕部グレネード・ランチャー</v>
+        <v>腕部ガトリング砲</v>
       </c>
       <c r="C866" s="2">
         <v>2</v>
       </c>
       <c r="D866" s="2">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="E866" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F866" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G866" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H866" s="2" t="str">
         <v>ammo</v>
@@ -79563,7 +79726,7 @@
         <v>×</v>
       </c>
       <c r="J866" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="867" spans="1:10">
@@ -79571,22 +79734,22 @@
         <v>陸戦型ゲルググ(VD)</v>
       </c>
       <c r="B867" s="2" t="str">
-        <v>腕部グレネード・ランチャー</v>
+        <v>腕部ガトリング砲</v>
       </c>
       <c r="C867" s="2">
         <v>1</v>
       </c>
       <c r="D867" s="2">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="E867" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F867" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G867" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H867" s="2" t="str">
         <v>ammo</v>
@@ -79595,24 +79758,24 @@
         <v>×</v>
       </c>
       <c r="J867" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="868" spans="1:10">
       <c r="A868" s="2" t="str">
-        <v>陸戦型ジム</v>
+        <v>陸戦型ゲルググ(VD)</v>
       </c>
       <c r="B868" s="2" t="str">
-        <v>ハンド・グレネードＥ</v>
+        <v>腕部グレネード・ランチャー</v>
       </c>
       <c r="C868" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D868" s="2">
-        <v>1200</v>
+        <v>367</v>
       </c>
       <c r="E868" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F868" s="2" t="str">
         <v>bullet</v>
@@ -79621,7 +79784,7 @@
         <v>3</v>
       </c>
       <c r="H868" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I868" s="2" t="str">
         <v>×</v>
@@ -79632,19 +79795,19 @@
     </row>
     <row r="869" spans="1:10">
       <c r="A869" s="2" t="str">
-        <v>陸戦型ジム</v>
+        <v>陸戦型ゲルググ(VD)</v>
       </c>
       <c r="B869" s="2" t="str">
-        <v>ハンド・グレネードＥ</v>
+        <v>腕部グレネード・ランチャー</v>
       </c>
       <c r="C869" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D869" s="2">
-        <v>1150</v>
+        <v>350</v>
       </c>
       <c r="E869" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F869" s="2" t="str">
         <v>bullet</v>
@@ -79653,7 +79816,7 @@
         <v>3</v>
       </c>
       <c r="H869" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I869" s="2" t="str">
         <v>×</v>
@@ -79670,10 +79833,10 @@
         <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C870" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D870" s="2">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E870" s="2">
         <v>150</v>
@@ -79702,10 +79865,10 @@
         <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C871" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D871" s="2">
-        <v>1050</v>
+        <v>1150</v>
       </c>
       <c r="E871" s="2">
         <v>150</v>
@@ -79734,10 +79897,10 @@
         <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C872" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D872" s="2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E872" s="2">
         <v>150</v>
@@ -79763,48 +79926,64 @@
         <v>陸戦型ジム</v>
       </c>
       <c r="B873" s="2" t="str">
-        <v>陸戦型シールド</v>
+        <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C873" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D873" s="2">
-        <v>3220</v>
-      </c>
-      <c r="E873" s="2" t="str">
-        <v>S</v>
-      </c>
-      <c r="F873" s="2"/>
-      <c r="G873" s="2"/>
+        <v>1050</v>
+      </c>
+      <c r="E873" s="2">
+        <v>150</v>
+      </c>
+      <c r="F873" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G873" s="2">
+        <v>3</v>
+      </c>
       <c r="H873" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I873" s="2"/>
-      <c r="J873" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I873" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J873" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="874" spans="1:10">
       <c r="A874" s="2" t="str">
         <v>陸戦型ジム</v>
       </c>
       <c r="B874" s="2" t="str">
-        <v>陸戦型シールド</v>
+        <v>ハンド・グレネードＥ</v>
       </c>
       <c r="C874" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D874" s="2">
-        <v>2990</v>
-      </c>
-      <c r="E874" s="2" t="str">
-        <v>S</v>
-      </c>
-      <c r="F874" s="2"/>
-      <c r="G874" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E874" s="2">
+        <v>150</v>
+      </c>
+      <c r="F874" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G874" s="2">
+        <v>3</v>
+      </c>
       <c r="H874" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I874" s="2"/>
-      <c r="J874" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I874" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J874" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="875" spans="1:10">
       <c r="A875" s="2" t="str">
@@ -79814,10 +79993,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C875" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D875" s="2">
-        <v>2760</v>
+        <v>3220</v>
       </c>
       <c r="E875" s="2" t="str">
         <v>S</v>
@@ -79838,10 +80017,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C876" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D876" s="2">
-        <v>2530</v>
+        <v>2990</v>
       </c>
       <c r="E876" s="2" t="str">
         <v>S</v>
@@ -79862,10 +80041,10 @@
         <v>陸戦型シールド</v>
       </c>
       <c r="C877" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D877" s="2">
-        <v>2300</v>
+        <v>2760</v>
       </c>
       <c r="E877" s="2" t="str">
         <v>S</v>
@@ -79880,89 +80059,73 @@
     </row>
     <row r="878" spans="1:10">
       <c r="A878" s="2" t="str">
-        <v>陸戦強襲型ガンタンク</v>
+        <v>陸戦型ジム</v>
       </c>
       <c r="B878" s="2" t="str">
-        <v>スモーク・ディスチャージャーｘ２</v>
+        <v>陸戦型シールド</v>
       </c>
       <c r="C878" s="2">
         <v>2</v>
       </c>
       <c r="D878" s="2">
-        <v>0</v>
-      </c>
-      <c r="E878" s="2">
-        <v>5</v>
-      </c>
-      <c r="F878" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G878" s="2">
-        <v>2</v>
-      </c>
+        <v>2530</v>
+      </c>
+      <c r="E878" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="F878" s="2"/>
+      <c r="G878" s="2"/>
       <c r="H878" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I878" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J878" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I878" s="2"/>
+      <c r="J878" s="2"/>
     </row>
     <row r="879" spans="1:10">
       <c r="A879" s="2" t="str">
-        <v>陸戦強襲型ガンタンク</v>
+        <v>陸戦型ジム</v>
       </c>
       <c r="B879" s="2" t="str">
-        <v>スモーク・ディスチャージャーｘ２</v>
+        <v>陸戦型シールド</v>
       </c>
       <c r="C879" s="2">
         <v>1</v>
       </c>
       <c r="D879" s="2">
-        <v>0</v>
-      </c>
-      <c r="E879" s="2">
-        <v>5</v>
-      </c>
-      <c r="F879" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G879" s="2">
-        <v>2</v>
-      </c>
+        <v>2300</v>
+      </c>
+      <c r="E879" s="2" t="str">
+        <v>S</v>
+      </c>
+      <c r="F879" s="2"/>
+      <c r="G879" s="2"/>
       <c r="H879" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I879" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J879" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I879" s="2"/>
+      <c r="J879" s="2"/>
     </row>
     <row r="880" spans="1:10">
       <c r="A880" s="2" t="str">
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B880" s="2" t="str">
-        <v>多連装ロケットランチャー</v>
+        <v>スモーク・ディスチャージャーｘ２</v>
       </c>
       <c r="C880" s="2">
         <v>2</v>
       </c>
       <c r="D880" s="2">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E880" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F880" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G880" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H880" s="2" t="str">
         <v>ammo</v>
@@ -79979,22 +80142,22 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B881" s="2" t="str">
-        <v>多連装ロケットランチャー</v>
+        <v>スモーク・ディスチャージャーｘ２</v>
       </c>
       <c r="C881" s="2">
         <v>1</v>
       </c>
       <c r="D881" s="2">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E881" s="2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F881" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G881" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H881" s="2" t="str">
         <v>ammo</v>
@@ -80011,25 +80174,25 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B882" s="2" t="str">
-        <v>燃料爆雷</v>
+        <v>多連装ロケットランチャー</v>
       </c>
       <c r="C882" s="2">
         <v>2</v>
       </c>
       <c r="D882" s="2">
-        <v>1575</v>
+        <v>375</v>
       </c>
       <c r="E882" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F882" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G882" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H882" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I882" s="2" t="str">
         <v>×</v>
@@ -80043,25 +80206,25 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B883" s="2" t="str">
-        <v>燃料爆雷</v>
+        <v>多連装ロケットランチャー</v>
       </c>
       <c r="C883" s="2">
         <v>1</v>
       </c>
       <c r="D883" s="2">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="E883" s="2">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F883" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G883" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H883" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I883" s="2" t="str">
         <v>×</v>
@@ -80075,25 +80238,25 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B884" s="2" t="str">
-        <v>車載用火炎放射器</v>
+        <v>燃料爆雷</v>
       </c>
       <c r="C884" s="2">
         <v>2</v>
       </c>
       <c r="D884" s="2">
-        <v>225</v>
+        <v>1575</v>
       </c>
       <c r="E884" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F884" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G884" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H884" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I884" s="2" t="str">
         <v>×</v>
@@ -80107,25 +80270,25 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B885" s="2" t="str">
-        <v>車載用火炎放射器</v>
+        <v>燃料爆雷</v>
       </c>
       <c r="C885" s="2">
         <v>1</v>
       </c>
       <c r="D885" s="2">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E885" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F885" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G885" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H885" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I885" s="2" t="str">
         <v>×</v>
@@ -80139,22 +80302,22 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B886" s="2" t="str">
-        <v>２連装改良型ボップ・ガン</v>
+        <v>車載用火炎放射器</v>
       </c>
       <c r="C886" s="2">
         <v>2</v>
       </c>
       <c r="D886" s="2">
-        <v>625</v>
+        <v>225</v>
       </c>
       <c r="E886" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F886" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G886" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H886" s="2" t="str">
         <v>ammo</v>
@@ -80171,22 +80334,22 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B887" s="2" t="str">
-        <v>２連装改良型ボップ・ガン</v>
+        <v>車載用火炎放射器</v>
       </c>
       <c r="C887" s="2">
         <v>1</v>
       </c>
       <c r="D887" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E887" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F887" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G887" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H887" s="2" t="str">
         <v>ammo</v>
@@ -80203,22 +80366,22 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B888" s="2" t="str">
-        <v>２２０ｍｍ滑腔砲[徹甲榴弾]</v>
+        <v>２連装改良型ボップ・ガン</v>
       </c>
       <c r="C888" s="2">
         <v>2</v>
       </c>
       <c r="D888" s="2">
-        <v>2100</v>
+        <v>625</v>
       </c>
       <c r="E888" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F888" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G888" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H888" s="2" t="str">
         <v>ammo</v>
@@ -80235,22 +80398,22 @@
         <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B889" s="2" t="str">
-        <v>２２０ｍｍ滑腔砲[徹甲榴弾]</v>
+        <v>２連装改良型ボップ・ガン</v>
       </c>
       <c r="C889" s="2">
         <v>1</v>
       </c>
       <c r="D889" s="2">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E889" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F889" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G889" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H889" s="2" t="str">
         <v>ammo</v>
@@ -80264,28 +80427,28 @@
     </row>
     <row r="890" spans="1:10">
       <c r="A890" s="2" t="str">
-        <v>陸戦高機動型ザク</v>
+        <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B890" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
+        <v>２２０ｍｍ滑腔砲[徹甲榴弾]</v>
       </c>
       <c r="C890" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D890" s="2">
-        <v>1925</v>
+        <v>2100</v>
       </c>
       <c r="E890" s="2">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="F890" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G890" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H890" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I890" s="2" t="str">
         <v>×</v>
@@ -80296,28 +80459,28 @@
     </row>
     <row r="891" spans="1:10">
       <c r="A891" s="2" t="str">
-        <v>陸戦高機動型ザク</v>
+        <v>陸戦強襲型ガンタンク</v>
       </c>
       <c r="B891" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
+        <v>２２０ｍｍ滑腔砲[徹甲榴弾]</v>
       </c>
       <c r="C891" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D891" s="2">
-        <v>1837</v>
+        <v>2000</v>
       </c>
       <c r="E891" s="2">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="F891" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G891" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H891" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I891" s="2" t="str">
         <v>×</v>
@@ -80334,10 +80497,10 @@
         <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C892" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D892" s="2">
-        <v>1750</v>
+        <v>1925</v>
       </c>
       <c r="E892" s="2">
         <v>150</v>
@@ -80360,51 +80523,67 @@
     </row>
     <row r="893" spans="1:10">
       <c r="A893" s="2" t="str">
-        <v>高機動型ゲルググ</v>
+        <v>陸戦高機動型ザク</v>
       </c>
       <c r="B893" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C893" s="2">
+        <v>2</v>
+      </c>
+      <c r="D893" s="2">
+        <v>1837</v>
+      </c>
+      <c r="E893" s="2">
+        <v>150</v>
+      </c>
+      <c r="F893" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G893" s="2">
         <v>3</v>
       </c>
-      <c r="D893" s="2">
-        <v>4800</v>
-      </c>
-      <c r="E893" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F893" s="2"/>
-      <c r="G893" s="2"/>
       <c r="H893" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I893" s="2"/>
-      <c r="J893" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I893" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J893" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="894" spans="1:10">
       <c r="A894" s="2" t="str">
-        <v>高機動型ゲルググ</v>
+        <v>陸戦高機動型ザク</v>
       </c>
       <c r="B894" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C894" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D894" s="2">
-        <v>4400</v>
-      </c>
-      <c r="E894" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F894" s="2"/>
-      <c r="G894" s="2"/>
+        <v>1750</v>
+      </c>
+      <c r="E894" s="2">
+        <v>150</v>
+      </c>
+      <c r="F894" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G894" s="2">
+        <v>3</v>
+      </c>
       <c r="H894" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I894" s="2"/>
-      <c r="J894" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I894" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J894" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="895" spans="1:10">
       <c r="A895" s="2" t="str">
@@ -80414,10 +80593,10 @@
         <v>ゲルググシールド</v>
       </c>
       <c r="C895" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D895" s="2">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="E895" s="2" t="str">
         <v>L</v>
@@ -80435,64 +80614,48 @@
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B896" s="2" t="str">
-        <v>ハンド・グレネードＺ</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C896" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D896" s="2">
-        <v>1230</v>
-      </c>
-      <c r="E896" s="2">
-        <v>150</v>
-      </c>
-      <c r="F896" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G896" s="2">
-        <v>3</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="E896" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F896" s="2"/>
+      <c r="G896" s="2"/>
       <c r="H896" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I896" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J896" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I896" s="2"/>
+      <c r="J896" s="2"/>
     </row>
     <row r="897" spans="1:10">
       <c r="A897" s="2" t="str">
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B897" s="2" t="str">
-        <v>ハンド・グレネードＺ</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C897" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D897" s="2">
-        <v>1165</v>
-      </c>
-      <c r="E897" s="2">
-        <v>150</v>
-      </c>
-      <c r="F897" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G897" s="2">
-        <v>3</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E897" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F897" s="2"/>
+      <c r="G897" s="2"/>
       <c r="H897" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I897" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J897" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I897" s="2"/>
+      <c r="J897" s="2"/>
     </row>
     <row r="898" spans="1:10">
       <c r="A898" s="2" t="str">
@@ -80502,10 +80665,10 @@
         <v>ハンド・グレネードＺ</v>
       </c>
       <c r="C898" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D898" s="2">
-        <v>1100</v>
+        <v>1230</v>
       </c>
       <c r="E898" s="2">
         <v>150</v>
@@ -80531,31 +80694,31 @@
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B899" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ハンド・グレネードＺ</v>
       </c>
       <c r="C899" s="2">
+        <v>2</v>
+      </c>
+      <c r="D899" s="2">
+        <v>1165</v>
+      </c>
+      <c r="E899" s="2">
+        <v>150</v>
+      </c>
+      <c r="F899" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G899" s="2">
         <v>3</v>
       </c>
-      <c r="D899" s="2">
-        <v>132</v>
-      </c>
-      <c r="E899" s="2">
-        <v>200</v>
-      </c>
-      <c r="F899" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G899" s="2">
-        <v>50</v>
-      </c>
       <c r="H899" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I899" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J899" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="900" spans="1:10">
@@ -80563,31 +80726,31 @@
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B900" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ハンド・グレネードＺ</v>
       </c>
       <c r="C900" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D900" s="2">
-        <v>126</v>
+        <v>1100</v>
       </c>
       <c r="E900" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F900" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G900" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H900" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I900" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J900" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="901" spans="1:10">
@@ -80598,10 +80761,10 @@
         <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="C901" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D901" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E901" s="2">
         <v>200</v>
@@ -80624,227 +80787,227 @@
     </row>
     <row r="902" spans="1:10">
       <c r="A902" s="2" t="str">
-        <v>高機動型ゲルググ(UL)</v>
+        <v>高機動型ゲルググ</v>
       </c>
       <c r="B902" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="C902" s="2">
         <v>2</v>
       </c>
       <c r="D902" s="2">
-        <v>4400</v>
-      </c>
-      <c r="E902" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F902" s="2"/>
-      <c r="G902" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="E902" s="2">
+        <v>200</v>
+      </c>
+      <c r="F902" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G902" s="2">
+        <v>50</v>
+      </c>
       <c r="H902" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I902" s="2"/>
-      <c r="J902" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I902" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J902" s="2" t="str">
+        <v>○</v>
+      </c>
     </row>
     <row r="903" spans="1:10">
       <c r="A903" s="2" t="str">
-        <v>高機動型ゲルググ(UL)</v>
+        <v>高機動型ゲルググ</v>
       </c>
       <c r="B903" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="C903" s="2">
         <v>1</v>
       </c>
       <c r="D903" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E903" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F903" s="2"/>
-      <c r="G903" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="E903" s="2">
+        <v>200</v>
+      </c>
+      <c r="F903" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G903" s="2">
+        <v>50</v>
+      </c>
       <c r="H903" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I903" s="2"/>
-      <c r="J903" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I903" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J903" s="2" t="str">
+        <v>○</v>
+      </c>
     </row>
     <row r="904" spans="1:10">
       <c r="A904" s="2" t="str">
         <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B904" s="2" t="str">
-        <v>腕部３連装ミサイル・ポッド</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C904" s="2">
         <v>2</v>
       </c>
       <c r="D904" s="2">
-        <v>420</v>
-      </c>
-      <c r="E904" s="2">
-        <v>300</v>
-      </c>
-      <c r="F904" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G904" s="2">
-        <v>6</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="E904" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F904" s="2"/>
+      <c r="G904" s="2"/>
       <c r="H904" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I904" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J904" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I904" s="2"/>
+      <c r="J904" s="2"/>
     </row>
     <row r="905" spans="1:10">
       <c r="A905" s="2" t="str">
         <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B905" s="2" t="str">
-        <v>腕部３連装ミサイル・ポッド</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C905" s="2">
         <v>1</v>
       </c>
       <c r="D905" s="2">
-        <v>400</v>
-      </c>
-      <c r="E905" s="2">
-        <v>300</v>
-      </c>
-      <c r="F905" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G905" s="2">
-        <v>6</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E905" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F905" s="2"/>
+      <c r="G905" s="2"/>
       <c r="H905" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I905" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J905" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I905" s="2"/>
+      <c r="J905" s="2"/>
     </row>
     <row r="906" spans="1:10">
       <c r="A906" s="2" t="str">
-        <v>高機動型ゲルググ(VG)</v>
+        <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B906" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>腕部３連装ミサイル・ポッド</v>
       </c>
       <c r="C906" s="2">
         <v>2</v>
       </c>
       <c r="D906" s="2">
-        <v>4400</v>
-      </c>
-      <c r="E906" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F906" s="2"/>
-      <c r="G906" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="E906" s="2">
+        <v>300</v>
+      </c>
+      <c r="F906" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G906" s="2">
+        <v>6</v>
+      </c>
       <c r="H906" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I906" s="2"/>
-      <c r="J906" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I906" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J906" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="907" spans="1:10">
       <c r="A907" s="2" t="str">
-        <v>高機動型ゲルググ(VG)</v>
+        <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B907" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>腕部３連装ミサイル・ポッド</v>
       </c>
       <c r="C907" s="2">
         <v>1</v>
       </c>
       <c r="D907" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E907" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F907" s="2"/>
-      <c r="G907" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="E907" s="2">
+        <v>300</v>
+      </c>
+      <c r="F907" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G907" s="2">
+        <v>6</v>
+      </c>
       <c r="H907" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I907" s="2"/>
-      <c r="J907" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I907" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J907" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="908" spans="1:10">
       <c r="A908" s="2" t="str">
-        <v>高機動型ザク</v>
+        <v>高機動型ゲルググ(VG)</v>
       </c>
       <c r="B908" s="2" t="str">
-        <v>クラッカー[強化型]</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C908" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D908" s="2">
-        <v>1370</v>
-      </c>
-      <c r="E908" s="2">
-        <v>150</v>
-      </c>
-      <c r="F908" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G908" s="2">
-        <v>3</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="E908" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F908" s="2"/>
+      <c r="G908" s="2"/>
       <c r="H908" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I908" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J908" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I908" s="2"/>
+      <c r="J908" s="2"/>
     </row>
     <row r="909" spans="1:10">
       <c r="A909" s="2" t="str">
-        <v>高機動型ザク</v>
+        <v>高機動型ゲルググ(VG)</v>
       </c>
       <c r="B909" s="2" t="str">
-        <v>クラッカー[強化型]</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C909" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D909" s="2">
-        <v>1310</v>
-      </c>
-      <c r="E909" s="2">
-        <v>150</v>
-      </c>
-      <c r="F909" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G909" s="2">
-        <v>3</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E909" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F909" s="2"/>
+      <c r="G909" s="2"/>
       <c r="H909" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I909" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J909" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I909" s="2"/>
+      <c r="J909" s="2"/>
     </row>
     <row r="910" spans="1:10">
       <c r="A910" s="2" t="str">
@@ -80854,10 +81017,10 @@
         <v>クラッカー[強化型]</v>
       </c>
       <c r="C910" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D910" s="2">
-        <v>1250</v>
+        <v>1370</v>
       </c>
       <c r="E910" s="2">
         <v>150</v>
@@ -80883,31 +81046,31 @@
         <v>高機動型ザク</v>
       </c>
       <c r="B911" s="2" t="str">
-        <v>ザク・マシンガン</v>
+        <v>クラッカー[強化型]</v>
       </c>
       <c r="C911" s="2">
+        <v>2</v>
+      </c>
+      <c r="D911" s="2">
+        <v>1310</v>
+      </c>
+      <c r="E911" s="2">
+        <v>150</v>
+      </c>
+      <c r="F911" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G911" s="2">
         <v>3</v>
       </c>
-      <c r="D911" s="2">
-        <v>73</v>
-      </c>
-      <c r="E911" s="2">
-        <v>250</v>
-      </c>
-      <c r="F911" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G911" s="2">
-        <v>100</v>
-      </c>
       <c r="H911" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I911" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J911" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="912" spans="1:10">
@@ -80915,31 +81078,31 @@
         <v>高機動型ザク</v>
       </c>
       <c r="B912" s="2" t="str">
-        <v>ザク・マシンガン</v>
+        <v>クラッカー[強化型]</v>
       </c>
       <c r="C912" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D912" s="2">
-        <v>70</v>
+        <v>1250</v>
       </c>
       <c r="E912" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F912" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G912" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H912" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I912" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J912" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="913" spans="1:10">
@@ -80950,10 +81113,10 @@
         <v>ザク・マシンガン</v>
       </c>
       <c r="C913" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D913" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E913" s="2">
         <v>250</v>
@@ -80976,92 +81139,92 @@
     </row>
     <row r="914" spans="1:10">
       <c r="A914" s="2" t="str">
-        <v>高機動型ザク後期型</v>
+        <v>高機動型ザク</v>
       </c>
       <c r="B914" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
+        <v>ザク・マシンガン</v>
       </c>
       <c r="C914" s="2">
         <v>2</v>
       </c>
       <c r="D914" s="2">
-        <v>1837</v>
+        <v>70</v>
       </c>
       <c r="E914" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F914" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G914" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H914" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I914" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J914" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="915" spans="1:10">
       <c r="A915" s="2" t="str">
-        <v>高機動型ザク後期型</v>
+        <v>高機動型ザク</v>
       </c>
       <c r="B915" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
+        <v>ザク・マシンガン</v>
       </c>
       <c r="C915" s="2">
         <v>1</v>
       </c>
       <c r="D915" s="2">
-        <v>1750</v>
+        <v>67</v>
       </c>
       <c r="E915" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F915" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G915" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H915" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I915" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J915" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="916" spans="1:10">
       <c r="A916" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>高機動型ザク後期型</v>
       </c>
       <c r="B916" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C916" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D916" s="2">
-        <v>805</v>
+        <v>1837</v>
       </c>
       <c r="E916" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F916" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G916" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H916" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I916" s="2" t="str">
         <v>×</v>
@@ -81072,28 +81235,28 @@
     </row>
     <row r="917" spans="1:10">
       <c r="A917" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>高機動型ザク後期型</v>
       </c>
       <c r="B917" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C917" s="2">
+        <v>1</v>
+      </c>
+      <c r="D917" s="2">
+        <v>1750</v>
+      </c>
+      <c r="E917" s="2">
+        <v>150</v>
+      </c>
+      <c r="F917" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G917" s="2">
         <v>3</v>
       </c>
-      <c r="D917" s="2">
-        <v>770</v>
-      </c>
-      <c r="E917" s="2">
-        <v>250</v>
-      </c>
-      <c r="F917" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G917" s="2">
-        <v>4</v>
-      </c>
       <c r="H917" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I917" s="2" t="str">
         <v>×</v>
@@ -81110,10 +81273,10 @@
         <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C918" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D918" s="2">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="E918" s="2">
         <v>250</v>
@@ -81142,10 +81305,10 @@
         <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C919" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D919" s="2">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="E919" s="2">
         <v>250</v>
@@ -81168,28 +81331,28 @@
     </row>
     <row r="920" spans="1:10">
       <c r="A920" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B920" s="2" t="str">
-        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
+        <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C920" s="2">
         <v>2</v>
       </c>
       <c r="D920" s="2">
-        <v>1995</v>
+        <v>735</v>
       </c>
       <c r="E920" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F920" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G920" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H920" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I920" s="2" t="str">
         <v>×</v>
@@ -81200,28 +81363,28 @@
     </row>
     <row r="921" spans="1:10">
       <c r="A921" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B921" s="2" t="str">
-        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
+        <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C921" s="2">
         <v>1</v>
       </c>
       <c r="D921" s="2">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="E921" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F921" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G921" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H921" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I921" s="2" t="str">
         <v>×</v>
@@ -81232,28 +81395,28 @@
     </row>
     <row r="922" spans="1:10">
       <c r="A922" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B922" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
+        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
       </c>
       <c r="C922" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D922" s="2">
-        <v>805</v>
+        <v>1995</v>
       </c>
       <c r="E922" s="2">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="F922" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G922" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H922" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I922" s="2" t="str">
         <v>×</v>
@@ -81264,28 +81427,28 @@
     </row>
     <row r="923" spans="1:10">
       <c r="A923" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B923" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
+        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
       </c>
       <c r="C923" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D923" s="2">
-        <v>770</v>
+        <v>1900</v>
       </c>
       <c r="E923" s="2">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="F923" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G923" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H923" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I923" s="2" t="str">
         <v>×</v>
@@ -81302,10 +81465,10 @@
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C924" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D924" s="2">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="E924" s="2">
         <v>325</v>
@@ -81334,10 +81497,10 @@
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C925" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D925" s="2">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="E925" s="2">
         <v>325</v>
@@ -81360,16 +81523,16 @@
     </row>
     <row r="926" spans="1:10">
       <c r="A926" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B926" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C926" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D926" s="2">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="E926" s="2">
         <v>325</v>
@@ -81392,16 +81555,16 @@
     </row>
     <row r="927" spans="1:10">
       <c r="A927" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B927" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C927" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D927" s="2">
-        <v>735</v>
+        <v>700</v>
       </c>
       <c r="E927" s="2">
         <v>325</v>
@@ -81430,10 +81593,10 @@
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C928" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D928" s="2">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="E928" s="2">
         <v>325</v>
@@ -81456,16 +81619,16 @@
     </row>
     <row r="929" spans="1:10">
       <c r="A929" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B929" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
+        <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C929" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D929" s="2">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="E929" s="2">
         <v>325</v>
@@ -81488,16 +81651,16 @@
     </row>
     <row r="930" spans="1:10">
       <c r="A930" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B930" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
+        <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C930" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D930" s="2">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="E930" s="2">
         <v>325</v>
@@ -81526,10 +81689,10 @@
         <v>ＭＭＰ－８０付属グレネード</v>
       </c>
       <c r="C931" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D931" s="2">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="E931" s="2">
         <v>325</v>
@@ -81558,10 +81721,10 @@
         <v>ＭＭＰ－８０付属グレネード</v>
       </c>
       <c r="C932" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D932" s="2">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="E932" s="2">
         <v>325</v>
@@ -81583,36 +81746,80 @@
       </c>
     </row>
     <row r="933" spans="1:10">
-      <c r="A933" s="6"/>
-      <c r="B933" s="6"/>
-      <c r="C933" s="6"/>
-      <c r="D933" s="6"/>
-      <c r="E933" s="6"/>
-      <c r="F933" s="6"/>
-      <c r="G933" s="6"/>
-      <c r="H933" s="6"/>
-      <c r="I933" s="6"/>
-      <c r="J933" s="6"/>
+      <c r="A933" s="2" t="str">
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
+      </c>
+      <c r="B933" s="2" t="str">
+        <v>ＭＭＰ－８０付属グレネード</v>
+      </c>
+      <c r="C933" s="2">
+        <v>2</v>
+      </c>
+      <c r="D933" s="2">
+        <v>735</v>
+      </c>
+      <c r="E933" s="2">
+        <v>325</v>
+      </c>
+      <c r="F933" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G933" s="2">
+        <v>1</v>
+      </c>
+      <c r="H933" s="2" t="str">
+        <v>ammo</v>
+      </c>
+      <c r="I933" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J933" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="934" spans="1:10">
-      <c r="A934" s="3"/>
-      <c r="B934" s="3"/>
-      <c r="C934" s="3"/>
-      <c r="D934" s="3"/>
-      <c r="E934" s="3"/>
-      <c r="F934" s="3"/>
-      <c r="G934" s="3"/>
-      <c r="H934" s="3"/>
+      <c r="A934" s="2" t="str">
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
+      </c>
+      <c r="B934" s="2" t="str">
+        <v>ＭＭＰ－８０付属グレネード</v>
+      </c>
+      <c r="C934" s="2">
+        <v>1</v>
+      </c>
+      <c r="D934" s="2">
+        <v>700</v>
+      </c>
+      <c r="E934" s="2">
+        <v>325</v>
+      </c>
+      <c r="F934" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G934" s="2">
+        <v>1</v>
+      </c>
+      <c r="H934" s="2" t="str">
+        <v>ammo</v>
+      </c>
+      <c r="I934" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J934" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="935" spans="1:10">
-      <c r="A935" s="3"/>
-      <c r="B935" s="3"/>
-      <c r="C935" s="3"/>
-      <c r="D935" s="3"/>
-      <c r="E935" s="3"/>
-      <c r="F935" s="3"/>
-      <c r="G935" s="3"/>
-      <c r="H935" s="3"/>
+      <c r="A935" s="6"/>
+      <c r="B935" s="6"/>
+      <c r="C935" s="6"/>
+      <c r="D935" s="6"/>
+      <c r="E935" s="6"/>
+      <c r="F935" s="6"/>
+      <c r="G935" s="6"/>
+      <c r="H935" s="6"/>
+      <c r="I935" s="6"/>
+      <c r="J935" s="6"/>
     </row>
     <row r="936" spans="1:10">
       <c r="A936" s="3"/>
@@ -81725,7 +81932,7 @@
       <c r="H946" s="3"/>
     </row>
     <row r="947" spans="1:9">
-      <c r="A947" s="7"/>
+      <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
@@ -81733,10 +81940,9 @@
       <c r="F947" s="3"/>
       <c r="G947" s="3"/>
       <c r="H947" s="3"/>
-      <c r="I947" s="7"/>
     </row>
     <row r="948" spans="1:9">
-      <c r="A948" s="7"/>
+      <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
@@ -81744,7 +81950,6 @@
       <c r="F948" s="3"/>
       <c r="G948" s="3"/>
       <c r="H948" s="3"/>
-      <c r="I948" s="7"/>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" s="7"/>
@@ -81791,7 +81996,7 @@
       <c r="I952" s="7"/>
     </row>
     <row r="953" spans="1:9">
-      <c r="A953" s="3"/>
+      <c r="A953" s="7"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
@@ -81802,7 +82007,7 @@
       <c r="I953" s="7"/>
     </row>
     <row r="954" spans="1:9">
-      <c r="A954" s="3"/>
+      <c r="A954" s="7"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
@@ -81821,6 +82026,7 @@
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
       <c r="H955" s="3"/>
+      <c r="I955" s="7"/>
     </row>
     <row r="956" spans="1:9">
       <c r="A956" s="3"/>
@@ -81873,6 +82079,7 @@
       <c r="F960" s="3"/>
       <c r="G960" s="3"/>
       <c r="H960" s="3"/>
+      <c r="I960" s="7"/>
     </row>
     <row r="961" spans="1:9">
       <c r="A961" s="3"/>
@@ -81913,7 +82120,6 @@
       <c r="F964" s="3"/>
       <c r="G964" s="3"/>
       <c r="H964" s="3"/>
-      <c r="I964" s="7"/>
     </row>
     <row r="965" spans="1:9">
       <c r="A965" s="3"/>
@@ -81924,7 +82130,6 @@
       <c r="F965" s="3"/>
       <c r="G965" s="3"/>
       <c r="H965" s="3"/>
-      <c r="I965" s="7"/>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" s="3"/>
@@ -81946,6 +82151,7 @@
       <c r="F967" s="3"/>
       <c r="G967" s="3"/>
       <c r="H967" s="3"/>
+      <c r="I967" s="7"/>
     </row>
     <row r="968" spans="1:9">
       <c r="A968" s="3"/>
@@ -81956,6 +82162,7 @@
       <c r="F968" s="3"/>
       <c r="G968" s="3"/>
       <c r="H968" s="3"/>
+      <c r="I968" s="7"/>
     </row>
     <row r="969" spans="1:9">
       <c r="A969" s="3"/>
@@ -81976,7 +82183,6 @@
       <c r="F970" s="3"/>
       <c r="G970" s="3"/>
       <c r="H970" s="3"/>
-      <c r="I970" s="7"/>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" s="3"/>
@@ -82008,7 +82214,6 @@
       <c r="F973" s="3"/>
       <c r="G973" s="3"/>
       <c r="H973" s="3"/>
-      <c r="I973" s="7"/>
     </row>
     <row r="974" spans="1:9">
       <c r="A974" s="3"/>
@@ -82074,6 +82279,7 @@
       <c r="F979" s="3"/>
       <c r="G979" s="3"/>
       <c r="H979" s="3"/>
+      <c r="I979" s="7"/>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" s="3"/>
@@ -82095,7 +82301,6 @@
       <c r="F981" s="3"/>
       <c r="G981" s="3"/>
       <c r="H981" s="3"/>
-      <c r="I981" s="7"/>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" s="3"/>
@@ -82106,6 +82311,7 @@
       <c r="F982" s="3"/>
       <c r="G982" s="3"/>
       <c r="H982" s="3"/>
+      <c r="I982" s="7"/>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" s="3"/>
@@ -82127,7 +82333,6 @@
       <c r="F984" s="3"/>
       <c r="G984" s="3"/>
       <c r="H984" s="3"/>
-      <c r="I984" s="7"/>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" s="3"/>
@@ -82149,6 +82354,7 @@
       <c r="F986" s="3"/>
       <c r="G986" s="3"/>
       <c r="H986" s="3"/>
+      <c r="I986" s="7"/>
     </row>
     <row r="987" spans="1:9">
       <c r="A987" s="3"/>
@@ -82159,6 +82365,7 @@
       <c r="F987" s="3"/>
       <c r="G987" s="3"/>
       <c r="H987" s="3"/>
+      <c r="I987" s="7"/>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" s="3"/>
@@ -82199,7 +82406,6 @@
       <c r="F991" s="3"/>
       <c r="G991" s="3"/>
       <c r="H991" s="3"/>
-      <c r="I991" s="7"/>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" s="3"/>
@@ -82210,7 +82416,6 @@
       <c r="F992" s="3"/>
       <c r="G992" s="3"/>
       <c r="H992" s="3"/>
-      <c r="I992" s="7"/>
     </row>
     <row r="993" spans="1:9">
       <c r="A993" s="3"/>
@@ -82232,6 +82437,7 @@
       <c r="F994" s="3"/>
       <c r="G994" s="3"/>
       <c r="H994" s="3"/>
+      <c r="I994" s="7"/>
     </row>
     <row r="995" spans="1:9">
       <c r="A995" s="3"/>
@@ -82242,6 +82448,7 @@
       <c r="F995" s="3"/>
       <c r="G995" s="3"/>
       <c r="H995" s="3"/>
+      <c r="I995" s="7"/>
     </row>
     <row r="996" spans="1:9">
       <c r="A996" s="3"/>
@@ -82272,7 +82479,6 @@
       <c r="F998" s="3"/>
       <c r="G998" s="3"/>
       <c r="H998" s="3"/>
-      <c r="I998" s="7"/>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" s="3"/>
@@ -82335,6 +82541,7 @@
       <c r="F1004" s="3"/>
       <c r="G1004" s="3"/>
       <c r="H1004" s="3"/>
+      <c r="I1004" s="7"/>
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" s="3"/>
@@ -82345,7 +82552,6 @@
       <c r="F1005" s="3"/>
       <c r="G1005" s="3"/>
       <c r="H1005" s="3"/>
-      <c r="I1005" s="7"/>
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" s="3"/>
@@ -82356,7 +82562,6 @@
       <c r="F1006" s="3"/>
       <c r="G1006" s="3"/>
       <c r="H1006" s="3"/>
-      <c r="I1006" s="7"/>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" s="3"/>
@@ -82389,6 +82594,7 @@
       <c r="F1009" s="3"/>
       <c r="G1009" s="3"/>
       <c r="H1009" s="3"/>
+      <c r="I1009" s="7"/>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" s="3"/>
@@ -82399,6 +82605,7 @@
       <c r="F1010" s="3"/>
       <c r="G1010" s="3"/>
       <c r="H1010" s="3"/>
+      <c r="I1010" s="7"/>
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" s="3"/>
@@ -82439,7 +82646,6 @@
       <c r="F1014" s="3"/>
       <c r="G1014" s="3"/>
       <c r="H1014" s="3"/>
-      <c r="I1014" s="7"/>
     </row>
     <row r="1015" spans="1:9">
       <c r="A1015" s="3"/>
@@ -82471,7 +82677,6 @@
       <c r="F1017" s="3"/>
       <c r="G1017" s="3"/>
       <c r="H1017" s="3"/>
-      <c r="I1017" s="7"/>
     </row>
     <row r="1018" spans="1:9">
       <c r="A1018" s="3"/>
@@ -82482,6 +82687,7 @@
       <c r="F1018" s="3"/>
       <c r="G1018" s="3"/>
       <c r="H1018" s="3"/>
+      <c r="I1018" s="7"/>
     </row>
     <row r="1019" spans="1:9">
       <c r="A1019" s="3"/>
@@ -82492,6 +82698,7 @@
       <c r="F1019" s="3"/>
       <c r="G1019" s="3"/>
       <c r="H1019" s="3"/>
+      <c r="I1019" s="7"/>
     </row>
     <row r="1020" spans="1:9">
       <c r="A1020" s="3"/>
@@ -82502,7 +82709,6 @@
       <c r="F1020" s="3"/>
       <c r="G1020" s="3"/>
       <c r="H1020" s="3"/>
-      <c r="I1020" s="7"/>
     </row>
     <row r="1021" spans="1:9">
       <c r="A1021" s="3"/>
@@ -82523,6 +82729,7 @@
       <c r="F1022" s="3"/>
       <c r="G1022" s="3"/>
       <c r="H1022" s="3"/>
+      <c r="I1022" s="7"/>
     </row>
     <row r="1023" spans="1:9">
       <c r="A1023" s="3"/>
@@ -82533,7 +82740,6 @@
       <c r="F1023" s="3"/>
       <c r="G1023" s="3"/>
       <c r="H1023" s="3"/>
-      <c r="I1023" s="7"/>
     </row>
     <row r="1024" spans="1:9">
       <c r="A1024" s="3"/>
@@ -82554,6 +82760,7 @@
       <c r="F1025" s="3"/>
       <c r="G1025" s="3"/>
       <c r="H1025" s="3"/>
+      <c r="I1025" s="7"/>
     </row>
     <row r="1026" spans="1:9">
       <c r="A1026" s="3"/>
@@ -82594,7 +82801,6 @@
       <c r="F1029" s="3"/>
       <c r="G1029" s="3"/>
       <c r="H1029" s="3"/>
-      <c r="I1029" s="7"/>
     </row>
     <row r="1030" spans="1:9">
       <c r="A1030" s="3"/>
@@ -82605,7 +82811,6 @@
       <c r="F1030" s="3"/>
       <c r="G1030" s="3"/>
       <c r="H1030" s="3"/>
-      <c r="I1030" s="7"/>
     </row>
     <row r="1031" spans="1:9">
       <c r="A1031" s="3"/>
@@ -82627,6 +82832,7 @@
       <c r="F1032" s="3"/>
       <c r="G1032" s="3"/>
       <c r="H1032" s="3"/>
+      <c r="I1032" s="7"/>
     </row>
     <row r="1033" spans="1:9">
       <c r="A1033" s="3"/>
@@ -82648,7 +82854,6 @@
       <c r="F1034" s="3"/>
       <c r="G1034" s="3"/>
       <c r="H1034" s="3"/>
-      <c r="I1034" s="7"/>
     </row>
     <row r="1035" spans="1:9">
       <c r="A1035" s="3"/>
@@ -82692,6 +82897,7 @@
       <c r="F1038" s="3"/>
       <c r="G1038" s="3"/>
       <c r="H1038" s="3"/>
+      <c r="I1038" s="7"/>
     </row>
     <row r="1039" spans="1:9">
       <c r="A1039" s="3"/>
@@ -82702,6 +82908,7 @@
       <c r="F1039" s="3"/>
       <c r="G1039" s="3"/>
       <c r="H1039" s="3"/>
+      <c r="I1039" s="7"/>
     </row>
     <row r="1040" spans="1:9">
       <c r="A1040" s="3"/>
@@ -82712,7 +82919,6 @@
       <c r="F1040" s="3"/>
       <c r="G1040" s="3"/>
       <c r="H1040" s="3"/>
-      <c r="I1040" s="7"/>
     </row>
     <row r="1041" spans="1:9">
       <c r="A1041" s="3"/>
@@ -82733,6 +82939,7 @@
       <c r="F1042" s="3"/>
       <c r="G1042" s="3"/>
       <c r="H1042" s="3"/>
+      <c r="I1042" s="7"/>
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" s="3"/>
@@ -82763,7 +82970,6 @@
       <c r="F1045" s="3"/>
       <c r="G1045" s="3"/>
       <c r="H1045" s="3"/>
-      <c r="I1045" s="7"/>
     </row>
     <row r="1046" spans="1:9">
       <c r="A1046" s="3"/>
@@ -82784,6 +82990,7 @@
       <c r="F1047" s="3"/>
       <c r="G1047" s="3"/>
       <c r="H1047" s="3"/>
+      <c r="I1047" s="7"/>
     </row>
     <row r="1048" spans="1:9">
       <c r="A1048" s="3"/>
@@ -82804,7 +83011,6 @@
       <c r="F1049" s="3"/>
       <c r="G1049" s="3"/>
       <c r="H1049" s="3"/>
-      <c r="I1049" s="7"/>
     </row>
     <row r="1050" spans="1:9">
       <c r="A1050" s="3"/>
@@ -82836,7 +83042,6 @@
       <c r="F1052" s="3"/>
       <c r="G1052" s="3"/>
       <c r="H1052" s="3"/>
-      <c r="I1052" s="7"/>
     </row>
     <row r="1053" spans="1:9">
       <c r="A1053" s="3"/>
@@ -82847,6 +83052,7 @@
       <c r="F1053" s="3"/>
       <c r="G1053" s="3"/>
       <c r="H1053" s="3"/>
+      <c r="I1053" s="7"/>
     </row>
     <row r="1054" spans="1:9">
       <c r="A1054" s="3"/>
@@ -82868,7 +83074,6 @@
       <c r="F1055" s="3"/>
       <c r="G1055" s="3"/>
       <c r="H1055" s="3"/>
-      <c r="I1055" s="7"/>
     </row>
     <row r="1056" spans="1:9">
       <c r="A1056" s="3"/>
@@ -82923,6 +83128,7 @@
       <c r="F1060" s="3"/>
       <c r="G1060" s="3"/>
       <c r="H1060" s="3"/>
+      <c r="I1060" s="7"/>
     </row>
     <row r="1061" spans="1:9">
       <c r="A1061" s="3"/>
@@ -82933,6 +83139,7 @@
       <c r="F1061" s="3"/>
       <c r="G1061" s="3"/>
       <c r="H1061" s="3"/>
+      <c r="I1061" s="7"/>
     </row>
     <row r="1062" spans="1:9">
       <c r="A1062" s="3"/>
@@ -82953,7 +83160,6 @@
       <c r="F1063" s="3"/>
       <c r="G1063" s="3"/>
       <c r="H1063" s="3"/>
-      <c r="I1063" s="7"/>
     </row>
     <row r="1064" spans="1:9">
       <c r="A1064" s="3"/>
@@ -82964,7 +83170,6 @@
       <c r="F1064" s="3"/>
       <c r="G1064" s="3"/>
       <c r="H1064" s="3"/>
-      <c r="I1064" s="7"/>
     </row>
     <row r="1065" spans="1:9">
       <c r="A1065" s="3"/>
@@ -82975,6 +83180,7 @@
       <c r="F1065" s="3"/>
       <c r="G1065" s="3"/>
       <c r="H1065" s="3"/>
+      <c r="I1065" s="7"/>
     </row>
     <row r="1066" spans="1:9">
       <c r="A1066" s="3"/>
@@ -82996,7 +83202,6 @@
       <c r="F1067" s="3"/>
       <c r="G1067" s="3"/>
       <c r="H1067" s="3"/>
-      <c r="I1067" s="7"/>
     </row>
     <row r="1068" spans="1:9">
       <c r="A1068" s="3"/>
@@ -83007,6 +83212,7 @@
       <c r="F1068" s="3"/>
       <c r="G1068" s="3"/>
       <c r="H1068" s="3"/>
+      <c r="I1068" s="7"/>
     </row>
     <row r="1069" spans="1:9">
       <c r="A1069" s="3"/>
@@ -83017,6 +83223,7 @@
       <c r="F1069" s="3"/>
       <c r="G1069" s="3"/>
       <c r="H1069" s="3"/>
+      <c r="I1069" s="7"/>
     </row>
     <row r="1070" spans="1:9">
       <c r="A1070" s="3"/>
@@ -83137,7 +83344,6 @@
       <c r="F1081" s="3"/>
       <c r="G1081" s="3"/>
       <c r="H1081" s="3"/>
-      <c r="I1081" s="7"/>
     </row>
     <row r="1082" spans="1:9">
       <c r="A1082" s="3"/>
@@ -83158,6 +83364,7 @@
       <c r="F1083" s="3"/>
       <c r="G1083" s="3"/>
       <c r="H1083" s="3"/>
+      <c r="I1083" s="7"/>
     </row>
     <row r="1084" spans="1:9">
       <c r="A1084" s="3"/>
@@ -83228,7 +83435,6 @@
       <c r="F1090" s="3"/>
       <c r="G1090" s="3"/>
       <c r="H1090" s="3"/>
-      <c r="I1090" s="7"/>
     </row>
     <row r="1091" spans="1:9">
       <c r="A1091" s="3"/>
@@ -83239,7 +83445,6 @@
       <c r="F1091" s="3"/>
       <c r="G1091" s="3"/>
       <c r="H1091" s="3"/>
-      <c r="I1091" s="7"/>
     </row>
     <row r="1092" spans="1:9">
       <c r="A1092" s="3"/>
@@ -83250,6 +83455,7 @@
       <c r="F1092" s="3"/>
       <c r="G1092" s="3"/>
       <c r="H1092" s="3"/>
+      <c r="I1092" s="7"/>
     </row>
     <row r="1093" spans="1:9">
       <c r="A1093" s="3"/>
@@ -83260,6 +83466,27 @@
       <c r="F1093" s="3"/>
       <c r="G1093" s="3"/>
       <c r="H1093" s="3"/>
+      <c r="I1093" s="7"/>
+    </row>
+    <row r="1094" spans="1:9">
+      <c r="A1094" s="3"/>
+      <c r="B1094" s="3"/>
+      <c r="C1094" s="3"/>
+      <c r="D1094" s="3"/>
+      <c r="E1094" s="3"/>
+      <c r="F1094" s="3"/>
+      <c r="G1094" s="3"/>
+      <c r="H1094" s="3"/>
+    </row>
+    <row r="1095" spans="1:9">
+      <c r="A1095" s="3"/>
+      <c r="B1095" s="3"/>
+      <c r="C1095" s="3"/>
+      <c r="D1095" s="3"/>
+      <c r="E1095" s="3"/>
+      <c r="F1095" s="3"/>
+      <c r="G1095" s="3"/>
+      <c r="H1095" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
@@ -83270,13 +83497,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -83783,33 +84010,30 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A54" s="2" t="str">
+      <c r="A54" t="str">
+        <v>背部バインダー特殊緩衝材Lv2</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" customHeight="1">
+      <c r="A55" s="2" t="str">
         <v>背部特殊緩衝材Lv1</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B55" s="4" t="str">
         <v>背部へ攻撃を受けた際、機体ＨＰへのダメージと
 背部ＨＰへの負荷を１０％軽減する。</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" customHeight="1">
-      <c r="A55" s="3" t="str">
+    <row r="56" spans="1:2" ht="27" customHeight="1">
+      <c r="A56" s="3" t="str">
         <v>背部特殊緩衝材Lv2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="27" customHeight="1">
-      <c r="A56" s="2" t="str">
-        <v>能力UP「EXAM」Lv1</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <v>タッチパッドを押すことで任意発動し、
-攻撃力、防御力、機動力が一定時間上昇。
-制限時間を過ぎると機体各部が強制破損、
-リペアによる再発動は行えない。</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" customHeight="1">
       <c r="A57" s="2" t="str">
-        <v>能力UP「EXAM」Lv2</v>
+        <v>能力UP「EXAM」Lv1</v>
       </c>
       <c r="B57" s="4" t="str">
         <v>タッチパッドを押すことで任意発動し、
@@ -83820,9 +84044,20 @@
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1">
       <c r="A58" s="2" t="str">
+        <v>能力UP「EXAM」Lv2</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>タッチパッドを押すことで任意発動し、
+攻撃力、防御力、機動力が一定時間上昇。
+制限時間を過ぎると機体各部が強制破損、
+リペアによる再発動は行えない。</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A59" s="2" t="str">
         <v>能力UP「HADES-E」Lv1</v>
       </c>
-      <c r="B58" s="4" t="str">
+      <c r="B59" s="4" t="str">
         <v>タッチパッドを押すことで任意発動。
 能力値の上昇値、下降値が抑えられた
 「HADES」の簡易版。
@@ -83830,11 +84065,11 @@
 リペアによる再発動は行えない。</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A59" s="2" t="str">
+    <row r="60" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A60" s="2" t="str">
         <v>能力UP「HADES」Lv1</v>
       </c>
-      <c r="B59" s="4" t="str">
+      <c r="B60" s="4" t="str">
         <v>タッチパッドを押すことで任意発動し、
 攻撃力、機動力が一定時間上昇。
 「ＥＸＡＭ」とは異なり継続時間が長いが、
@@ -83843,182 +84078,182 @@
 リペアによる再発動は行えない。</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A60" s="2" t="str">
+    <row r="61" spans="1:2" ht="27" customHeight="1">
+      <c r="A61" s="2" t="str">
         <v>脚部ショックアブソーバーLv1</v>
       </c>
-      <c r="B60" s="4" t="str">
+      <c r="B61" s="4" t="str">
         <v>着地時の脚部負荷を軽減。
 ジャンプ後１５％
 回避行動後１０％</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27" customHeight="1">
-      <c r="A61" s="2" t="str">
+    <row r="62" spans="1:2" ht="27" customHeight="1">
+      <c r="A62" s="2" t="str">
         <v>脚部ショックアブソーバーLv2</v>
       </c>
-      <c r="B61" s="4" t="str">
+      <c r="B62" s="4" t="str">
         <v>着地時の脚部負荷を軽減。
 ジャンプ後２０％
 回避行動後１０％
 脚部負荷発生後の回復速度を１％上昇。</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="27" customHeight="1">
-      <c r="A62" s="2" t="str">
+    <row r="63" spans="1:2" ht="27" customHeight="1">
+      <c r="A63" s="2" t="str">
         <v>脚部ショックアブソーバーLv3</v>
       </c>
-      <c r="B62" s="4" t="str">
+      <c r="B63" s="4" t="str">
         <v>着地時の脚部負荷を軽減。
 ジャンプ後３０％
 回避行動後１５％
 脚部負荷発生後の回復速度を１％上昇。</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27" customHeight="1">
-      <c r="A63" s="2" t="str">
+    <row r="64" spans="1:2" ht="27" customHeight="1">
+      <c r="A64" s="2" t="str">
         <v>脚部特殊緩衝材Lv1</v>
       </c>
-      <c r="B63" s="4" t="str">
+      <c r="B64" s="4" t="str">
         <v>脚部へ攻撃を受けた際、機体ＨＰへのダメージと
 脚部ＨＰへの負荷を１０％軽減する。</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27" customHeight="1">
-      <c r="A64" s="3" t="str">
+    <row r="65" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A65" s="3" t="str">
         <v>脚部特殊緩衝材Lv2</v>
       </c>
-      <c r="B64" s="4" t="str">
+      <c r="B65" s="4" t="str">
         <v>脚部へ攻撃を受けた際、機体ＨＰへのダメージと
 脚部ＨＰへの負荷を１５％軽減する。</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A65" s="2" t="str">
+    <row r="66" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A66" s="2" t="str">
         <v>衝撃吸収機構Lv1</v>
       </c>
-      <c r="B65" s="4" t="str">
+      <c r="B66" s="4" t="str">
         <v>転倒効果を持つ格闘攻撃とタックルを除き、
 攻撃を受けた際のリアクションを緩和、
 または無効化。</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A66" s="2" t="str">
+    <row r="67" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A67" s="2" t="str">
         <v>観測情報連結Lv1</v>
       </c>
-      <c r="B66" s="4" t="str">
+      <c r="B67" s="4" t="str">
         <v>レーダーで捕捉した敵ＭＳの
 ＨＰ情報が自軍メンバーに共有される。</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A67" s="2" t="str">
+    <row r="68" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A68" s="2" t="str">
         <v>頭部特殊緩衝材Lv1</v>
       </c>
-      <c r="B67" s="4" t="str">
+      <c r="B68" s="4" t="str">
         <v>頭部へ攻撃を受けた際、機体ＨＰへのダメージと
 頭部ＨＰへの負荷を１０％軽減する。</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A68" s="2" t="str">
+    <row r="69" spans="1:2" ht="27" customHeight="1">
+      <c r="A69" s="2" t="str">
         <v>頭部特殊緩衝材Lv2</v>
       </c>
-      <c r="B68" s="4" t="str">
+      <c r="B69" s="4" t="str">
         <v>頭部へ攻撃を受けた際、機体ＨＰへのダメージと
 頭部ＨＰへの負荷を１５％軽減する。</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27" customHeight="1">
-      <c r="A69" s="2" t="str">
+    <row r="70" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A70" s="2" t="str">
         <v>高性能AMBACLv1</v>
       </c>
-      <c r="B69" s="4" t="str">
+      <c r="B70" s="4" t="str">
         <v>宇宙において、ブースト終了時の動作を
 キャンセルし、巡航移動に変遷する。</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A70" s="2" t="str">
+    <row r="71" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A71" s="2" t="str">
         <v>高性能スコープLv1</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B71" s="4" t="str">
         <v>高性能のスコープが使用可能。
 スナイプモード時に左スティックで
 倍率４倍までの調整が可能。</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A71" s="2" t="str">
+    <row r="72" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A72" s="2" t="str">
         <v>高性能スコープLv2</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B72" s="4" t="str">
         <v>高性能のスコープが使用可能。
 スナイプモード時に左スティックで
 倍率５倍までの調整が可能。</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A72" s="2" t="str">
+    <row r="73" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A73" s="2" t="str">
         <v>高性能スコープLv3</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B73" s="4" t="str">
         <v>高性能のスコープが使用可能。
 スナイプモード時に左スティックで
 倍率６倍までの調整が可能。</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A73" s="2" t="str">
+    <row r="74" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A74" s="2" t="str">
         <v>高性能バランサーLv1</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B74" s="4" t="str">
         <v>ジャンプ＆回避行動の着地後の硬直を
 格闘攻撃かタックルでキャンセル可能。</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A74" s="2" t="str">
+    <row r="75" spans="1:2" ht="27" customHeight="1">
+      <c r="A75" s="2" t="str">
         <v>高性能レーダーLv1</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B75" s="4" t="str">
         <v>強化されたレーダー性能。
 有効範囲が３００ｍから３５０ｍへ拡張する。</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="27" customHeight="1">
-      <c r="A75" s="2" t="str">
+    <row r="76" spans="1:2" ht="27" customHeight="1">
+      <c r="A76" s="2" t="str">
         <v>高性能レーダーLv2</v>
       </c>
-      <c r="B75" s="4" t="str">
+      <c r="B76" s="4" t="str">
         <v>強化されたレーダー性能。
 有効範囲が３００ｍから４００ｍへ拡張する。</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="27" customHeight="1">
-      <c r="A76" s="2" t="str">
+    <row r="77" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A77" s="2" t="str">
         <v>高性能レーダーLv3</v>
       </c>
-      <c r="B76" s="4" t="str">
+      <c r="B77" s="4" t="str">
         <v>強化されたレーダー性能。
 有効範囲が３００ｍから４５０ｍへ拡張する。</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A77" s="2" t="str">
+    <row r="78" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A78" s="2" t="str">
         <v>高性能航宙ジンバルLv1</v>
       </c>
-      <c r="B77" s="4" t="str">
+      <c r="B78" s="4" t="str">
         <v>宇宙空間での姿勢制御計測を安定化させ、
 より広域の仰俯角に機体を傾けることができる。</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="40.5" customHeight="1">
-      <c r="A78" s="2" t="str">
+    <row r="79" spans="1:2" ht="40.5">
+      <c r="A79" s="2" t="str">
         <v>高精度砲撃Lv1</v>
       </c>
-      <c r="B78" s="4" t="str">
+      <c r="B79" s="4" t="str">
         <v>地上における、しゃがみ状態や
 宇宙における制止時には射撃補正時に
 ＋５％の補正が追加される。</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>anti_ammo+20</t>
+  </si>
+  <si>
+    <t>耐格闘補正が２０増加。</t>
+  </si>
+  <si>
+    <t>背部特殊緩衝材Lv2</t>
+  </si>
+  <si>
+    <t>耐ビーム補正が２０増加。</t>
+  </si>
   <si>
     <t>背部バインダーへ攻撃を受けた際、
 機体HPへのダメージを１５％軽減する。</t>
@@ -43,6 +55,53 @@
       <t>けいげん</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>耐実弾補正が２０増加。</t>
+  </si>
+  <si>
+    <t>anti_melee+20</t>
+  </si>
+  <si>
+    <t>複合拡張パーツスロットLv1
+AD-FCSLv1
+耐実弾装甲補強Lv1
+耐ビーム装甲補強Lv1</t>
+    <rPh sb="0" eb="2">
+      <t>ふくごう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>かくちょう</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>じつだん</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>そうこう</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ほきょう</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>そうこう</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ほきょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>背部へ攻撃を受けた際、機体ＨＰへのダメージと
+背部ＨＰへの負荷を１５％軽減する。</t>
+  </si>
+  <si>
+    <t>anti_beam+20</t>
   </si>
 </sst>
 </file>
@@ -437,10 +496,10 @@
   <dimension ref="A1:AA419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W416" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C411" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y417" sqref="Y417"/>
+      <selection pane="bottomRight" activeCell="A411" sqref="A411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38560,7 +38619,9 @@
 脚部特殊緩衝材Lv1
 高性能AMBACLv1</v>
       </c>
-      <c r="AA411" s="2"/>
+      <c r="AA411" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="412" spans="1:27" ht="108" customHeight="1">
       <c r="A412" s="2">
@@ -38648,7 +38709,9 @@
 脚部特殊緩衝材Lv1
 高性能AMBACLv1</v>
       </c>
-      <c r="AA412" s="2"/>
+      <c r="AA412" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="413" spans="1:27" ht="121.5" customHeight="1">
       <c r="A413" s="2">
@@ -39238,10 +39301,10 @@
   <dimension ref="A1:K342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J209" sqref="J209"/>
+      <selection pane="bottomRight" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45900,7 +45963,9 @@
       <c r="A202" s="2" t="str">
         <v>狙撃用ビーム・ランチャー</v>
       </c>
-      <c r="B202" s="2"/>
+      <c r="B202" s="2">
+        <v>2</v>
+      </c>
       <c r="C202" s="2">
         <v>2</v>
       </c>
@@ -45931,7 +45996,9 @@
       <c r="A203" s="2" t="str">
         <v>狙撃用ビーム・ランチャー</v>
       </c>
-      <c r="B203" s="2"/>
+      <c r="B203" s="2">
+        <v>2</v>
+      </c>
       <c r="C203" s="2">
         <v>1</v>
       </c>
@@ -50593,10 +50660,10 @@
   <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D200" sqref="A200:D200"/>
+      <selection pane="bottomRight" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51700,7 +51767,9 @@
       <c r="A79" s="2" t="str">
         <v>ハイザック用ヒート・ホーク</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
       <c r="C79" s="2">
         <v>2</v>
       </c>
@@ -51712,7 +51781,9 @@
       <c r="A80" s="2" t="str">
         <v>ハイザック用ヒート・ホーク</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
       <c r="C80" s="2">
         <v>1</v>
       </c>
@@ -83499,11 +83570,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -84014,7 +84085,7 @@
         <v>背部バインダー特殊緩衝材Lv2</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" customHeight="1">
@@ -84027,8 +84098,11 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" customHeight="1">
-      <c r="A56" s="3" t="str">
-        <v>背部特殊緩衝材Lv2</v>
+      <c r="A56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" customHeight="1">
@@ -84268,13 +84342,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD50"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -85213,22 +85287,22 @@
         <v>2</v>
       </c>
       <c r="C36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2">
         <v>12</v>
       </c>
       <c r="E36" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="G36" s="2" t="str">
-        <v>anti_melee+15</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <v>耐格闘補正が１５増加。</v>
+      <c r="G36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -85236,25 +85310,25 @@
         <v>耐格闘装甲</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
         <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>8</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="str">
-        <v>anti_melee+10</v>
+        <v>anti_melee+15</v>
       </c>
       <c r="H37" s="2" t="str">
-        <v>耐格闘補正が１０増加。</v>
+        <v>耐格闘補正が１５増加。</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -85265,22 +85339,22 @@
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="str">
-        <v>anti_melee+6</v>
+        <v>anti_melee+10</v>
       </c>
       <c r="H38" s="2" t="str">
-        <v>耐格闘補正が６増加。</v>
+        <v>耐格闘補正が１０増加。</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -85291,48 +85365,48 @@
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="str">
-        <v>anti_melee+3</v>
+        <v>anti_melee+6</v>
       </c>
       <c r="H39" s="2" t="str">
-        <v>耐格闘補正が３増加。</v>
+        <v>耐格闘補正が６増加。</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="str">
-        <v>耐実弾装甲</v>
+        <v>耐格闘装甲</v>
       </c>
       <c r="B40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
       </c>
       <c r="G40" s="2" t="str">
-        <v>anti_ammo+15</v>
+        <v>anti_melee+3</v>
       </c>
       <c r="H40" s="2" t="str">
-        <v>耐実弾補正が１５増加。</v>
+        <v>耐格闘補正が３増加。</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -85340,25 +85414,25 @@
         <v>耐実弾装甲</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="2">
-        <v>8</v>
-      </c>
-      <c r="G41" s="2" t="str">
-        <v>anti_ammo+10</v>
-      </c>
-      <c r="H41" s="2" t="str">
-        <v>耐実弾補正が１０増加。</v>
+      <c r="H41" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -85366,25 +85440,25 @@
         <v>耐実弾装甲</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2" t="str">
-        <v>anti_ammo+6</v>
+        <v>anti_ammo+15</v>
       </c>
       <c r="H42" s="2" t="str">
-        <v>耐実弾補正が６増加。</v>
+        <v>耐実弾補正が１５増加。</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -85395,74 +85469,74 @@
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43" s="2" t="str">
-        <v>anti_ammo+3</v>
+        <v>anti_ammo+10</v>
       </c>
       <c r="H43" s="2" t="str">
-        <v>耐実弾補正が３増加。</v>
+        <v>耐実弾補正が１０増加。</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="str">
-        <v>耐ビーム装甲</v>
+        <v>耐実弾装甲</v>
       </c>
       <c r="B44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="str">
-        <v>anti_beam+15</v>
+        <v>anti_ammo+6</v>
       </c>
       <c r="H44" s="2" t="str">
-        <v>耐ビーム補正が１５増加。</v>
+        <v>耐実弾補正が６増加。</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="str">
-        <v>耐ビーム装甲</v>
+        <v>耐実弾装甲</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G45" s="2" t="str">
-        <v>anti_beam+10</v>
+        <v>anti_ammo+3</v>
       </c>
       <c r="H45" s="2" t="str">
-        <v>耐ビーム補正が１０増加。</v>
+        <v>耐実弾補正が３増加。</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -85470,25 +85544,25 @@
         <v>耐ビーム装甲</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G46" s="2" t="str">
-        <v>anti_beam+6</v>
-      </c>
-      <c r="H46" s="2" t="str">
-        <v>耐ビーム補正が６増加。</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -85496,405 +85570,405 @@
         <v>耐ビーム装甲</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2" t="str">
-        <v>anti_beam+3</v>
+        <v>anti_beam+15</v>
       </c>
       <c r="H47" s="2" t="str">
-        <v>耐ビーム補正が３増加。</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="27" customHeight="1">
+        <v>耐ビーム補正が１５増加。</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="str">
-        <v>データベースリンク</v>
+        <v>耐ビーム装甲</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <v>anti_beam+10</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <v>耐ビーム補正が１０増加。</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="str">
+        <v>耐ビーム装甲</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <v>anti_beam+6</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <v>耐ビーム補正が６増加。</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="str">
+        <v>耐ビーム装甲</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <v>anti_beam+3</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <v>耐ビーム補正が３増加。</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="27" customHeight="1">
+      <c r="A51" s="2" t="str">
+        <v>データベースリンク</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
         <v>4</v>
       </c>
-      <c r="G48" s="2" t="str">
+      <c r="G51" s="2" t="str">
         <v>pdamage+6%</v>
       </c>
-      <c r="H48" s="4" t="str">
+      <c r="H51" s="4" t="str">
         <v>脚部、頭部、背部への部位ダメージ量が
 ６％増加。</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="27" customHeight="1">
-      <c r="A49" s="2" t="str">
+    <row r="52" spans="1:8" ht="27" customHeight="1">
+      <c r="A52" s="2" t="str">
         <v>データベースリンク</v>
       </c>
-      <c r="B49" s="2">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>2</v>
-      </c>
-      <c r="G49" s="2" t="str">
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="str">
         <v>pdamage+3%</v>
       </c>
-      <c r="H49" s="4" t="str">
+      <c r="H52" s="4" t="str">
         <v>脚部、頭部、背部への部位ダメージ量が
 ３％増加。</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="27" customHeight="1">
-      <c r="A50" s="2" t="str">
+    <row r="53" spans="1:8" ht="27" customHeight="1">
+      <c r="A53" s="2" t="str">
         <v>頭部特殊装甲</v>
       </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E53" s="2">
         <v>0</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F53" s="2">
         <v>5</v>
       </c>
-      <c r="G50" s="2" t="str">
+      <c r="G53" s="2" t="str">
         <v>head=75%</v>
       </c>
-      <c r="H50" s="4" t="str">
+      <c r="H53" s="4" t="str">
         <v>「頭部ＨＰ」に充てられるＨＰを
 ４５％から７５％に増加。</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27" customHeight="1">
-      <c r="A51" s="2" t="str">
+    <row r="54" spans="1:8" ht="27" customHeight="1">
+      <c r="A54" s="2" t="str">
         <v>頭部特殊装甲</v>
       </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E54" s="2">
         <v>0</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F54" s="2">
         <v>3</v>
       </c>
-      <c r="G51" s="2" t="str">
+      <c r="G54" s="2" t="str">
         <v>head=65%</v>
       </c>
-      <c r="H51" s="4" t="str">
+      <c r="H54" s="4" t="str">
         <v>「頭部ＨＰ」に充てられるＨＰを
 ４５％から６５％に増加。</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="27" customHeight="1">
-      <c r="A52" s="2" t="str">
+    <row r="55" spans="1:8" ht="27" customHeight="1">
+      <c r="A55" s="2" t="str">
         <v>頭部特殊装甲</v>
       </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E55" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2" t="str">
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="str">
         <v>head=55%</v>
       </c>
-      <c r="H52" s="4" t="str">
+      <c r="H55" s="4" t="str">
         <v>「頭部ＨＰ」に充てられるＨＰを
 ４５％から５５％に増加。</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="27" customHeight="1">
-      <c r="A53" s="2" t="str">
+    <row r="56" spans="1:8" ht="27" customHeight="1">
+      <c r="A56" s="2" t="str">
         <v>背部特殊装甲</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
         <v>3</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D56" s="2">
         <v>5</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E56" s="2">
         <v>0</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
-      <c r="G53" s="2" t="str">
+      <c r="G56" s="2" t="str">
         <v>back=70%</v>
       </c>
-      <c r="H53" s="4" t="str">
+      <c r="H56" s="4" t="str">
         <v>「背部ＨＰ」に充てられるＨＰを
 ３０％から７０％に増加。</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="27" customHeight="1">
-      <c r="A54" s="2" t="str">
+    <row r="57" spans="1:8" ht="27" customHeight="1">
+      <c r="A57" s="2" t="str">
         <v>背部特殊装甲</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
         <v>3</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E57" s="2">
         <v>0</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F57" s="2">
         <v>0</v>
       </c>
-      <c r="G54" s="2" t="str">
+      <c r="G57" s="2" t="str">
         <v>back=55%</v>
       </c>
-      <c r="H54" s="4" t="str">
+      <c r="H57" s="4" t="str">
         <v>「背部ＨＰ」に充てられるＨＰを
 ３０％から５５％に増加。</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="27" customHeight="1">
-      <c r="A55" s="2" t="str">
+    <row r="58" spans="1:8" ht="27" customHeight="1">
+      <c r="A58" s="2" t="str">
         <v>背部特殊装甲</v>
       </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
         <v>0</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
-      <c r="G55" s="2" t="str">
+      <c r="G58" s="2" t="str">
         <v>back=40%</v>
       </c>
-      <c r="H55" s="4" t="str">
+      <c r="H58" s="4" t="str">
         <v>「背部ＨＰ」に充てられるＨＰを
 ３０％から４０％に増加。</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1">
-      <c r="A56" s="2" t="str">
+    <row r="59" spans="1:8" ht="27" customHeight="1">
+      <c r="A59" s="2" t="str">
         <v>フィールドモーター</v>
       </c>
-      <c r="B56" s="2">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
         <v>3</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D59" s="2">
         <v>8</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E59" s="2">
         <v>6</v>
       </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2" t="str">
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="str">
         <v>turn+15</v>
       </c>
-      <c r="H56" s="4" t="str">
+      <c r="H59" s="4" t="str">
         <v>ＭＳの旋回性能（レティクルのレスポンス）が
 １５増加。</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="27" customHeight="1">
-      <c r="A57" s="2" t="str">
+    <row r="60" spans="1:8" ht="27" customHeight="1">
+      <c r="A60" s="2" t="str">
         <v>フィールドモーター</v>
       </c>
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E60" s="2">
         <v>3</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F60" s="2">
         <v>7</v>
       </c>
-      <c r="G57" s="2" t="str">
+      <c r="G60" s="2" t="str">
         <v>turn+10</v>
       </c>
-      <c r="H57" s="4" t="str">
+      <c r="H60" s="4" t="str">
         <v>ＭＳの旋回性能（レティクルのレスポンス）が
 １０増加。</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="27" customHeight="1">
-      <c r="A58" s="2" t="str">
+    <row r="61" spans="1:8" ht="27" customHeight="1">
+      <c r="A61" s="2" t="str">
         <v>フィールドモーター</v>
       </c>
-      <c r="B58" s="2">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
         <v>4</v>
       </c>
-      <c r="G58" s="2" t="str">
+      <c r="G61" s="2" t="str">
         <v>turn+5</v>
       </c>
-      <c r="H58" s="4" t="str">
+      <c r="H61" s="4" t="str">
         <v>ＭＳの旋回性能（レティクルのレスポンス）が
 ５増加。</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2" t="str">
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="str">
         <v>噴射制御装置</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="str">
-        <v>thruster+10</v>
-      </c>
-      <c r="H59" s="2" t="str">
-        <v>スラスターが１０増加。</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2" t="str">
-        <v>噴射制御装置</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="str">
-        <v>thruster+7</v>
-      </c>
-      <c r="H60" s="2" t="str">
-        <v>スラスターが７増加。</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="2" t="str">
-        <v>噴射制御装置</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="str">
-        <v>thruster+5</v>
-      </c>
-      <c r="H61" s="2" t="str">
-        <v>スラスターが５増加。</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="27" customHeight="1">
-      <c r="A62" s="2" t="str">
-        <v>補助ジェネレーター</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
@@ -85903,152 +85977,152 @@
         <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="str">
+        <v>thruster+10</v>
+      </c>
+      <c r="H62" s="2" t="str">
+        <v>スラスターが１０増加。</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="str">
+        <v>噴射制御装置</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <v>thruster+7</v>
+      </c>
+      <c r="H63" s="2" t="str">
+        <v>スラスターが７増加。</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="str">
+        <v>噴射制御装置</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="str">
+        <v>thruster+5</v>
+      </c>
+      <c r="H64" s="2" t="str">
+        <v>スラスターが５増加。</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="27" customHeight="1">
+      <c r="A65" s="2" t="str">
+        <v>補助ジェネレーター</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="str">
         <v>beam_overheat-10%</v>
       </c>
-      <c r="H62" s="4" t="str">
+      <c r="H65" s="4" t="str">
         <v>ビーム射撃兵装のオーバーヒートからの
 復帰時間を１０％短縮。</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="27" customHeight="1">
-      <c r="A63" s="2" t="str">
+    <row r="66" spans="1:8" ht="27" customHeight="1">
+      <c r="A66" s="2" t="str">
         <v>補助ジェネレーター</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
         <v>4</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F66" s="2">
         <v>0</v>
       </c>
-      <c r="G63" s="2" t="str">
+      <c r="G66" s="2" t="str">
         <v>beam_overheat-6%</v>
       </c>
-      <c r="H63" s="4" t="str">
+      <c r="H66" s="4" t="str">
         <v>ビーム射撃兵装のオーバーヒートからの
 復帰時間を６％短縮。</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="27" customHeight="1">
-      <c r="A64" s="2" t="str">
+    <row r="67" spans="1:8" ht="27" customHeight="1">
+      <c r="A67" s="2" t="str">
         <v>補助ジェネレーター</v>
       </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E67" s="2">
         <v>0</v>
       </c>
-      <c r="F64" s="2">
-        <v>2</v>
-      </c>
-      <c r="G64" s="2" t="str">
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="str">
         <v>beam_overheat-3%</v>
       </c>
-      <c r="H64" s="4" t="str">
+      <c r="H67" s="4" t="str">
         <v>ビーム射撃兵装のオーバーヒートからの
 復帰時間を３％短縮。</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="2" t="str">
-        <v>冷却システム</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>4</v>
-      </c>
-      <c r="D65" s="2">
-        <v>11</v>
-      </c>
-      <c r="E65" s="2">
-        <v>7</v>
-      </c>
-      <c r="F65" s="2">
-        <v>2</v>
-      </c>
-      <c r="G65" s="2" t="str">
-        <v>thruster_recovery+20%</v>
-      </c>
-      <c r="H65" s="2" t="str">
-        <v>スラスターの回復速度が２０％上昇。</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="2" t="str">
-        <v>冷却システム</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2">
-        <v>6</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0</v>
-      </c>
-      <c r="G66" s="2" t="str">
-        <v>thruster_recovery+15%</v>
-      </c>
-      <c r="H66" s="2" t="str">
-        <v>スラスターの回復速度が１５％上昇。</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2" t="str">
-        <v>冷却システム</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2" t="str">
-        <v>thruster_recovery+10%</v>
-      </c>
-      <c r="H67" s="2" t="str">
-        <v>スラスターの回復速度が１０％上昇。</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -86059,73 +86133,151 @@
         <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E68" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="2" t="str">
-        <v>thruster_recovery+5%</v>
+        <v>thruster_recovery+20%</v>
       </c>
       <c r="H68" s="2" t="str">
-        <v>スラスターの回復速度が５％上昇。</v>
+        <v>スラスターの回復速度が２０％上昇。</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="str">
-        <v>AD-ASL</v>
+        <v>冷却システム</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
       <c r="C69" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="2">
-        <v>5</v>
-      </c>
-      <c r="F69" s="2">
-        <v>7</v>
-      </c>
       <c r="G69" s="2" t="str">
-        <v>asl+10</v>
+        <v>thruster_recovery+15%</v>
       </c>
       <c r="H69" s="2" t="str">
-        <v>ＡＳＬ（自動照準補正）領域を１０拡張。</v>
+        <v>スラスターの回復速度が１５％上昇。</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="str">
+        <v>冷却システム</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <v>thruster_recovery+10%</v>
+      </c>
+      <c r="H70" s="2" t="str">
+        <v>スラスターの回復速度が１０％上昇。</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="str">
+        <v>冷却システム</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <v>thruster_recovery+5%</v>
+      </c>
+      <c r="H71" s="2" t="str">
+        <v>スラスターの回復速度が５％上昇。</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="str">
         <v>AD-ASL</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="E72" s="2">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2">
+        <v>7</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <v>asl+10</v>
+      </c>
+      <c r="H72" s="2" t="str">
+        <v>ＡＳＬ（自動照準補正）領域を１０拡張。</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="str">
+        <v>AD-ASL</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
         <v>4</v>
       </c>
-      <c r="G70" s="2" t="str">
+      <c r="G73" s="2" t="str">
         <v>asl+5</v>
       </c>
-      <c r="H70" s="2" t="str">
+      <c r="H73" s="2" t="str">
         <v>ＡＳＬ（自動照準補正）領域を５拡張。</v>
       </c>
     </row>
@@ -86140,11 +86292,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -433,10 +433,10 @@
   <dimension ref="A1:AA438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N434" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V437" sqref="V437"/>
+      <selection pane="bottomRight" activeCell="N232" sqref="N232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21959,7 +21959,7 @@
         <v>135</v>
       </c>
       <c r="N232" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O232" s="2">
         <v>16</v>
@@ -22052,7 +22052,7 @@
         <v>135</v>
       </c>
       <c r="N233" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O233" s="2">
         <v>14</v>
@@ -22145,7 +22145,7 @@
         <v>135</v>
       </c>
       <c r="N234" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O234" s="2">
         <v>12</v>

--- a/data/btlop2.xlsx
+++ b/data/btlop2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="6855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MS" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,17 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA474"/>
+  <dimension ref="A1:AA476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C171" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R472" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="W475" sqref="W475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44463,9 +44474,191 @@
 耐格闘装甲補強Lv1</v>
       </c>
     </row>
-    <row r="474" spans="1:27">
-      <c r="A474" s="3">
-        <v>470</v>
+    <row r="474" spans="1:27" ht="81" customHeight="1">
+      <c r="A474" s="2">
+        <v>473</v>
+      </c>
+      <c r="B474" s="2" t="str">
+        <v>陸戦用ジム</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1</v>
+      </c>
+      <c r="D474" s="2">
+        <v>2</v>
+      </c>
+      <c r="E474" s="2">
+        <v>300</v>
+      </c>
+      <c r="F474" s="2" t="str">
+        <v>raid</v>
+      </c>
+      <c r="G474" s="2">
+        <v>12500</v>
+      </c>
+      <c r="H474" s="2">
+        <v>11</v>
+      </c>
+      <c r="I474" s="2">
+        <v>11</v>
+      </c>
+      <c r="J474" s="2">
+        <v>13</v>
+      </c>
+      <c r="K474" s="2">
+        <v>18</v>
+      </c>
+      <c r="L474" s="2">
+        <v>12</v>
+      </c>
+      <c r="M474" s="2">
+        <v>110</v>
+      </c>
+      <c r="N474" s="2"/>
+      <c r="O474" s="2">
+        <v>55</v>
+      </c>
+      <c r="P474" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q474" s="2">
+        <v>6</v>
+      </c>
+      <c r="R474" s="2">
+        <v>5</v>
+      </c>
+      <c r="S474" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="T474" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="U474" s="2" t="str">
+        <v>G</v>
+      </c>
+      <c r="V474" s="2" t="str">
+        <v>strong</v>
+      </c>
+      <c r="W474" s="2" t="str">
+        <v>レール・キャノン</v>
+      </c>
+      <c r="X474" s="2" t="str">
+        <v>ビーム・サーベル</v>
+      </c>
+      <c r="Y474" s="4" t="str">
+        <v>頭部バルカン
+７９Ｆ－１型</v>
+      </c>
+      <c r="Z474" s="4" t="str">
+        <v>高性能バランサーLv1
+格闘連撃制御Lv1
+マニューバーアーマーLv1
+耐爆機構Lv1
+脚部ショックアブソーバーLv2
+爆発反応装甲Lv1</v>
+      </c>
+      <c r="AA474" s="4" t="str">
+        <v>複合拡張パーツスロットLv1
+フレーム補強Lv1
+耐実弾装甲補強Lv1
+耐ビーム装甲補強Lv1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27" ht="81" customHeight="1">
+      <c r="A475" s="2">
+        <v>474</v>
+      </c>
+      <c r="B475" s="2" t="str">
+        <v>陸戦用ジム</v>
+      </c>
+      <c r="C475" s="2">
+        <v>1</v>
+      </c>
+      <c r="D475" s="2">
+        <v>1</v>
+      </c>
+      <c r="E475" s="2">
+        <v>250</v>
+      </c>
+      <c r="F475" s="2" t="str">
+        <v>raid</v>
+      </c>
+      <c r="G475" s="2">
+        <v>11000</v>
+      </c>
+      <c r="H475" s="2">
+        <v>9</v>
+      </c>
+      <c r="I475" s="2">
+        <v>9</v>
+      </c>
+      <c r="J475" s="2">
+        <v>11</v>
+      </c>
+      <c r="K475" s="2">
+        <v>15</v>
+      </c>
+      <c r="L475" s="2">
+        <v>10</v>
+      </c>
+      <c r="M475" s="2">
+        <v>110</v>
+      </c>
+      <c r="N475" s="2">
+        <v>55</v>
+      </c>
+      <c r="O475" s="2">
+        <v>7</v>
+      </c>
+      <c r="P475" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q475" s="2">
+        <v>4</v>
+      </c>
+      <c r="R475" s="2">
+        <v>8</v>
+      </c>
+      <c r="S475" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="T475" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="U475" s="2" t="str">
+        <v>G</v>
+      </c>
+      <c r="V475" s="2" t="str">
+        <v>strong</v>
+      </c>
+      <c r="W475" s="2" t="str">
+        <v>レール・キャノン</v>
+      </c>
+      <c r="X475" s="2" t="str">
+        <v>ビーム・サーベル</v>
+      </c>
+      <c r="Y475" s="4" t="str">
+        <v>頭部バルカン
+７９Ｆ－１型</v>
+      </c>
+      <c r="Z475" s="4" t="str">
+        <v>高性能バランサーLv1
+格闘連撃制御Lv1
+マニューバーアーマーLv1
+耐爆機構Lv1
+脚部ショックアブソーバーLv2
+爆発反応装甲Lv1</v>
+      </c>
+      <c r="AA475" s="4" t="str">
+        <v>複合拡張パーツスロットLv1
+フレーム補強Lv1
+耐実弾装甲補強Lv1
+耐ビーム装甲補強Lv1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:27">
+      <c r="A476" s="3">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -44477,13 +44670,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K373"/>
+  <dimension ref="A1:K375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B320" sqref="B320"/>
+      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -50533,26 +50726,26 @@
       <c r="K183" s="2"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="2" t="str">
-        <v>レール・キャノン[MP装備]</v>
-      </c>
-      <c r="B184" s="2">
-        <v>2</v>
-      </c>
-      <c r="C184" s="2">
-        <v>3</v>
-      </c>
-      <c r="D184" s="2">
-        <v>1872</v>
-      </c>
-      <c r="E184" s="2">
-        <v>410</v>
+      <c r="A184" s="5" t="str">
+        <v>レール・キャノン</v>
+      </c>
+      <c r="B184" s="5">
+        <v>1</v>
+      </c>
+      <c r="C184" s="5">
+        <v>2</v>
+      </c>
+      <c r="D184" s="5">
+        <v>1575</v>
+      </c>
+      <c r="E184" s="5">
+        <v>305</v>
       </c>
       <c r="F184" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G184" s="2">
-        <v>5</v>
+      <c r="G184" s="5">
+        <v>3</v>
       </c>
       <c r="H184" s="2" t="str">
         <v>ammo</v>
@@ -50563,31 +50756,29 @@
       <c r="J184" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K184" s="2" t="str">
-        <v>ＲＣ付属ミサイルポッド</v>
-      </c>
+      <c r="K184" s="5"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="2" t="str">
-        <v>レール・キャノン[MP装備]</v>
-      </c>
-      <c r="B185" s="2">
-        <v>2</v>
-      </c>
-      <c r="C185" s="2">
-        <v>2</v>
-      </c>
-      <c r="D185" s="2">
-        <v>1836</v>
-      </c>
-      <c r="E185" s="2">
-        <v>405</v>
+      <c r="A185" s="5" t="str">
+        <v>レール・キャノン</v>
+      </c>
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1</v>
+      </c>
+      <c r="D185" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E185" s="5">
+        <v>300</v>
       </c>
       <c r="F185" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G185" s="2">
-        <v>5</v>
+      <c r="G185" s="5">
+        <v>3</v>
       </c>
       <c r="H185" s="2" t="str">
         <v>ammo</v>
@@ -50598,9 +50789,7 @@
       <c r="J185" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K185" s="2" t="str">
-        <v>ＲＣ付属ミサイルポッド</v>
-      </c>
+      <c r="K185" s="5"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="2" t="str">
@@ -50610,13 +50799,13 @@
         <v>2</v>
       </c>
       <c r="C186" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186" s="2">
-        <v>1800</v>
+        <v>1872</v>
       </c>
       <c r="E186" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F186" s="2" t="str">
         <v>bullet</v>
@@ -50639,25 +50828,25 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="2" t="str">
-        <v>ロケット・バズーカ</v>
+        <v>レール・キャノン[MP装備]</v>
       </c>
       <c r="B187" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" s="2">
         <v>2</v>
       </c>
       <c r="D187" s="2">
-        <v>1470</v>
+        <v>1836</v>
       </c>
       <c r="E187" s="2">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="F187" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G187" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H187" s="2" t="str">
         <v>ammo</v>
@@ -50668,29 +50857,31 @@
       <c r="J187" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K187" s="2"/>
+      <c r="K187" s="2" t="str">
+        <v>ＲＣ付属ミサイルポッド</v>
+      </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="2" t="str">
-        <v>ロケット・バズーカ</v>
+        <v>レール・キャノン[MP装備]</v>
       </c>
       <c r="B188" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" s="2">
         <v>1</v>
       </c>
       <c r="D188" s="2">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E188" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F188" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G188" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H188" s="2" t="str">
         <v>ammo</v>
@@ -50701,29 +50892,31 @@
       <c r="J188" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K188" s="2"/>
+      <c r="K188" s="2" t="str">
+        <v>ＲＣ付属ミサイルポッド</v>
+      </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="2" t="str">
-        <v>ロケット・バズーカｘ２</v>
+        <v>ロケット・バズーカ</v>
       </c>
       <c r="B189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2">
         <v>2</v>
       </c>
       <c r="D189" s="2">
-        <v>1050</v>
+        <v>1470</v>
       </c>
       <c r="E189" s="2">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="F189" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G189" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H189" s="2" t="str">
         <v>ammo</v>
@@ -50738,25 +50931,25 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="2" t="str">
-        <v>ロケット・バズーカｘ２</v>
+        <v>ロケット・バズーカ</v>
       </c>
       <c r="B190" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="2">
         <v>1</v>
       </c>
       <c r="D190" s="2">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E190" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F190" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G190" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H190" s="2" t="str">
         <v>ammo</v>
@@ -50771,25 +50964,25 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="2" t="str">
-        <v>ロケット・ランチャー</v>
+        <v>ロケット・バズーカｘ２</v>
       </c>
       <c r="B191" s="2">
         <v>2</v>
       </c>
       <c r="C191" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D191" s="2">
-        <v>1800</v>
+        <v>1050</v>
       </c>
       <c r="E191" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="F191" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G191" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H191" s="2" t="str">
         <v>ammo</v>
@@ -50804,25 +50997,25 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="2" t="str">
-        <v>ロケット・ランチャー</v>
+        <v>ロケット・バズーカｘ２</v>
       </c>
       <c r="B192" s="2">
         <v>2</v>
       </c>
       <c r="C192" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D192" s="2">
-        <v>1725</v>
+        <v>1000</v>
       </c>
       <c r="E192" s="2">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="F192" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G192" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H192" s="2" t="str">
         <v>ammo</v>
@@ -50843,13 +51036,13 @@
         <v>2</v>
       </c>
       <c r="C193" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D193" s="2">
-        <v>1650</v>
+        <v>1800</v>
       </c>
       <c r="E193" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F193" s="2" t="str">
         <v>bullet</v>
@@ -50876,13 +51069,13 @@
         <v>2</v>
       </c>
       <c r="C194" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194" s="2">
-        <v>1575</v>
+        <v>1725</v>
       </c>
       <c r="E194" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F194" s="2" t="str">
         <v>bullet</v>
@@ -50909,13 +51102,13 @@
         <v>2</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195" s="2">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="E195" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F195" s="2" t="str">
         <v>bullet</v>
@@ -50936,28 +51129,28 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="2" t="str">
-        <v>ロングレンジ・ビーム・ライフル</v>
+        <v>ロケット・ランチャー</v>
       </c>
       <c r="B196" s="2">
         <v>2</v>
       </c>
       <c r="C196" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196" s="2">
-        <v>1650</v>
+        <v>1575</v>
       </c>
       <c r="E196" s="2">
-        <v>860</v>
+        <v>330</v>
       </c>
       <c r="F196" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G196" s="2">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="H196" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I196" s="2" t="str">
         <v>×</v>
@@ -50969,28 +51162,28 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="2" t="str">
-        <v>ロングレンジ・ビーム・ライフル</v>
+        <v>ロケット・ランチャー</v>
       </c>
       <c r="B197" s="2">
         <v>2</v>
       </c>
       <c r="C197" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197" s="2">
-        <v>1575</v>
+        <v>1500</v>
       </c>
       <c r="E197" s="2">
-        <v>855</v>
+        <v>325</v>
       </c>
       <c r="F197" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G197" s="2">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="H197" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I197" s="2" t="str">
         <v>×</v>
@@ -51008,13 +51201,13 @@
         <v>2</v>
       </c>
       <c r="C198" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198" s="2">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="E198" s="2">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="F198" s="2" t="str">
         <v>heat</v>
@@ -51035,31 +51228,31 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="2" t="str">
-        <v>ロング・ライフル</v>
+        <v>ロングレンジ・ビーム・ライフル</v>
       </c>
       <c r="B199" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="2">
-        <v>2500</v>
+        <v>1575</v>
       </c>
       <c r="E199" s="2">
-        <v>700</v>
+        <v>855</v>
       </c>
       <c r="F199" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G199" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H199" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I199" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J199" s="2" t="str">
         <v>×</v>
@@ -51068,31 +51261,31 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="2" t="str">
-        <v>初期試作型ビーム・ライフル</v>
+        <v>ロングレンジ・ビーム・ライフル</v>
       </c>
       <c r="B200" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200" s="2">
-        <v>5750</v>
+        <v>1500</v>
       </c>
       <c r="E200" s="2">
-        <v>210</v>
+        <v>850</v>
       </c>
       <c r="F200" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G200" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H200" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I200" s="2" t="str">
-        <v>◎</v>
+        <v>×</v>
       </c>
       <c r="J200" s="2" t="str">
         <v>×</v>
@@ -51101,31 +51294,31 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="2" t="str">
-        <v>初期試作型ビーム・ライフル</v>
+        <v>ロング・ライフル</v>
       </c>
       <c r="B201" s="2">
         <v>3</v>
       </c>
       <c r="C201" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" s="2">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="E201" s="2">
-        <v>205</v>
+        <v>700</v>
       </c>
       <c r="F201" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G201" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H201" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I201" s="2" t="str">
-        <v>◎</v>
+        <v>○</v>
       </c>
       <c r="J201" s="2" t="str">
         <v>×</v>
@@ -51140,13 +51333,13 @@
         <v>3</v>
       </c>
       <c r="C202" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202" s="2">
-        <v>5250</v>
+        <v>5750</v>
       </c>
       <c r="E202" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F202" s="2" t="str">
         <v>heat</v>
@@ -51167,67 +51360,67 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="2" t="str">
-        <v>大口径頭部バルカンｘ２</v>
+        <v>初期試作型ビーム・ライフル</v>
       </c>
       <c r="B203" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C203" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203" s="2">
-        <v>54</v>
+        <v>5500</v>
       </c>
       <c r="E203" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F203" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G203" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H203" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I203" s="2" t="str">
-        <v>×</v>
+        <v>◎</v>
       </c>
       <c r="J203" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K203" s="2"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="2" t="str">
-        <v>大口径頭部バルカンｘ２</v>
+        <v>初期試作型ビーム・ライフル</v>
       </c>
       <c r="B204" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2">
-        <v>52</v>
+        <v>5250</v>
       </c>
       <c r="E204" s="2">
         <v>200</v>
       </c>
       <c r="F204" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G204" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H204" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I204" s="2" t="str">
-        <v>×</v>
+        <v>◎</v>
       </c>
       <c r="J204" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K204" s="2"/>
     </row>
@@ -51239,10 +51432,10 @@
         <v>2</v>
       </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E205" s="2">
         <v>200</v>
@@ -51251,7 +51444,7 @@
         <v>bullet</v>
       </c>
       <c r="G205" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H205" s="2" t="str">
         <v>ammo</v>
@@ -51266,25 +51459,25 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="2" t="str">
-        <v>大口径頭部バルカンｘ４</v>
+        <v>大口径頭部バルカンｘ２</v>
       </c>
       <c r="B206" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D206" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E206" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F206" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G206" s="2">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H206" s="2" t="str">
         <v>ammo</v>
@@ -51299,25 +51492,25 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="2" t="str">
-        <v>大口径頭部バルカンｘ４</v>
+        <v>大口径頭部バルカンｘ２</v>
       </c>
       <c r="B207" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E207" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F207" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G207" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H207" s="2" t="str">
         <v>ammo</v>
@@ -51338,10 +51531,10 @@
         <v>1</v>
       </c>
       <c r="C208" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D208" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E208" s="2">
         <v>300</v>
@@ -51350,7 +51543,7 @@
         <v>bullet</v>
       </c>
       <c r="G208" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H208" s="2" t="str">
         <v>ammo</v>
@@ -51371,10 +51564,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E209" s="2">
         <v>300</v>
@@ -51383,7 +51576,7 @@
         <v>bullet</v>
       </c>
       <c r="G209" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H209" s="2" t="str">
         <v>ammo</v>
@@ -51398,7 +51591,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="2" t="str">
-        <v>大型ガトリング砲</v>
+        <v>大口径頭部バルカンｘ４</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
@@ -51407,7 +51600,7 @@
         <v>2</v>
       </c>
       <c r="D210" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="E210" s="2">
         <v>300</v>
@@ -51416,7 +51609,7 @@
         <v>bullet</v>
       </c>
       <c r="G210" s="2">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H210" s="2" t="str">
         <v>ammo</v>
@@ -51431,7 +51624,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="2" t="str">
-        <v>大型ガトリング砲</v>
+        <v>大口径頭部バルカンｘ４</v>
       </c>
       <c r="B211" s="2">
         <v>1</v>
@@ -51440,7 +51633,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="E211" s="2">
         <v>300</v>
@@ -51449,7 +51642,7 @@
         <v>bullet</v>
       </c>
       <c r="G211" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H211" s="2" t="str">
         <v>ammo</v>
@@ -51464,25 +51657,25 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="2" t="str">
-        <v>寒冷地用マシンガン[GN装備]</v>
+        <v>大型ガトリング砲</v>
       </c>
       <c r="B212" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E212" s="2">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="F212" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G212" s="2">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H212" s="2" t="str">
         <v>ammo</v>
@@ -51493,31 +51686,29 @@
       <c r="J212" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K212" s="2" t="str">
-        <v>寒冷地用マシンガン付属グレネード</v>
-      </c>
+      <c r="K212" s="2"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="2" t="str">
-        <v>寒冷地用マシンガン[GN装備]</v>
+        <v>大型ガトリング砲</v>
       </c>
       <c r="B213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E213" s="2">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="F213" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G213" s="2">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H213" s="2" t="str">
         <v>ammo</v>
@@ -51528,9 +51719,7 @@
       <c r="J213" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K213" s="2" t="str">
-        <v>寒冷地用マシンガン付属グレネード</v>
-      </c>
+      <c r="K213" s="2"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="2" t="str">
@@ -51540,10 +51729,10 @@
         <v>2</v>
       </c>
       <c r="C214" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D214" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E214" s="2">
         <v>175</v>
@@ -51552,7 +51741,7 @@
         <v>bullet</v>
       </c>
       <c r="G214" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H214" s="2" t="str">
         <v>ammo</v>
@@ -51569,7 +51758,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="2" t="str">
-        <v>専用ザク・マシンガンｘ２</v>
+        <v>寒冷地用マシンガン[GN装備]</v>
       </c>
       <c r="B215" s="2">
         <v>2</v>
@@ -51578,16 +51767,16 @@
         <v>2</v>
       </c>
       <c r="D215" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E215" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="F215" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G215" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H215" s="2" t="str">
         <v>ammo</v>
@@ -51598,11 +51787,13 @@
       <c r="J215" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K215" s="2"/>
+      <c r="K215" s="2" t="str">
+        <v>寒冷地用マシンガン付属グレネード</v>
+      </c>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="2" t="str">
-        <v>専用ザク・マシンガンｘ２</v>
+        <v>寒冷地用マシンガン[GN装備]</v>
       </c>
       <c r="B216" s="2">
         <v>2</v>
@@ -51611,16 +51802,16 @@
         <v>1</v>
       </c>
       <c r="D216" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E216" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="F216" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G216" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H216" s="2" t="str">
         <v>ammo</v>
@@ -51631,29 +51822,31 @@
       <c r="J216" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K216" s="2"/>
+      <c r="K216" s="2" t="str">
+        <v>寒冷地用マシンガン付属グレネード</v>
+      </c>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="2" t="str">
-        <v>特殊ハンマー・ガン</v>
+        <v>専用ザク・マシンガンｘ２</v>
       </c>
       <c r="B217" s="2">
         <v>2</v>
       </c>
       <c r="C217" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" s="2">
-        <v>3300</v>
+        <v>137</v>
       </c>
       <c r="E217" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F217" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G217" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="H217" s="2" t="str">
         <v>ammo</v>
@@ -51662,31 +51855,31 @@
         <v>×</v>
       </c>
       <c r="J217" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K217" s="2"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="2" t="str">
-        <v>特殊ハンマー・ガン</v>
+        <v>専用ザク・マシンガンｘ２</v>
       </c>
       <c r="B218" s="2">
         <v>2</v>
       </c>
       <c r="C218" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" s="2">
-        <v>3150</v>
+        <v>130</v>
       </c>
       <c r="E218" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F218" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G218" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H218" s="2" t="str">
         <v>ammo</v>
@@ -51695,7 +51888,7 @@
         <v>×</v>
       </c>
       <c r="J218" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K218" s="2"/>
     </row>
@@ -51707,10 +51900,10 @@
         <v>2</v>
       </c>
       <c r="C219" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D219" s="2">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="E219" s="2">
         <v>150</v>
@@ -51734,7 +51927,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="2" t="str">
-        <v>狙撃用ビーム・ランチャー</v>
+        <v>特殊ハンマー・ガン</v>
       </c>
       <c r="B220" s="2">
         <v>2</v>
@@ -51743,22 +51936,22 @@
         <v>2</v>
       </c>
       <c r="D220" s="2">
-        <v>2415</v>
+        <v>3150</v>
       </c>
       <c r="E220" s="2">
-        <v>505</v>
+        <v>150</v>
       </c>
       <c r="F220" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G220" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H220" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I220" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J220" s="2" t="str">
         <v>×</v>
@@ -51767,7 +51960,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="2" t="str">
-        <v>狙撃用ビーム・ランチャー</v>
+        <v>特殊ハンマー・ガン</v>
       </c>
       <c r="B221" s="2">
         <v>2</v>
@@ -51776,22 +51969,22 @@
         <v>1</v>
       </c>
       <c r="D221" s="2">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="E221" s="2">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="F221" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G221" s="2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H221" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I221" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J221" s="2" t="str">
         <v>×</v>
@@ -51800,31 +51993,31 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="2" t="str">
-        <v>百式用ビーム・ライフル</v>
+        <v>狙撃用ビーム・ランチャー</v>
       </c>
       <c r="B222" s="2">
         <v>2</v>
       </c>
       <c r="C222" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" s="2">
-        <v>2400</v>
+        <v>2415</v>
       </c>
       <c r="E222" s="2">
-        <v>350</v>
+        <v>505</v>
       </c>
       <c r="F222" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G222" s="2">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="H222" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I222" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J222" s="2" t="str">
         <v>×</v>
@@ -51833,31 +52026,31 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="2" t="str">
-        <v>簡略式ミサイル・ランチャー</v>
+        <v>狙撃用ビーム・ランチャー</v>
       </c>
       <c r="B223" s="2">
         <v>2</v>
       </c>
       <c r="C223" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D223" s="2">
-        <v>935</v>
+        <v>2300</v>
       </c>
       <c r="E223" s="2">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="F223" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G223" s="2">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="H223" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I223" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J223" s="2" t="str">
         <v>×</v>
@@ -51866,19 +52059,19 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="2" t="str">
-        <v>簡略式ミサイル・ランチャー</v>
+        <v>百式用ビーム・ライフル</v>
       </c>
       <c r="B224" s="2">
         <v>2</v>
       </c>
       <c r="C224" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" s="2">
-        <v>892</v>
+        <v>2400</v>
       </c>
       <c r="E224" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="F224" s="2" t="str">
         <v>bullet</v>
@@ -51887,7 +52080,7 @@
         <v>4</v>
       </c>
       <c r="H224" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I224" s="2" t="str">
         <v>×</v>
@@ -51905,13 +52098,13 @@
         <v>2</v>
       </c>
       <c r="C225" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225" s="2">
-        <v>850</v>
+        <v>935</v>
       </c>
       <c r="E225" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F225" s="2" t="str">
         <v>bullet</v>
@@ -51932,7 +52125,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="2" t="str">
-        <v>胸部４連装メガ粒子砲</v>
+        <v>簡略式ミサイル・ランチャー</v>
       </c>
       <c r="B226" s="2">
         <v>2</v>
@@ -51941,22 +52134,22 @@
         <v>2</v>
       </c>
       <c r="D226" s="2">
-        <v>305</v>
+        <v>892</v>
       </c>
       <c r="E226" s="2">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="F226" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G226" s="2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H226" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I226" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J226" s="2" t="str">
         <v>×</v>
@@ -51965,7 +52158,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="2" t="str">
-        <v>胸部４連装メガ粒子砲</v>
+        <v>簡略式ミサイル・ランチャー</v>
       </c>
       <c r="B227" s="2">
         <v>2</v>
@@ -51974,22 +52167,22 @@
         <v>1</v>
       </c>
       <c r="D227" s="2">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="E227" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F227" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G227" s="2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H227" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I227" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J227" s="2" t="str">
         <v>×</v>
@@ -51998,67 +52191,67 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="2" t="str">
-        <v>腕部３連装ガトリング</v>
+        <v>胸部４連装メガ粒子砲</v>
       </c>
       <c r="B228" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228" s="2">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="E228" s="2">
-        <v>200</v>
+        <v>505</v>
       </c>
       <c r="F228" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G228" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H228" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I228" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J228" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K228" s="2"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="2" t="str">
-        <v>腕部３連装ガトリング</v>
+        <v>胸部４連装メガ粒子砲</v>
       </c>
       <c r="B229" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229" s="2">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="E229" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F229" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G229" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H229" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I229" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J229" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K229" s="2"/>
     </row>
@@ -52070,10 +52263,10 @@
         <v>1</v>
       </c>
       <c r="C230" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E230" s="2">
         <v>200</v>
@@ -52082,7 +52275,7 @@
         <v>bullet</v>
       </c>
       <c r="G230" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H230" s="2" t="str">
         <v>ammo</v>
@@ -52097,16 +52290,16 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="2" t="str">
-        <v>腕部４０ｍｍバルカン砲</v>
+        <v>腕部３連装ガトリング</v>
       </c>
       <c r="B231" s="2">
         <v>1</v>
       </c>
       <c r="C231" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E231" s="2">
         <v>200</v>
@@ -52115,7 +52308,7 @@
         <v>bullet</v>
       </c>
       <c r="G231" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H231" s="2" t="str">
         <v>ammo</v>
@@ -52130,16 +52323,16 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="2" t="str">
-        <v>腕部４０ｍｍバルカン砲</v>
+        <v>腕部３連装ガトリング</v>
       </c>
       <c r="B232" s="2">
         <v>1</v>
       </c>
       <c r="C232" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E232" s="2">
         <v>200</v>
@@ -52148,7 +52341,7 @@
         <v>bullet</v>
       </c>
       <c r="G232" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H232" s="2" t="str">
         <v>ammo</v>
@@ -52169,10 +52362,10 @@
         <v>1</v>
       </c>
       <c r="C233" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E233" s="2">
         <v>200</v>
@@ -52181,7 +52374,7 @@
         <v>bullet</v>
       </c>
       <c r="G233" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H233" s="2" t="str">
         <v>ammo</v>
@@ -52196,7 +52389,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="2" t="str">
-        <v>腹部２連装メガ粒子砲</v>
+        <v>腕部４０ｍｍバルカン砲</v>
       </c>
       <c r="B234" s="2">
         <v>1</v>
@@ -52205,88 +52398,88 @@
         <v>2</v>
       </c>
       <c r="D234" s="2">
-        <v>675</v>
+        <v>136</v>
       </c>
       <c r="E234" s="2">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="F234" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G234" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H234" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I234" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J234" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K234" s="2"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="2" t="str">
+        <v>腕部４０ｍｍバルカン砲</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1</v>
+      </c>
+      <c r="D235" s="2">
+        <v>130</v>
+      </c>
+      <c r="E235" s="2">
+        <v>200</v>
+      </c>
+      <c r="F235" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G235" s="2">
+        <v>40</v>
+      </c>
+      <c r="H235" s="2" t="str">
+        <v>ammo</v>
+      </c>
+      <c r="I235" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J235" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="2" t="str">
         <v>腹部２連装メガ粒子砲</v>
       </c>
-      <c r="B235" s="2">
-        <v>1</v>
-      </c>
-      <c r="C235" s="2">
-        <v>1</v>
-      </c>
-      <c r="D235" s="2">
-        <v>650</v>
-      </c>
-      <c r="E235" s="2">
-        <v>250</v>
-      </c>
-      <c r="F235" s="2" t="str">
-        <v>heat</v>
-      </c>
-      <c r="G235" s="2">
-        <v>80</v>
-      </c>
-      <c r="H235" s="2" t="str">
-        <v>beam</v>
-      </c>
-      <c r="I235" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J235" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="K235" s="2"/>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" s="3" t="str">
-        <v>試作大型ビーム・ライフル</v>
-      </c>
       <c r="B236" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C236" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" s="2">
-        <v>1500</v>
+        <v>675</v>
       </c>
       <c r="E236" s="2">
-        <v>600</v>
+        <v>255</v>
       </c>
       <c r="F236" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G236" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H236" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I236" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J236" s="2" t="str">
         <v>×</v>
@@ -52295,25 +52488,25 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="2" t="str">
-        <v>試作１号機用ビーム・ライフル</v>
+        <v>腹部２連装メガ粒子砲</v>
       </c>
       <c r="B237" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C237" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" s="2">
-        <v>1995</v>
+        <v>650</v>
       </c>
       <c r="E237" s="2">
-        <v>405</v>
+        <v>250</v>
       </c>
       <c r="F237" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G237" s="2">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H237" s="2" t="str">
         <v>beam</v>
@@ -52327,8 +52520,8 @@
       <c r="K237" s="2"/>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="2" t="str">
-        <v>試作１号機用ビーム・ライフル</v>
+      <c r="A238" s="3" t="str">
+        <v>試作大型ビーム・ライフル</v>
       </c>
       <c r="B238" s="2">
         <v>3</v>
@@ -52337,22 +52530,22 @@
         <v>1</v>
       </c>
       <c r="D238" s="2">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="E238" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F238" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G238" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H238" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I238" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J238" s="2" t="str">
         <v>×</v>
@@ -52360,29 +52553,29 @@
       <c r="K238" s="2"/>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="3" t="str">
-        <v>試作２号機用MLRS</v>
+      <c r="A239" s="2" t="str">
+        <v>試作１号機用ビーム・ライフル</v>
       </c>
       <c r="B239" s="2">
         <v>3</v>
       </c>
       <c r="C239" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" s="2">
-        <v>1200</v>
+        <v>1995</v>
       </c>
       <c r="E239" s="2">
-        <v>550</v>
+        <v>405</v>
       </c>
       <c r="F239" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G239" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H239" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I239" s="2" t="str">
         <v>×</v>
@@ -52390,37 +52583,35 @@
       <c r="J239" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K239" s="2" t="str">
-        <v>試作２号機用MLRS[垂直発射]</v>
-      </c>
+      <c r="K239" s="2"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="2" t="str">
-        <v>試作２号機用ビーム・バズーカ</v>
+        <v>試作１号機用ビーム・ライフル</v>
       </c>
       <c r="B240" s="2">
         <v>3</v>
       </c>
       <c r="C240" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" s="2">
-        <v>2625</v>
+        <v>1900</v>
       </c>
       <c r="E240" s="2">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="F240" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G240" s="2">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="H240" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I240" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J240" s="2" t="str">
         <v>×</v>
@@ -52428,8 +52619,8 @@
       <c r="K240" s="2"/>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="2" t="str">
-        <v>試作２号機用ビーム・バズーカ</v>
+      <c r="A241" s="3" t="str">
+        <v>試作２号機用MLRS</v>
       </c>
       <c r="B241" s="2">
         <v>3</v>
@@ -52438,55 +52629,57 @@
         <v>1</v>
       </c>
       <c r="D241" s="2">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="E241" s="2">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="F241" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G241" s="2">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="H241" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I241" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J241" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K241" s="2"/>
+      <c r="K241" s="2" t="str">
+        <v>試作２号機用MLRS[垂直発射]</v>
+      </c>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="2" t="str">
-        <v>試作４号機用Ｌ・レンジ・ライフル</v>
+        <v>試作２号機用ビーム・バズーカ</v>
       </c>
       <c r="B242" s="2">
         <v>3</v>
       </c>
       <c r="C242" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242" s="2">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="E242" s="2">
-        <v>700</v>
+        <v>355</v>
       </c>
       <c r="F242" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G242" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H242" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I242" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J242" s="2" t="str">
         <v>×</v>
@@ -52495,25 +52688,25 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="2" t="str">
-        <v>試作５連装メガ粒子砲ｘ２</v>
+        <v>試作２号機用ビーム・バズーカ</v>
       </c>
       <c r="B243" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C243" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243" s="2">
-        <v>175</v>
+        <v>2500</v>
       </c>
       <c r="E243" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="F243" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G243" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H243" s="2" t="str">
         <v>beam</v>
@@ -52528,31 +52721,31 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="2" t="str">
-        <v>試作５連装メガ粒子砲ｘ２</v>
+        <v>試作４号機用Ｌ・レンジ・ライフル</v>
       </c>
       <c r="B244" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C244" s="2">
         <v>1</v>
       </c>
       <c r="D244" s="2">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="E244" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F244" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G244" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H244" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I244" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J244" s="2" t="str">
         <v>×</v>
@@ -52561,25 +52754,25 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="2" t="str">
-        <v>陸戦型ガンダム用ビーム・ライフル</v>
+        <v>試作５連装メガ粒子砲ｘ２</v>
       </c>
       <c r="B245" s="2">
         <v>2</v>
       </c>
       <c r="C245" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D245" s="2">
-        <v>1440</v>
+        <v>175</v>
       </c>
       <c r="E245" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F245" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G245" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H245" s="2" t="str">
         <v>beam</v>
@@ -52594,25 +52787,25 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="2" t="str">
-        <v>陸戦型ガンダム用ビーム・ライフル</v>
+        <v>試作５連装メガ粒子砲ｘ２</v>
       </c>
       <c r="B246" s="2">
         <v>2</v>
       </c>
       <c r="C246" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D246" s="2">
-        <v>1380</v>
+        <v>150</v>
       </c>
       <c r="E246" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F246" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G246" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H246" s="2" t="str">
         <v>beam</v>
@@ -52633,13 +52826,13 @@
         <v>2</v>
       </c>
       <c r="C247" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D247" s="2">
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="E247" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F247" s="2" t="str">
         <v>heat</v>
@@ -52666,13 +52859,13 @@
         <v>2</v>
       </c>
       <c r="C248" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D248" s="2">
-        <v>1260</v>
+        <v>1380</v>
       </c>
       <c r="E248" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F248" s="2" t="str">
         <v>heat</v>
@@ -52699,13 +52892,13 @@
         <v>2</v>
       </c>
       <c r="C249" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249" s="2">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="E249" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F249" s="2" t="str">
         <v>heat</v>
@@ -52726,7 +52919,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="2" t="str">
-        <v>陸戦型Ｇ用試作ビーム・ライフル</v>
+        <v>陸戦型ガンダム用ビーム・ライフル</v>
       </c>
       <c r="B250" s="2">
         <v>2</v>
@@ -52735,16 +52928,16 @@
         <v>2</v>
       </c>
       <c r="D250" s="2">
-        <v>1890</v>
+        <v>1260</v>
       </c>
       <c r="E250" s="2">
-        <v>550</v>
+        <v>405</v>
       </c>
       <c r="F250" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G250" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H250" s="2" t="str">
         <v>beam</v>
@@ -52759,7 +52952,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="2" t="str">
-        <v>陸戦型Ｇ用試作ビーム・ライフル</v>
+        <v>陸戦型ガンダム用ビーム・ライフル</v>
       </c>
       <c r="B251" s="2">
         <v>2</v>
@@ -52768,16 +52961,16 @@
         <v>1</v>
       </c>
       <c r="D251" s="2">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E251" s="2">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F251" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G251" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H251" s="2" t="str">
         <v>beam</v>
@@ -52792,31 +52985,31 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="2" t="str">
-        <v>高機動型Ｇ用ロケット・ランチャー</v>
+        <v>陸戦型Ｇ用試作ビーム・ライフル</v>
       </c>
       <c r="B252" s="2">
         <v>2</v>
       </c>
       <c r="C252" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="2">
-        <v>1650</v>
+        <v>1890</v>
       </c>
       <c r="E252" s="2">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="F252" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G252" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H252" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I252" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J252" s="2" t="str">
         <v>×</v>
@@ -52825,31 +53018,31 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="2" t="str">
-        <v>高機動型Ｇ用ロケット・ランチャー</v>
+        <v>陸戦型Ｇ用試作ビーム・ライフル</v>
       </c>
       <c r="B253" s="2">
         <v>2</v>
       </c>
       <c r="C253" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" s="2">
-        <v>1575</v>
+        <v>1800</v>
       </c>
       <c r="E253" s="2">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="F253" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G253" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H253" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I253" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J253" s="2" t="str">
         <v>×</v>
@@ -52864,13 +53057,13 @@
         <v>2</v>
       </c>
       <c r="C254" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D254" s="2">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="E254" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F254" s="2" t="str">
         <v>bullet</v>
@@ -52891,25 +53084,25 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="2" t="str">
-        <v>１００ｍｍマシンガン</v>
+        <v>高機動型Ｇ用ロケット・ランチャー</v>
       </c>
       <c r="B255" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C255" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D255" s="2">
-        <v>177</v>
+        <v>1575</v>
       </c>
       <c r="E255" s="2">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="F255" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G255" s="2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H255" s="2" t="str">
         <v>ammo</v>
@@ -52918,31 +53111,31 @@
         <v>×</v>
       </c>
       <c r="J255" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K255" s="2"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="2" t="str">
-        <v>１００ｍｍマシンガン</v>
+        <v>高機動型Ｇ用ロケット・ランチャー</v>
       </c>
       <c r="B256" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D256" s="2">
-        <v>170</v>
+        <v>1500</v>
       </c>
       <c r="E256" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F256" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G256" s="2">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="H256" s="2" t="str">
         <v>ammo</v>
@@ -52951,7 +53144,7 @@
         <v>×</v>
       </c>
       <c r="J256" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K256" s="2"/>
     </row>
@@ -52963,10 +53156,10 @@
         <v>1</v>
       </c>
       <c r="C257" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D257" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E257" s="2">
         <v>250</v>
@@ -52975,7 +53168,7 @@
         <v>bullet</v>
       </c>
       <c r="G257" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H257" s="2" t="str">
         <v>ammo</v>
@@ -52996,10 +53189,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D258" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E258" s="2">
         <v>250</v>
@@ -53008,7 +53201,7 @@
         <v>bullet</v>
       </c>
       <c r="G258" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H258" s="2" t="str">
         <v>ammo</v>
@@ -53029,10 +53222,10 @@
         <v>1</v>
       </c>
       <c r="C259" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D259" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E259" s="2">
         <v>250</v>
@@ -53041,7 +53234,7 @@
         <v>bullet</v>
       </c>
       <c r="G259" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H259" s="2" t="str">
         <v>ammo</v>
@@ -53056,16 +53249,16 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="2" t="str">
-        <v>１００ｍｍマシンガン[改良型]</v>
+        <v>１００ｍｍマシンガン</v>
       </c>
       <c r="B260" s="2">
         <v>1</v>
       </c>
       <c r="C260" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260" s="2">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E260" s="2">
         <v>250</v>
@@ -53074,7 +53267,7 @@
         <v>bullet</v>
       </c>
       <c r="G260" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H260" s="2" t="str">
         <v>ammo</v>
@@ -53089,16 +53282,16 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="2" t="str">
-        <v>１００ｍｍマシンガン[改良型]</v>
+        <v>１００ｍｍマシンガン</v>
       </c>
       <c r="B261" s="2">
         <v>1</v>
       </c>
       <c r="C261" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261" s="2">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="E261" s="2">
         <v>250</v>
@@ -53107,7 +53300,7 @@
         <v>bullet</v>
       </c>
       <c r="G261" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H261" s="2" t="str">
         <v>ammo</v>
@@ -53128,10 +53321,10 @@
         <v>1</v>
       </c>
       <c r="C262" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D262" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E262" s="2">
         <v>250</v>
@@ -53140,7 +53333,7 @@
         <v>bullet</v>
       </c>
       <c r="G262" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H262" s="2" t="str">
         <v>ammo</v>
@@ -53161,10 +53354,10 @@
         <v>1</v>
       </c>
       <c r="C263" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D263" s="2">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E263" s="2">
         <v>250</v>
@@ -53173,7 +53366,7 @@
         <v>bullet</v>
       </c>
       <c r="G263" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H263" s="2" t="str">
         <v>ammo</v>
@@ -53188,16 +53381,16 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="2" t="str">
-        <v>１００ｍｍマシンガンｘ２</v>
+        <v>１００ｍｍマシンガン[改良型]</v>
       </c>
       <c r="B264" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="E264" s="2">
         <v>250</v>
@@ -53206,7 +53399,7 @@
         <v>bullet</v>
       </c>
       <c r="G264" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H264" s="2" t="str">
         <v>ammo</v>
@@ -53221,16 +53414,16 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="2" t="str">
-        <v>１００ｍｍマシンガンｘ２</v>
+        <v>１００ｍｍマシンガン[改良型]</v>
       </c>
       <c r="B265" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E265" s="2">
         <v>250</v>
@@ -53239,7 +53432,7 @@
         <v>bullet</v>
       </c>
       <c r="G265" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H265" s="2" t="str">
         <v>ammo</v>
@@ -53260,10 +53453,10 @@
         <v>2</v>
       </c>
       <c r="C266" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D266" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E266" s="2">
         <v>250</v>
@@ -53272,7 +53465,7 @@
         <v>bullet</v>
       </c>
       <c r="G266" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H266" s="2" t="str">
         <v>ammo</v>
@@ -53287,25 +53480,25 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="2" t="str">
-        <v>１２０ｍｍマシンガン</v>
+        <v>１００ｍｍマシンガンｘ２</v>
       </c>
       <c r="B267" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E267" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F267" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G267" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H267" s="2" t="str">
         <v>ammo</v>
@@ -53320,25 +53513,25 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="2" t="str">
-        <v>１２０ｍｍマシンガン</v>
+        <v>１００ｍｍマシンガンｘ２</v>
       </c>
       <c r="B268" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268" s="2">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E268" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F268" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G268" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H268" s="2" t="str">
         <v>ammo</v>
@@ -53359,10 +53552,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D269" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E269" s="2">
         <v>350</v>
@@ -53371,7 +53564,7 @@
         <v>bullet</v>
       </c>
       <c r="G269" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H269" s="2" t="str">
         <v>ammo</v>
@@ -53386,25 +53579,25 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="2" t="str">
-        <v>１３５ｍｍ対艦ライフル</v>
+        <v>１２０ｍｍマシンガン</v>
       </c>
       <c r="B270" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D270" s="2">
-        <v>2701</v>
+        <v>155</v>
       </c>
       <c r="E270" s="2">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="F270" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G270" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H270" s="2" t="str">
         <v>ammo</v>
@@ -53413,31 +53606,31 @@
         <v>×</v>
       </c>
       <c r="J270" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K270" s="2"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="2" t="str">
-        <v>１３５ｍｍ対艦ライフル</v>
+        <v>１２０ｍｍマシンガン</v>
       </c>
       <c r="B271" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C271" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D271" s="2">
-        <v>2584</v>
+        <v>150</v>
       </c>
       <c r="E271" s="2">
-        <v>460</v>
+        <v>350</v>
       </c>
       <c r="F271" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G271" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H271" s="2" t="str">
         <v>ammo</v>
@@ -53446,7 +53639,7 @@
         <v>×</v>
       </c>
       <c r="J271" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K271" s="2"/>
     </row>
@@ -53458,13 +53651,13 @@
         <v>2</v>
       </c>
       <c r="C272" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D272" s="2">
-        <v>2467</v>
+        <v>2701</v>
       </c>
       <c r="E272" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="F272" s="2" t="str">
         <v>bullet</v>
@@ -53491,13 +53684,13 @@
         <v>2</v>
       </c>
       <c r="C273" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273" s="2">
-        <v>2350</v>
+        <v>2584</v>
       </c>
       <c r="E273" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F273" s="2" t="str">
         <v>bullet</v>
@@ -53518,25 +53711,25 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="2" t="str">
-        <v>１７０ｍｍキャノン砲</v>
+        <v>１３５ｍｍ対艦ライフル</v>
       </c>
       <c r="B274" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" s="2">
         <v>2</v>
       </c>
       <c r="D274" s="2">
-        <v>1995</v>
+        <v>2467</v>
       </c>
       <c r="E274" s="2">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="F274" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G274" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H274" s="2" t="str">
         <v>ammo</v>
@@ -53551,25 +53744,25 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="2" t="str">
-        <v>１７０ｍｍキャノン砲</v>
+        <v>１３５ｍｍ対艦ライフル</v>
       </c>
       <c r="B275" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" s="2">
         <v>1</v>
       </c>
       <c r="D275" s="2">
-        <v>1900</v>
+        <v>2350</v>
       </c>
       <c r="E275" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F275" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G275" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H275" s="2" t="str">
         <v>ammo</v>
@@ -53584,19 +53777,19 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="2" t="str">
-        <v>１８０ｍｍキャノン</v>
+        <v>１７０ｍｍキャノン砲</v>
       </c>
       <c r="B276" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C276" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D276" s="2">
-        <v>2070</v>
+        <v>1995</v>
       </c>
       <c r="E276" s="2">
-        <v>615</v>
+        <v>505</v>
       </c>
       <c r="F276" s="2" t="str">
         <v>bullet</v>
@@ -53617,19 +53810,19 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="2" t="str">
-        <v>１８０ｍｍキャノン</v>
+        <v>１７０ｍｍキャノン砲</v>
       </c>
       <c r="B277" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C277" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D277" s="2">
-        <v>1980</v>
+        <v>1900</v>
       </c>
       <c r="E277" s="2">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="F277" s="2" t="str">
         <v>bullet</v>
@@ -53656,13 +53849,13 @@
         <v>2</v>
       </c>
       <c r="C278" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D278" s="2">
-        <v>1890</v>
+        <v>2070</v>
       </c>
       <c r="E278" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F278" s="2" t="str">
         <v>bullet</v>
@@ -53689,13 +53882,13 @@
         <v>2</v>
       </c>
       <c r="C279" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279" s="2">
-        <v>1800</v>
+        <v>1980</v>
       </c>
       <c r="E279" s="2">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F279" s="2" t="str">
         <v>bullet</v>
@@ -53716,67 +53909,67 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="2" t="str">
-        <v>２連装ビームガン</v>
+        <v>１８０ｍｍキャノン</v>
       </c>
       <c r="B280" s="2">
         <v>2</v>
       </c>
       <c r="C280" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D280" s="2">
-        <v>1045</v>
+        <v>1890</v>
       </c>
       <c r="E280" s="2">
-        <v>210</v>
+        <v>605</v>
       </c>
       <c r="F280" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G280" s="2">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H280" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I280" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J280" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K280" s="2"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="2" t="str">
-        <v>２連装ビームガン</v>
+        <v>１８０ｍｍキャノン</v>
       </c>
       <c r="B281" s="2">
         <v>2</v>
       </c>
       <c r="C281" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281" s="2">
-        <v>997</v>
+        <v>1800</v>
       </c>
       <c r="E281" s="2">
-        <v>205</v>
+        <v>600</v>
       </c>
       <c r="F281" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G281" s="2">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H281" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I281" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J281" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K281" s="2"/>
     </row>
@@ -53788,13 +53981,13 @@
         <v>2</v>
       </c>
       <c r="C282" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282" s="2">
-        <v>950</v>
+        <v>1045</v>
       </c>
       <c r="E282" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F282" s="2" t="str">
         <v>heat</v>
@@ -53815,25 +54008,25 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="2" t="str">
-        <v>２連装ビーム・ライフル</v>
+        <v>２連装ビームガン</v>
       </c>
       <c r="B283" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" s="2">
         <v>2</v>
       </c>
       <c r="D283" s="2">
-        <v>1050</v>
+        <v>997</v>
       </c>
       <c r="E283" s="2">
-        <v>505</v>
+        <v>205</v>
       </c>
       <c r="F283" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G283" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H283" s="2" t="str">
         <v>beam</v>
@@ -53842,31 +54035,31 @@
         <v>×</v>
       </c>
       <c r="J283" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K283" s="2"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="2" t="str">
-        <v>２連装ビーム・ライフル</v>
+        <v>２連装ビームガン</v>
       </c>
       <c r="B284" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" s="2">
         <v>1</v>
       </c>
       <c r="D284" s="2">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="E284" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F284" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G284" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H284" s="2" t="str">
         <v>beam</v>
@@ -53875,13 +54068,13 @@
         <v>×</v>
       </c>
       <c r="J284" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K284" s="2"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="2" t="str">
-        <v>２連装ビーム・ライフル[TB]</v>
+        <v>２連装ビーム・ライフル</v>
       </c>
       <c r="B285" s="2">
         <v>3</v>
@@ -53890,16 +54083,16 @@
         <v>2</v>
       </c>
       <c r="D285" s="2">
-        <v>945</v>
+        <v>1050</v>
       </c>
       <c r="E285" s="2">
-        <v>355</v>
+        <v>505</v>
       </c>
       <c r="F285" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G285" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H285" s="2" t="str">
         <v>beam</v>
@@ -53914,7 +54107,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="2" t="str">
-        <v>２連装ビーム・ライフル[TB]</v>
+        <v>２連装ビーム・ライフル</v>
       </c>
       <c r="B286" s="2">
         <v>3</v>
@@ -53923,16 +54116,16 @@
         <v>1</v>
       </c>
       <c r="D286" s="2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E286" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="F286" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G286" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H286" s="2" t="str">
         <v>beam</v>
@@ -53947,28 +54140,28 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="2" t="str">
-        <v>２８０ｍｍバズーカ</v>
+        <v>２連装ビーム・ライフル[TB]</v>
       </c>
       <c r="B287" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C287" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D287" s="2">
-        <v>1540</v>
+        <v>945</v>
       </c>
       <c r="E287" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F287" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G287" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H287" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I287" s="2" t="str">
         <v>×</v>
@@ -53980,28 +54173,28 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="2" t="str">
-        <v>２８０ｍｍバズーカ</v>
+        <v>２連装ビーム・ライフル[TB]</v>
       </c>
       <c r="B288" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C288" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288" s="2">
-        <v>1470</v>
+        <v>900</v>
       </c>
       <c r="E288" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="F288" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G288" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H288" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I288" s="2" t="str">
         <v>×</v>
@@ -54019,13 +54212,13 @@
         <v>1</v>
       </c>
       <c r="C289" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D289" s="2">
-        <v>1400</v>
+        <v>1540</v>
       </c>
       <c r="E289" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F289" s="2" t="str">
         <v>bullet</v>
@@ -54046,28 +54239,28 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="2" t="str">
-        <v>３連装ビーム・ライフル</v>
+        <v>２８０ｍｍバズーカ</v>
       </c>
       <c r="B290" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C290" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D290" s="2">
-        <v>750</v>
+        <v>1470</v>
       </c>
       <c r="E290" s="2">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="F290" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G290" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H290" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I290" s="2" t="str">
         <v>×</v>
@@ -54079,25 +54272,25 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="2" t="str">
-        <v>３連装ロケット・ランチャーｘ２</v>
+        <v>２８０ｍｍバズーカ</v>
       </c>
       <c r="B291" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C291" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D291" s="2">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E291" s="2">
-        <v>460</v>
+        <v>325</v>
       </c>
       <c r="F291" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G291" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H291" s="2" t="str">
         <v>ammo</v>
@@ -54112,28 +54305,28 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="2" t="str">
-        <v>３連装ロケット・ランチャーｘ２</v>
+        <v>３連装ビーム・ライフル</v>
       </c>
       <c r="B292" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C292" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D292" s="2">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="E292" s="2">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="F292" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G292" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H292" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I292" s="2" t="str">
         <v>×</v>
@@ -54151,13 +54344,13 @@
         <v>2</v>
       </c>
       <c r="C293" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D293" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E293" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F293" s="2" t="str">
         <v>bullet</v>
@@ -54178,25 +54371,25 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="2" t="str">
-        <v>４連装ガン・ランチャーｘ２</v>
+        <v>３連装ロケット・ランチャーｘ２</v>
       </c>
       <c r="B294" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D294" s="2">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="E294" s="2">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="F294" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G294" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H294" s="2" t="str">
         <v>ammo</v>
@@ -54211,25 +54404,25 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="2" t="str">
-        <v>４連装ガン・ランチャーｘ２</v>
+        <v>３連装ロケット・ランチャーｘ２</v>
       </c>
       <c r="B295" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D295" s="2">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="E295" s="2">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="F295" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G295" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H295" s="2" t="str">
         <v>ammo</v>
@@ -54250,13 +54443,13 @@
         <v>1</v>
       </c>
       <c r="C296" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D296" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E296" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F296" s="2" t="str">
         <v>bullet</v>
@@ -54283,13 +54476,13 @@
         <v>1</v>
       </c>
       <c r="C297" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D297" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E297" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F297" s="2" t="str">
         <v>bullet</v>
@@ -54310,25 +54503,25 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="2" t="str">
-        <v>４連装ボップ・ガン</v>
+        <v>４連装ガン・ランチャーｘ２</v>
       </c>
       <c r="B298" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" s="2">
         <v>2</v>
       </c>
       <c r="D298" s="2">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E298" s="2">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="F298" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G298" s="2">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H298" s="2" t="str">
         <v>ammo</v>
@@ -54343,25 +54536,25 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="2" t="str">
-        <v>４連装ボップ・ガン</v>
+        <v>４連装ガン・ランチャーｘ２</v>
       </c>
       <c r="B299" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C299" s="2">
         <v>1</v>
       </c>
       <c r="D299" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E299" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F299" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G299" s="2">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H299" s="2" t="str">
         <v>ammo</v>
@@ -54376,25 +54569,25 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="2" t="str">
-        <v>４連装ボップ・ミサイルｘ２</v>
+        <v>４連装ボップ・ガン</v>
       </c>
       <c r="B300" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C300" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E300" s="2">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="F300" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G300" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H300" s="2" t="str">
         <v>ammo</v>
@@ -54409,25 +54602,25 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="2" t="str">
-        <v>４連装ボップ・ミサイルｘ２</v>
+        <v>４連装ボップ・ガン</v>
       </c>
       <c r="B301" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C301" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D301" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E301" s="2">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="F301" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G301" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H301" s="2" t="str">
         <v>ammo</v>
@@ -54448,13 +54641,13 @@
         <v>1</v>
       </c>
       <c r="C302" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D302" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E302" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F302" s="2" t="str">
         <v>bullet</v>
@@ -54475,25 +54668,25 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="2" t="str">
-        <v>４連装１２０ｍｍ砲</v>
+        <v>４連装ボップ・ミサイルｘ２</v>
       </c>
       <c r="B303" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C303" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E303" s="2">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="F303" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G303" s="2">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H303" s="2" t="str">
         <v>ammo</v>
@@ -54502,31 +54695,31 @@
         <v>×</v>
       </c>
       <c r="J303" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K303" s="2"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="2" t="str">
-        <v>４連装１２０ｍｍ砲</v>
+        <v>４連装ボップ・ミサイルｘ２</v>
       </c>
       <c r="B304" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C304" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E304" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F304" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G304" s="2">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H304" s="2" t="str">
         <v>ammo</v>
@@ -54535,7 +54728,7 @@
         <v>×</v>
       </c>
       <c r="J304" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K304" s="2"/>
     </row>
@@ -54547,10 +54740,10 @@
         <v>2</v>
       </c>
       <c r="C305" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D305" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E305" s="2">
         <v>350</v>
@@ -54559,7 +54752,7 @@
         <v>bullet</v>
       </c>
       <c r="G305" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H305" s="2" t="str">
         <v>ammo</v>
@@ -54574,73 +54767,73 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="2" t="str">
-        <v>５連装メガ粒子砲ｘ２</v>
+        <v>４連装１２０ｍｍ砲</v>
       </c>
       <c r="B306" s="2">
         <v>2</v>
       </c>
       <c r="C306" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="E306" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F306" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G306" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H306" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I306" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J306" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K306" s="2"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="2" t="str">
-        <v>５連装メガ粒子砲ｘ２[低出力]</v>
+        <v>４連装１２０ｍｍ砲</v>
       </c>
       <c r="B307" s="2">
         <v>2</v>
       </c>
       <c r="C307" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307" s="2">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="E307" s="2">
-        <v>205</v>
+        <v>350</v>
       </c>
       <c r="F307" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G307" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H307" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I307" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J307" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K307" s="2"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="2" t="str">
-        <v>５連装メガ粒子砲ｘ２[低出力]</v>
+        <v>５連装メガ粒子砲ｘ２</v>
       </c>
       <c r="B308" s="2">
         <v>2</v>
@@ -54652,19 +54845,19 @@
         <v>200</v>
       </c>
       <c r="E308" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F308" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G308" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H308" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I308" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J308" s="2" t="str">
         <v>×</v>
@@ -54673,7 +54866,7 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="2" t="str">
-        <v>７５ｍｍスナイパー・ライフル</v>
+        <v>５連装メガ粒子砲ｘ２[低出力]</v>
       </c>
       <c r="B309" s="2">
         <v>2</v>
@@ -54682,19 +54875,19 @@
         <v>2</v>
       </c>
       <c r="D309" s="2">
-        <v>1760</v>
+        <v>210</v>
       </c>
       <c r="E309" s="2">
-        <v>805</v>
+        <v>205</v>
       </c>
       <c r="F309" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G309" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H309" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I309" s="2" t="str">
         <v>×</v>
@@ -54706,7 +54899,7 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="2" t="str">
-        <v>７５ｍｍスナイパー・ライフル</v>
+        <v>５連装メガ粒子砲ｘ２[低出力]</v>
       </c>
       <c r="B310" s="2">
         <v>2</v>
@@ -54715,19 +54908,19 @@
         <v>1</v>
       </c>
       <c r="D310" s="2">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="E310" s="2">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F310" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G310" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H310" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I310" s="2" t="str">
         <v>×</v>
@@ -54739,25 +54932,25 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="2" t="str">
-        <v>８連装ミサイル・ランチャー</v>
+        <v>７５ｍｍスナイパー・ライフル</v>
       </c>
       <c r="B311" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C311" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D311" s="2">
-        <v>165</v>
+        <v>1760</v>
       </c>
       <c r="E311" s="2">
-        <v>410</v>
+        <v>805</v>
       </c>
       <c r="F311" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G311" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H311" s="2" t="str">
         <v>ammo</v>
@@ -54772,25 +54965,25 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="2" t="str">
-        <v>８連装ミサイル・ランチャー</v>
+        <v>７５ｍｍスナイパー・ライフル</v>
       </c>
       <c r="B312" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C312" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" s="2">
-        <v>157</v>
+        <v>1600</v>
       </c>
       <c r="E312" s="2">
-        <v>405</v>
+        <v>800</v>
       </c>
       <c r="F312" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G312" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H312" s="2" t="str">
         <v>ammo</v>
@@ -54811,13 +55004,13 @@
         <v>3</v>
       </c>
       <c r="C313" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D313" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E313" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F313" s="2" t="str">
         <v>bullet</v>
@@ -54838,25 +55031,25 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="2" t="str">
-        <v>９０ｍｍサブマシンガンｘ２</v>
+        <v>８連装ミサイル・ランチャー</v>
       </c>
       <c r="B314" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C314" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314" s="2">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="E314" s="2">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="F314" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G314" s="2">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H314" s="2" t="str">
         <v>ammo</v>
@@ -54865,31 +55058,31 @@
         <v>×</v>
       </c>
       <c r="J314" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K314" s="2"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="2" t="str">
-        <v>９０ｍｍサブマシンガンｘ２</v>
+        <v>８連装ミサイル・ランチャー</v>
       </c>
       <c r="B315" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C315" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D315" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="E315" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F315" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G315" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H315" s="2" t="str">
         <v>ammo</v>
@@ -54898,7 +55091,7 @@
         <v>×</v>
       </c>
       <c r="J315" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K315" s="2"/>
     </row>
@@ -54910,10 +55103,10 @@
         <v>2</v>
       </c>
       <c r="C316" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D316" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E316" s="2">
         <v>100</v>
@@ -54922,7 +55115,7 @@
         <v>bullet</v>
       </c>
       <c r="G316" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H316" s="2" t="str">
         <v>ammo</v>
@@ -54937,7 +55130,7 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="2" t="str">
-        <v>９５ｍｍ狙撃ライフル</v>
+        <v>９０ｍｍサブマシンガンｘ２</v>
       </c>
       <c r="B317" s="2">
         <v>2</v>
@@ -54946,16 +55139,16 @@
         <v>2</v>
       </c>
       <c r="D317" s="2">
-        <v>2415</v>
+        <v>105</v>
       </c>
       <c r="E317" s="2">
-        <v>555</v>
+        <v>100</v>
       </c>
       <c r="F317" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G317" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H317" s="2" t="str">
         <v>ammo</v>
@@ -54964,13 +55157,13 @@
         <v>×</v>
       </c>
       <c r="J317" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K317" s="2"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="2" t="str">
-        <v>９５ｍｍ狙撃ライフル</v>
+        <v>９０ｍｍサブマシンガンｘ２</v>
       </c>
       <c r="B318" s="2">
         <v>2</v>
@@ -54979,16 +55172,16 @@
         <v>1</v>
       </c>
       <c r="D318" s="2">
-        <v>2300</v>
+        <v>100</v>
       </c>
       <c r="E318" s="2">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="F318" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G318" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H318" s="2" t="str">
         <v>ammo</v>
@@ -54997,13 +55190,13 @@
         <v>×</v>
       </c>
       <c r="J318" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K318" s="2"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="2" t="str">
-        <v>Ｄ・ゲルググ用ビーム・ライフル</v>
+        <v>９５ｍｍ狙撃ライフル</v>
       </c>
       <c r="B319" s="2">
         <v>2</v>
@@ -55012,19 +55205,19 @@
         <v>2</v>
       </c>
       <c r="D319" s="2">
-        <v>1575</v>
+        <v>2415</v>
       </c>
       <c r="E319" s="2">
-        <v>305</v>
+        <v>555</v>
       </c>
       <c r="F319" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G319" s="2">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H319" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I319" s="2" t="str">
         <v>×</v>
@@ -55036,7 +55229,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="2" t="str">
-        <v>Ｄ・ゲルググ用ビーム・ライフル</v>
+        <v>９５ｍｍ狙撃ライフル</v>
       </c>
       <c r="B320" s="2">
         <v>2</v>
@@ -55045,19 +55238,19 @@
         <v>1</v>
       </c>
       <c r="D320" s="2">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="E320" s="2">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="F320" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G320" s="2">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H320" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I320" s="2" t="str">
         <v>×</v>
@@ -55069,25 +55262,25 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="2" t="str">
-        <v>Ｅ－２ビーム・スプレーガン</v>
+        <v>Ｄ・ゲルググ用ビーム・ライフル</v>
       </c>
       <c r="B321" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D321" s="2">
-        <v>1100</v>
+        <v>1575</v>
       </c>
       <c r="E321" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F321" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G321" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H321" s="2" t="str">
         <v>beam</v>
@@ -55096,31 +55289,31 @@
         <v>×</v>
       </c>
       <c r="J321" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K321" s="2"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="2" t="str">
-        <v>Ｅ－２ビーム・スプレーガン</v>
+        <v>Ｄ・ゲルググ用ビーム・ライフル</v>
       </c>
       <c r="B322" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C322" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D322" s="2">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="E322" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F322" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G322" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H322" s="2" t="str">
         <v>beam</v>
@@ -55129,7 +55322,7 @@
         <v>×</v>
       </c>
       <c r="J322" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="K322" s="2"/>
     </row>
@@ -55141,13 +55334,13 @@
         <v>1</v>
       </c>
       <c r="C323" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D323" s="2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E323" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F323" s="2" t="str">
         <v>heat</v>
@@ -55168,25 +55361,25 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="2" t="str">
-        <v>ＦＡ陸戦用２連装ビーム・ライフル</v>
+        <v>Ｅ－２ビーム・スプレーガン</v>
       </c>
       <c r="B324" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C324" s="2">
         <v>2</v>
       </c>
       <c r="D324" s="2">
-        <v>450</v>
+        <v>1050</v>
       </c>
       <c r="E324" s="2">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="F324" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G324" s="2">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H324" s="2" t="str">
         <v>beam</v>
@@ -55195,31 +55388,31 @@
         <v>×</v>
       </c>
       <c r="J324" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K324" s="2"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="2" t="str">
-        <v>ＦＡ陸戦用２連装ビーム・ライフル</v>
+        <v>Ｅ－２ビーム・スプレーガン</v>
       </c>
       <c r="B325" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C325" s="2">
         <v>1</v>
       </c>
       <c r="D325" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E325" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F325" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G325" s="2">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H325" s="2" t="str">
         <v>beam</v>
@@ -55228,70 +55421,70 @@
         <v>×</v>
       </c>
       <c r="J325" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K325" s="2"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="2" t="str">
-        <v>Ｇガンダム用ビーム・ライフル</v>
+        <v>ＦＡ陸戦用２連装ビーム・ライフル</v>
       </c>
       <c r="B326" s="2">
         <v>2</v>
       </c>
       <c r="C326" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D326" s="2">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="E326" s="2">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="F326" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G326" s="2">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H326" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I326" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J326" s="2" t="str">
         <v>×</v>
       </c>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" ht="27" customHeight="1">
+    <row r="327" spans="1:11">
       <c r="A327" s="2" t="str">
-        <v>Ｇ・テトラ用ビーム・マシンガン</v>
+        <v>ＦＡ陸戦用２連装ビーム・ライフル</v>
       </c>
       <c r="B327" s="2">
         <v>2</v>
       </c>
       <c r="C327" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327" s="2">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="E327" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F327" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G327" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H327" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I327" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J327" s="2" t="str">
         <v>×</v>
@@ -55300,7 +55493,7 @@
     </row>
     <row r="328" spans="1:11" ht="27" customHeight="1">
       <c r="A328" s="2" t="str">
-        <v>Ｇ・テトラ用ビーム・マシンガン</v>
+        <v>Ｇガンダム用ビーム・ライフル</v>
       </c>
       <c r="B328" s="2">
         <v>2</v>
@@ -55309,16 +55502,16 @@
         <v>1</v>
       </c>
       <c r="D328" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E328" s="2">
         <v>500</v>
-      </c>
-      <c r="E328" s="2">
-        <v>350</v>
       </c>
       <c r="F328" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G328" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="H328" s="2" t="str">
         <v>beam</v>
@@ -55333,7 +55526,7 @@
     </row>
     <row r="329" spans="1:11" ht="27" customHeight="1">
       <c r="A329" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
+        <v>Ｇ・テトラ用ビーム・マシンガン</v>
       </c>
       <c r="B329" s="2">
         <v>2</v>
@@ -55342,7 +55535,7 @@
         <v>2</v>
       </c>
       <c r="D329" s="2">
-        <v>1680</v>
+        <v>525</v>
       </c>
       <c r="E329" s="2">
         <v>355</v>
@@ -55351,24 +55544,22 @@
         <v>heat</v>
       </c>
       <c r="G329" s="2">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H329" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I329" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J329" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K329" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
-      </c>
+      <c r="K329" s="2"/>
     </row>
     <row r="330" spans="1:11" ht="27" customHeight="1">
       <c r="A330" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
+        <v>Ｇ・テトラ用ビーム・マシンガン</v>
       </c>
       <c r="B330" s="2">
         <v>2</v>
@@ -55377,7 +55568,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="2">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="E330" s="2">
         <v>350</v>
@@ -55386,89 +55577,87 @@
         <v>heat</v>
       </c>
       <c r="G330" s="2">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H330" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I330" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J330" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K330" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
-      </c>
+      <c r="K330" s="2"/>
     </row>
     <row r="331" spans="1:11" ht="27" customHeight="1">
       <c r="A331" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
       </c>
       <c r="B331" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D331" s="2">
-        <v>1782</v>
+        <v>1680</v>
       </c>
       <c r="E331" s="2">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="F331" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G331" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H331" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I331" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J331" s="2" t="str">
         <v>×</v>
       </c>
       <c r="K331" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
       </c>
     </row>
     <row r="332" spans="1:11" ht="27" customHeight="1">
       <c r="A332" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
       </c>
       <c r="B332" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C332" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D332" s="2">
-        <v>1705</v>
+        <v>1600</v>
       </c>
       <c r="E332" s="2">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="F332" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G332" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H332" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I332" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J332" s="2" t="str">
         <v>×</v>
       </c>
       <c r="K332" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
       </c>
     </row>
     <row r="333" spans="1:11" ht="27" customHeight="1">
@@ -55479,13 +55668,13 @@
         <v>3</v>
       </c>
       <c r="C333" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D333" s="2">
-        <v>1627</v>
+        <v>1782</v>
       </c>
       <c r="E333" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F333" s="2" t="str">
         <v>heat</v>
@@ -55514,13 +55703,13 @@
         <v>3</v>
       </c>
       <c r="C334" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D334" s="2">
-        <v>1550</v>
+        <v>1705</v>
       </c>
       <c r="E334" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F334" s="2" t="str">
         <v>heat</v>
@@ -55543,25 +55732,25 @@
     </row>
     <row r="335" spans="1:11" ht="27" customHeight="1">
       <c r="A335" s="2" t="str">
-        <v>ＧＭ指揮官用ビーム・ライフル</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B335" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C335" s="2">
         <v>2</v>
       </c>
       <c r="D335" s="2">
-        <v>420</v>
+        <v>1627</v>
       </c>
       <c r="E335" s="2">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="F335" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G335" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H335" s="2" t="str">
         <v>beam</v>
@@ -55572,29 +55761,31 @@
       <c r="J335" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K335" s="2"/>
+      <c r="K335" s="2" t="str">
+        <v>Ｂライフル付属スーパー・ナパーム</v>
+      </c>
     </row>
     <row r="336" spans="1:11" ht="27" customHeight="1">
       <c r="A336" s="2" t="str">
-        <v>ＧＭ指揮官用ビーム・ライフル</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B336" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C336" s="2">
         <v>1</v>
       </c>
       <c r="D336" s="2">
+        <v>1550</v>
+      </c>
+      <c r="E336" s="2">
         <v>400</v>
-      </c>
-      <c r="E336" s="2">
-        <v>350</v>
       </c>
       <c r="F336" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G336" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H336" s="2" t="str">
         <v>beam</v>
@@ -55605,11 +55796,13 @@
       <c r="J336" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K336" s="2"/>
+      <c r="K336" s="2" t="str">
+        <v>Ｂライフル付属スーパー・ナパーム</v>
+      </c>
     </row>
     <row r="337" spans="1:11" ht="27" customHeight="1">
       <c r="A337" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＭ指揮官用ビーム・ライフル</v>
       </c>
       <c r="B337" s="2">
         <v>2</v>
@@ -55618,7 +55811,7 @@
         <v>2</v>
       </c>
       <c r="D337" s="2">
-        <v>1785</v>
+        <v>420</v>
       </c>
       <c r="E337" s="2">
         <v>355</v>
@@ -55627,7 +55820,7 @@
         <v>heat</v>
       </c>
       <c r="G337" s="2">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H337" s="2" t="str">
         <v>beam</v>
@@ -55638,140 +55831,140 @@
       <c r="J337" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K337" s="4" t="str">
+      <c r="K337" s="2"/>
+    </row>
+    <row r="338" spans="1:11" ht="27" customHeight="1">
+      <c r="A338" s="2" t="str">
+        <v>ＧＭ指揮官用ビーム・ライフル</v>
+      </c>
+      <c r="B338" s="2">
+        <v>2</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1</v>
+      </c>
+      <c r="D338" s="2">
+        <v>400</v>
+      </c>
+      <c r="E338" s="2">
+        <v>350</v>
+      </c>
+      <c r="F338" s="2" t="str">
+        <v>heat</v>
+      </c>
+      <c r="G338" s="2">
+        <v>11</v>
+      </c>
+      <c r="H338" s="2" t="str">
+        <v>beam</v>
+      </c>
+      <c r="I338" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="J338" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="K338" s="2"/>
+    </row>
+    <row r="339" spans="1:11" ht="27" customHeight="1">
+      <c r="A339" s="2" t="str">
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2</v>
+      </c>
+      <c r="C339" s="2">
+        <v>2</v>
+      </c>
+      <c r="D339" s="2">
+        <v>1785</v>
+      </c>
+      <c r="E339" s="2">
+        <v>355</v>
+      </c>
+      <c r="F339" s="2" t="str">
+        <v>heat</v>
+      </c>
+      <c r="G339" s="2">
+        <v>55</v>
+      </c>
+      <c r="H339" s="2" t="str">
+        <v>beam</v>
+      </c>
+      <c r="I339" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="J339" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="K339" s="4" t="str">
         <v>ＧＲ型用Ｂ・ライフル直結状態
 ゲルググＲ型用ＢＲ付属グレネード</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="27" customHeight="1">
-      <c r="A338" s="2" t="str">
+    <row r="340" spans="1:11" ht="27">
+      <c r="A340" s="2" t="str">
         <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
-      <c r="B338" s="2">
-        <v>2</v>
-      </c>
-      <c r="C338" s="2">
-        <v>1</v>
-      </c>
-      <c r="D338" s="2">
+      <c r="B340" s="2">
+        <v>2</v>
+      </c>
+      <c r="C340" s="2">
+        <v>1</v>
+      </c>
+      <c r="D340" s="2">
         <v>1700</v>
       </c>
-      <c r="E338" s="2">
+      <c r="E340" s="2">
         <v>350</v>
       </c>
-      <c r="F338" s="2" t="str">
+      <c r="F340" s="2" t="str">
         <v>heat</v>
       </c>
-      <c r="G338" s="2">
+      <c r="G340" s="2">
         <v>55</v>
       </c>
-      <c r="H338" s="2" t="str">
+      <c r="H340" s="2" t="str">
         <v>beam</v>
       </c>
-      <c r="I338" s="2" t="str">
-        <v>○</v>
-      </c>
-      <c r="J338" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="K338" s="4" t="str">
+      <c r="I340" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="J340" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="K340" s="4" t="str">
         <v>ＧＲ型用Ｂ・ライフル直結状態
 ゲルググＲ型用ＢＲ付属グレネード</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
-      <c r="A339" s="2" t="str">
-        <v>ＨＧ用ビーム・カノン</v>
-      </c>
-      <c r="B339" s="2">
-        <v>1</v>
-      </c>
-      <c r="C339" s="2">
-        <v>2</v>
-      </c>
-      <c r="D339" s="2">
-        <v>420</v>
-      </c>
-      <c r="E339" s="2">
-        <v>305</v>
-      </c>
-      <c r="F339" s="2" t="str">
-        <v>heat</v>
-      </c>
-      <c r="G339" s="2">
-        <v>25</v>
-      </c>
-      <c r="H339" s="2" t="str">
-        <v>beam</v>
-      </c>
-      <c r="I339" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J339" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="K339" s="2"/>
-    </row>
-    <row r="340" spans="1:11">
-      <c r="A340" s="2" t="str">
-        <v>ＨＧ用ビーム・カノン</v>
-      </c>
-      <c r="B340" s="2">
-        <v>1</v>
-      </c>
-      <c r="C340" s="2">
-        <v>1</v>
-      </c>
-      <c r="D340" s="2">
-        <v>400</v>
-      </c>
-      <c r="E340" s="2">
-        <v>300</v>
-      </c>
-      <c r="F340" s="2" t="str">
-        <v>heat</v>
-      </c>
-      <c r="G340" s="2">
-        <v>25</v>
-      </c>
-      <c r="H340" s="2" t="str">
-        <v>beam</v>
-      </c>
-      <c r="I340" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J340" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="K340" s="2"/>
-    </row>
     <row r="341" spans="1:11">
       <c r="A341" s="2" t="str">
-        <v>Ｌ・ビーム・ライフル[改修型]</v>
+        <v>ＨＧ用ビーム・カノン</v>
       </c>
       <c r="B341" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C341" s="2">
         <v>2</v>
       </c>
       <c r="D341" s="2">
-        <v>1680</v>
+        <v>420</v>
       </c>
       <c r="E341" s="2">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="F341" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G341" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H341" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I341" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J341" s="2" t="str">
         <v>×</v>
@@ -55780,31 +55973,31 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="2" t="str">
-        <v>Ｌ・ビーム・ライフル[改修型]</v>
+        <v>ＨＧ用ビーム・カノン</v>
       </c>
       <c r="B342" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C342" s="2">
         <v>1</v>
       </c>
       <c r="D342" s="2">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E342" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F342" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G342" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H342" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I342" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J342" s="2" t="str">
         <v>×</v>
@@ -55813,73 +56006,69 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>Ｌ・ビーム・ライフル[改修型]</v>
       </c>
       <c r="B343" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C343" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D343" s="2">
-        <v>198</v>
+        <v>1680</v>
       </c>
       <c r="E343" s="2">
-        <v>250</v>
+        <v>505</v>
       </c>
       <c r="F343" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G343" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H343" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I343" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J343" s="2" t="str">
-        <v>○</v>
-      </c>
-      <c r="K343" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
-      </c>
+        <v>×</v>
+      </c>
+      <c r="K343" s="2"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>Ｌ・ビーム・ライフル[改修型]</v>
       </c>
       <c r="B344" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C344" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344" s="2">
-        <v>190</v>
+        <v>1600</v>
       </c>
       <c r="E344" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F344" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G344" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H344" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I344" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J344" s="2" t="str">
-        <v>○</v>
-      </c>
-      <c r="K344" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
-      </c>
+        <v>×</v>
+      </c>
+      <c r="K344" s="2"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="2" t="str">
@@ -55889,10 +56078,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D345" s="2">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E345" s="2">
         <v>250</v>
@@ -55901,7 +56090,7 @@
         <v>bullet</v>
       </c>
       <c r="G345" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H345" s="2" t="str">
         <v>ammo</v>
@@ -55924,10 +56113,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D346" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E346" s="2">
         <v>250</v>
@@ -55936,7 +56125,7 @@
         <v>bullet</v>
       </c>
       <c r="G346" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H346" s="2" t="str">
         <v>ammo</v>
@@ -55953,25 +56142,25 @@
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B347" s="2">
         <v>1</v>
       </c>
       <c r="C347" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D347" s="2">
-        <v>850</v>
+        <v>181</v>
       </c>
       <c r="E347" s="2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="F347" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G347" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H347" s="2" t="str">
         <v>ammo</v>
@@ -55988,25 +56177,25 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B348" s="2">
         <v>1</v>
       </c>
       <c r="C348" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D348" s="2">
-        <v>800</v>
+        <v>173</v>
       </c>
       <c r="E348" s="2">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="F348" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G348" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H348" s="2" t="str">
         <v>ammo</v>
@@ -56029,13 +56218,13 @@
         <v>1</v>
       </c>
       <c r="C349" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D349" s="2">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="E349" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F349" s="2" t="str">
         <v>bullet</v>
@@ -56058,25 +56247,25 @@
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B350" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C350" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D350" s="2">
-        <v>175</v>
+        <v>800</v>
       </c>
       <c r="E350" s="2">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="F350" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G350" s="2">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H350" s="2" t="str">
         <v>ammo</v>
@@ -56087,29 +56276,31 @@
       <c r="J350" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K350" s="2"/>
+      <c r="K350" s="2" t="str">
+        <v>ＭＭＰ－７８付属グレネード</v>
+      </c>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B351" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C351" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D351" s="2">
-        <v>167</v>
+        <v>750</v>
       </c>
       <c r="E351" s="2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F351" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G351" s="2">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H351" s="2" t="str">
         <v>ammo</v>
@@ -56120,7 +56311,9 @@
       <c r="J351" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K351" s="2"/>
+      <c r="K351" s="2" t="str">
+        <v>ＭＭＰ－７８付属グレネード</v>
+      </c>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="2" t="str">
@@ -56130,10 +56323,10 @@
         <v>2</v>
       </c>
       <c r="C352" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D352" s="2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E352" s="2">
         <v>200</v>
@@ -56142,7 +56335,7 @@
         <v>bullet</v>
       </c>
       <c r="G352" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H352" s="2" t="str">
         <v>ammo</v>
@@ -56163,10 +56356,10 @@
         <v>2</v>
       </c>
       <c r="C353" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D353" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E353" s="2">
         <v>200</v>
@@ -56175,7 +56368,7 @@
         <v>bullet</v>
       </c>
       <c r="G353" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H353" s="2" t="str">
         <v>ammo</v>
@@ -56196,10 +56389,10 @@
         <v>2</v>
       </c>
       <c r="C354" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D354" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E354" s="2">
         <v>200</v>
@@ -56208,7 +56401,7 @@
         <v>bullet</v>
       </c>
       <c r="G354" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H354" s="2" t="str">
         <v>ammo</v>
@@ -56223,16 +56416,16 @@
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="B355" s="2">
         <v>2</v>
       </c>
       <c r="C355" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D355" s="2">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E355" s="2">
         <v>200</v>
@@ -56241,7 +56434,7 @@
         <v>bullet</v>
       </c>
       <c r="G355" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H355" s="2" t="str">
         <v>ammo</v>
@@ -56252,22 +56445,20 @@
       <c r="J355" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K355" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
-      </c>
+      <c r="K355" s="2"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="B356" s="2">
         <v>2</v>
       </c>
       <c r="C356" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D356" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E356" s="2">
         <v>200</v>
@@ -56276,7 +56467,7 @@
         <v>bullet</v>
       </c>
       <c r="G356" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H356" s="2" t="str">
         <v>ammo</v>
@@ -56287,9 +56478,7 @@
       <c r="J356" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K356" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
-      </c>
+      <c r="K356" s="2"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="2" t="str">
@@ -56299,10 +56488,10 @@
         <v>2</v>
       </c>
       <c r="C357" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D357" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E357" s="2">
         <v>200</v>
@@ -56311,7 +56500,7 @@
         <v>bullet</v>
       </c>
       <c r="G357" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H357" s="2" t="str">
         <v>ammo</v>
@@ -56334,10 +56523,10 @@
         <v>2</v>
       </c>
       <c r="C358" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D358" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E358" s="2">
         <v>200</v>
@@ -56346,7 +56535,7 @@
         <v>bullet</v>
       </c>
       <c r="G358" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H358" s="2" t="str">
         <v>ammo</v>
@@ -56363,25 +56552,25 @@
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガンｘ２</v>
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
       <c r="B359" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C359" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D359" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="E359" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F359" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G359" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H359" s="2" t="str">
         <v>ammo</v>
@@ -56392,29 +56581,31 @@
       <c r="J359" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K359" s="2"/>
+      <c r="K359" s="2" t="str">
+        <v>ＭＭＰ－８０付属グレネード</v>
+      </c>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガンｘ２</v>
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
       <c r="B360" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C360" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D360" s="2">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="E360" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F360" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G360" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H360" s="2" t="str">
         <v>ammo</v>
@@ -56425,7 +56616,9 @@
       <c r="J360" s="2" t="str">
         <v>○</v>
       </c>
-      <c r="K360" s="2"/>
+      <c r="K360" s="2" t="str">
+        <v>ＭＭＰ－８０付属グレネード</v>
+      </c>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="2" t="str">
@@ -56435,10 +56628,10 @@
         <v>1</v>
       </c>
       <c r="C361" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D361" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E361" s="2">
         <v>400</v>
@@ -56447,7 +56640,7 @@
         <v>bullet</v>
       </c>
       <c r="G361" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H361" s="2" t="str">
         <v>ammo</v>
@@ -56462,67 +56655,67 @@
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="2" t="str">
-        <v>Ｐガンダム用ビーム・ライフル</v>
+        <v>ＭＭＰ－８０マシンガンｘ２</v>
       </c>
       <c r="B362" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D362" s="2">
-        <v>1375</v>
+        <v>92</v>
       </c>
       <c r="E362" s="2">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="F362" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G362" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H362" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I362" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J362" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K362" s="2"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="2" t="str">
-        <v>Ｐガンダム用ビーム・ライフル</v>
+        <v>ＭＭＰ－８０マシンガンｘ２</v>
       </c>
       <c r="B363" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C363" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D363" s="2">
-        <v>1312</v>
+        <v>88</v>
       </c>
       <c r="E363" s="2">
-        <v>305</v>
+        <v>400</v>
       </c>
       <c r="F363" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G363" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H363" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I363" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J363" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="K363" s="2"/>
     </row>
@@ -56534,13 +56727,13 @@
         <v>2</v>
       </c>
       <c r="C364" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D364" s="2">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="E364" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F364" s="2" t="str">
         <v>heat</v>
@@ -56561,28 +56754,28 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="2" t="str">
-        <v>Ｒ・ＤII用ジャイアント・バズ</v>
+        <v>Ｐガンダム用ビーム・ライフル</v>
       </c>
       <c r="B365" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C365" s="2">
         <v>2</v>
       </c>
       <c r="D365" s="2">
-        <v>1995</v>
+        <v>1312</v>
       </c>
       <c r="E365" s="2">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="F365" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G365" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H365" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I365" s="2" t="str">
         <v>×</v>
@@ -56594,28 +56787,28 @@
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="2" t="str">
-        <v>Ｒ・ＤII用ジャイアント・バズ</v>
+        <v>Ｐガンダム用ビーム・ライフル</v>
       </c>
       <c r="B366" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C366" s="2">
         <v>1</v>
       </c>
       <c r="D366" s="2">
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="E366" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F366" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G366" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H366" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I366" s="2" t="str">
         <v>×</v>
@@ -56627,31 +56820,31 @@
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="2" t="str">
-        <v>Ｒ－４タイプ・ビーム・ライフル</v>
+        <v>Ｒ・ＤII用ジャイアント・バズ</v>
       </c>
       <c r="B367" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C367" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D367" s="2">
-        <v>2200</v>
+        <v>1995</v>
       </c>
       <c r="E367" s="2">
-        <v>660</v>
+        <v>355</v>
       </c>
       <c r="F367" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G367" s="2">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H367" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I367" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J367" s="2" t="str">
         <v>×</v>
@@ -56660,31 +56853,31 @@
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="2" t="str">
-        <v>Ｒ－４タイプ・ビーム・ライフル</v>
+        <v>Ｒ・ＤII用ジャイアント・バズ</v>
       </c>
       <c r="B368" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C368" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D368" s="2">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E368" s="2">
-        <v>655</v>
+        <v>350</v>
       </c>
       <c r="F368" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G368" s="2">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H368" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I368" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J368" s="2" t="str">
         <v>×</v>
@@ -56699,13 +56892,13 @@
         <v>2</v>
       </c>
       <c r="C369" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D369" s="2">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E369" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="F369" s="2" t="str">
         <v>heat</v>
@@ -56725,64 +56918,65 @@
       <c r="K369" s="2"/>
     </row>
     <row r="370" spans="1:11">
-      <c r="A370" s="3" t="str">
-        <v>Ｚガンダム用ビーム・ライフル</v>
-      </c>
-      <c r="B370" s="3">
-        <v>2</v>
-      </c>
-      <c r="C370" s="3">
-        <v>1</v>
-      </c>
-      <c r="D370" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E370" s="3">
-        <v>450</v>
+      <c r="A370" s="2" t="str">
+        <v>Ｒ－４タイプ・ビーム・ライフル</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="2">
+        <v>2</v>
+      </c>
+      <c r="D370" s="2">
+        <v>2100</v>
+      </c>
+      <c r="E370" s="2">
+        <v>655</v>
       </c>
       <c r="F370" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G370" s="3">
-        <v>6</v>
+        <v>heat</v>
+      </c>
+      <c r="G370" s="2">
+        <v>65</v>
       </c>
       <c r="H370" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I370" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J370" s="2" t="str">
         <v>×</v>
       </c>
+      <c r="K370" s="2"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="2" t="str">
-        <v>ＺＥ用ビーム・カノン</v>
+        <v>Ｒ－４タイプ・ビーム・ライフル</v>
       </c>
       <c r="B371" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C371" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D371" s="2">
-        <v>880</v>
+        <v>2000</v>
       </c>
       <c r="E371" s="2">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="F371" s="2" t="str">
         <v>heat</v>
       </c>
       <c r="G371" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H371" s="2" t="str">
         <v>beam</v>
       </c>
       <c r="I371" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
       <c r="J371" s="2" t="str">
         <v>×</v>
@@ -56790,26 +56984,26 @@
       <c r="K371" s="2"/>
     </row>
     <row r="372" spans="1:11">
-      <c r="A372" s="2" t="str">
-        <v>ＺＥ用ビーム・カノン</v>
-      </c>
-      <c r="B372" s="2">
-        <v>1</v>
-      </c>
-      <c r="C372" s="2">
-        <v>2</v>
-      </c>
-      <c r="D372" s="2">
-        <v>840</v>
-      </c>
-      <c r="E372" s="2">
-        <v>305</v>
+      <c r="A372" s="3" t="str">
+        <v>Ｚガンダム用ビーム・ライフル</v>
+      </c>
+      <c r="B372" s="3">
+        <v>2</v>
+      </c>
+      <c r="C372" s="3">
+        <v>1</v>
+      </c>
+      <c r="D372" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E372" s="3">
+        <v>450</v>
       </c>
       <c r="F372" s="2" t="str">
-        <v>heat</v>
-      </c>
-      <c r="G372" s="2">
-        <v>30</v>
+        <v>bullet</v>
+      </c>
+      <c r="G372" s="3">
+        <v>6</v>
       </c>
       <c r="H372" s="2" t="str">
         <v>beam</v>
@@ -56820,7 +57014,6 @@
       <c r="J372" s="2" t="str">
         <v>×</v>
       </c>
-      <c r="K372" s="2"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="2" t="str">
@@ -56830,13 +57023,13 @@
         <v>1</v>
       </c>
       <c r="C373" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D373" s="2">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="E373" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F373" s="2" t="str">
         <v>heat</v>
@@ -56854,6 +57047,72 @@
         <v>×</v>
       </c>
       <c r="K373" s="2"/>
+    </row>
+    <row r="374" spans="1:11">
+      <c r="A374" s="2" t="str">
+        <v>ＺＥ用ビーム・カノン</v>
+      </c>
+      <c r="B374" s="2">
+        <v>1</v>
+      </c>
+      <c r="C374" s="2">
+        <v>2</v>
+      </c>
+      <c r="D374" s="2">
+        <v>840</v>
+      </c>
+      <c r="E374" s="2">
+        <v>305</v>
+      </c>
+      <c r="F374" s="2" t="str">
+        <v>heat</v>
+      </c>
+      <c r="G374" s="2">
+        <v>30</v>
+      </c>
+      <c r="H374" s="2" t="str">
+        <v>beam</v>
+      </c>
+      <c r="I374" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J374" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="K374" s="2"/>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" s="2" t="str">
+        <v>ＺＥ用ビーム・カノン</v>
+      </c>
+      <c r="B375" s="2">
+        <v>1</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1</v>
+      </c>
+      <c r="D375" s="2">
+        <v>800</v>
+      </c>
+      <c r="E375" s="2">
+        <v>300</v>
+      </c>
+      <c r="F375" s="2" t="str">
+        <v>heat</v>
+      </c>
+      <c r="G375" s="2">
+        <v>30</v>
+      </c>
+      <c r="H375" s="2" t="str">
+        <v>beam</v>
+      </c>
+      <c r="I375" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J375" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="K375" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
@@ -60117,13 +60376,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1254"/>
+  <dimension ref="A1:J1258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1029" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A164" sqref="A164:J173"/>
+      <selection pane="bottomRight" activeCell="D1046" sqref="D1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -65008,16 +65267,16 @@
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="5" t="str">
+      <c r="A164" s="2" t="str">
         <v>ガンダム試作１号機</v>
       </c>
-      <c r="B164" s="5" t="str">
+      <c r="B164" s="2" t="str">
         <v>ガンダム試作１号機シールド</v>
       </c>
-      <c r="C164" s="5">
-        <v>2</v>
-      </c>
-      <c r="D164" s="5">
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2">
         <v>4400</v>
       </c>
       <c r="E164" s="2" t="str">
@@ -65056,16 +65315,16 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="5" t="str">
+      <c r="A166" s="2" t="str">
         <v>ガンダム試作１号機</v>
       </c>
-      <c r="B166" s="5" t="str">
+      <c r="B166" s="2" t="str">
         <v>頭部バルカン[後期型]</v>
       </c>
-      <c r="C166" s="5">
-        <v>2</v>
-      </c>
-      <c r="D166" s="5">
+      <c r="C166" s="2">
+        <v>2</v>
+      </c>
+      <c r="D166" s="2">
         <v>70</v>
       </c>
       <c r="E166" s="2">
@@ -65176,17 +65435,17 @@
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="5" t="str">
+      <c r="A170" s="2" t="str">
         <v>ガンダム試作２号機
 [BB仕様]</v>
       </c>
-      <c r="B170" s="5" t="str">
+      <c r="B170" s="2" t="str">
         <v>ラジエーターシールド</v>
       </c>
-      <c r="C170" s="5">
-        <v>2</v>
-      </c>
-      <c r="D170" s="5">
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2">
         <v>22500</v>
       </c>
       <c r="E170" s="2" t="str">
@@ -65226,17 +65485,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="5" t="str">
+      <c r="A172" s="2" t="str">
         <v>ガンダム試作２号機
 [BB仕様]</v>
       </c>
-      <c r="B172" s="5" t="str">
+      <c r="B172" s="2" t="str">
         <v>頭部バルカン[強化II型]</v>
       </c>
-      <c r="C172" s="5">
-        <v>2</v>
-      </c>
-      <c r="D172" s="5">
+      <c r="C172" s="2">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2">
         <v>94</v>
       </c>
       <c r="E172" s="2">
@@ -68547,16 +68806,16 @@
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="5" t="str">
+      <c r="A287" s="2" t="str">
         <v>ゲルググJ</v>
       </c>
-      <c r="B287" s="5" t="str">
+      <c r="B287" s="2" t="str">
         <v>ビーム・スポットガン</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" s="2">
         <v>4</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="2">
         <v>287</v>
       </c>
       <c r="E287" s="2">
@@ -68675,16 +68934,16 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="5" t="str">
+      <c r="A291" s="2" t="str">
         <v>ゲルググJ</v>
       </c>
-      <c r="B291" s="5" t="str">
+      <c r="B291" s="2" t="str">
         <v>頭部バルカン[後期型]</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="2">
         <v>4</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="2">
         <v>92</v>
       </c>
       <c r="E291" s="2">
@@ -91342,185 +91601,209 @@
       </c>
     </row>
     <row r="1039" spans="1:10">
-      <c r="A1039" s="2" t="str">
-        <v>陸戦高機動型ザク</v>
-      </c>
-      <c r="B1039" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
-      </c>
-      <c r="C1039" s="2">
-        <v>3</v>
-      </c>
-      <c r="D1039" s="2">
-        <v>1925</v>
-      </c>
-      <c r="E1039" s="2">
+      <c r="A1039" s="5" t="str">
+        <v>陸戦用ジム</v>
+      </c>
+      <c r="B1039" s="5" t="str">
+        <v>頭部バルカン</v>
+      </c>
+      <c r="C1039" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1039" s="5">
+        <v>52</v>
+      </c>
+      <c r="E1039" s="5">
         <v>150</v>
       </c>
       <c r="F1039" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G1039" s="2">
-        <v>3</v>
+      <c r="G1039" s="5">
+        <v>30</v>
       </c>
       <c r="H1039" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I1039" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1039" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1040" spans="1:10">
-      <c r="A1040" s="2" t="str">
-        <v>陸戦高機動型ザク</v>
-      </c>
-      <c r="B1040" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
-      </c>
-      <c r="C1040" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1040" s="2">
-        <v>1837</v>
-      </c>
-      <c r="E1040" s="2">
+      <c r="A1040" s="5" t="str">
+        <v>陸戦用ジム</v>
+      </c>
+      <c r="B1040" s="5" t="str">
+        <v>頭部バルカン</v>
+      </c>
+      <c r="C1040" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1040" s="5">
+        <v>50</v>
+      </c>
+      <c r="E1040" s="5">
         <v>150</v>
       </c>
       <c r="F1040" s="2" t="str">
         <v>bullet</v>
       </c>
-      <c r="G1040" s="2">
-        <v>3</v>
+      <c r="G1040" s="5">
+        <v>30</v>
       </c>
       <c r="H1040" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I1040" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1040" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1041" spans="1:10">
-      <c r="A1041" s="2" t="str">
-        <v>陸戦高機動型ザク</v>
-      </c>
-      <c r="B1041" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
-      </c>
-      <c r="C1041" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1041" s="2">
-        <v>1750</v>
-      </c>
-      <c r="E1041" s="2">
-        <v>150</v>
-      </c>
-      <c r="F1041" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G1041" s="2">
-        <v>3</v>
-      </c>
-      <c r="H1041" s="2" t="str">
-        <v>other</v>
+      <c r="A1041" s="5" t="str">
+        <v>陸戦用ジム</v>
+      </c>
+      <c r="B1041" s="5" t="str">
+        <v>７９Ｆ－１型</v>
+      </c>
+      <c r="C1041" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1041" s="5">
+        <v>525</v>
+      </c>
+      <c r="E1041" s="5">
+        <v>200</v>
+      </c>
+      <c r="F1041" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1041" s="5">
+        <v>50</v>
+      </c>
+      <c r="H1041" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="I1041" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1041" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1042" spans="1:10">
-      <c r="A1042" s="2" t="str">
-        <v>高機動型ゲルググ</v>
-      </c>
-      <c r="B1042" s="2" t="str">
-        <v>ゲルググシールド</v>
-      </c>
-      <c r="C1042" s="2">
-        <v>3</v>
-      </c>
-      <c r="D1042" s="2">
-        <v>4800</v>
-      </c>
-      <c r="E1042" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F1042" s="2"/>
-      <c r="G1042" s="2"/>
-      <c r="H1042" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I1042" s="2"/>
-      <c r="J1042" s="2"/>
+      <c r="A1042" s="5" t="str">
+        <v>陸戦用ジム</v>
+      </c>
+      <c r="B1042" s="5" t="str">
+        <v>７９Ｆ－１型</v>
+      </c>
+      <c r="C1042" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1042" s="5">
+        <v>500</v>
+      </c>
+      <c r="E1042" s="5">
+        <v>200</v>
+      </c>
+      <c r="F1042" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1042" s="5">
+        <v>50</v>
+      </c>
+      <c r="H1042" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1042" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1042" s="2" t="str">
+        <v>○</v>
+      </c>
     </row>
     <row r="1043" spans="1:10">
       <c r="A1043" s="2" t="str">
-        <v>高機動型ゲルググ</v>
+        <v>陸戦高機動型ザク</v>
       </c>
       <c r="B1043" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C1043" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1043" s="2">
-        <v>4400</v>
-      </c>
-      <c r="E1043" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F1043" s="2"/>
-      <c r="G1043" s="2"/>
+        <v>1925</v>
+      </c>
+      <c r="E1043" s="2">
+        <v>150</v>
+      </c>
+      <c r="F1043" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1043" s="2">
+        <v>3</v>
+      </c>
       <c r="H1043" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I1043" s="2"/>
-      <c r="J1043" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I1043" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1043" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="1044" spans="1:10">
       <c r="A1044" s="2" t="str">
-        <v>高機動型ゲルググ</v>
+        <v>陸戦高機動型ザク</v>
       </c>
       <c r="B1044" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C1044" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1044" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E1044" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F1044" s="2"/>
-      <c r="G1044" s="2"/>
+        <v>1837</v>
+      </c>
+      <c r="E1044" s="2">
+        <v>150</v>
+      </c>
+      <c r="F1044" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1044" s="2">
+        <v>3</v>
+      </c>
       <c r="H1044" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I1044" s="2"/>
-      <c r="J1044" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I1044" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1044" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="1045" spans="1:10">
       <c r="A1045" s="2" t="str">
-        <v>高機動型ゲルググ</v>
+        <v>陸戦高機動型ザク</v>
       </c>
       <c r="B1045" s="2" t="str">
-        <v>ハンド・グレネードＺ</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C1045" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1045" s="2">
-        <v>1230</v>
+        <v>1750</v>
       </c>
       <c r="E1045" s="2">
         <v>150</v>
@@ -91546,127 +91829,103 @@
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B1046" s="2" t="str">
-        <v>ハンド・グレネードＺ</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C1046" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1046" s="2">
-        <v>1165</v>
-      </c>
-      <c r="E1046" s="2">
-        <v>150</v>
-      </c>
-      <c r="F1046" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G1046" s="2">
-        <v>3</v>
-      </c>
+        <v>4800</v>
+      </c>
+      <c r="E1046" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F1046" s="2"/>
+      <c r="G1046" s="2"/>
       <c r="H1046" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I1046" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J1046" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I1046" s="2"/>
+      <c r="J1046" s="2"/>
     </row>
     <row r="1047" spans="1:10">
       <c r="A1047" s="2" t="str">
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B1047" s="2" t="str">
-        <v>ハンド・グレネードＺ</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C1047" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1047" s="2">
-        <v>1100</v>
-      </c>
-      <c r="E1047" s="2">
-        <v>150</v>
-      </c>
-      <c r="F1047" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G1047" s="2">
-        <v>3</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="E1047" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F1047" s="2"/>
+      <c r="G1047" s="2"/>
       <c r="H1047" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I1047" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J1047" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I1047" s="2"/>
+      <c r="J1047" s="2"/>
     </row>
     <row r="1048" spans="1:10">
       <c r="A1048" s="2" t="str">
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B1048" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C1048" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1048" s="2">
-        <v>132</v>
-      </c>
-      <c r="E1048" s="2">
-        <v>200</v>
-      </c>
-      <c r="F1048" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G1048" s="2">
-        <v>50</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E1048" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F1048" s="2"/>
+      <c r="G1048" s="2"/>
       <c r="H1048" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I1048" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J1048" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I1048" s="2"/>
+      <c r="J1048" s="2"/>
     </row>
     <row r="1049" spans="1:10">
       <c r="A1049" s="2" t="str">
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B1049" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ハンド・グレネードＺ</v>
       </c>
       <c r="C1049" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1049" s="2">
-        <v>126</v>
+        <v>1230</v>
       </c>
       <c r="E1049" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F1049" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1049" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H1049" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I1049" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1049" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="1050" spans="1:10">
@@ -91674,102 +91933,118 @@
         <v>高機動型ゲルググ</v>
       </c>
       <c r="B1050" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン</v>
+        <v>ハンド・グレネードＺ</v>
       </c>
       <c r="C1050" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1050" s="2">
-        <v>120</v>
+        <v>1165</v>
       </c>
       <c r="E1050" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F1050" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1050" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H1050" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I1050" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1050" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="1051" spans="1:10">
       <c r="A1051" s="2" t="str">
-        <v>高機動型ゲルググ(UL)</v>
+        <v>高機動型ゲルググ</v>
       </c>
       <c r="B1051" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ハンド・グレネードＺ</v>
       </c>
       <c r="C1051" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1051" s="2">
-        <v>4400</v>
-      </c>
-      <c r="E1051" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F1051" s="2"/>
-      <c r="G1051" s="2"/>
+        <v>1100</v>
+      </c>
+      <c r="E1051" s="2">
+        <v>150</v>
+      </c>
+      <c r="F1051" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1051" s="2">
+        <v>3</v>
+      </c>
       <c r="H1051" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I1051" s="2"/>
-      <c r="J1051" s="2"/>
+        <v>other</v>
+      </c>
+      <c r="I1051" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1051" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="1052" spans="1:10">
       <c r="A1052" s="2" t="str">
-        <v>高機動型ゲルググ(UL)</v>
+        <v>高機動型ゲルググ</v>
       </c>
       <c r="B1052" s="2" t="str">
-        <v>ゲルググシールド</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="C1052" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1052" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E1052" s="2" t="str">
-        <v>L</v>
-      </c>
-      <c r="F1052" s="2"/>
-      <c r="G1052" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="E1052" s="2">
+        <v>200</v>
+      </c>
+      <c r="F1052" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1052" s="2">
+        <v>50</v>
+      </c>
       <c r="H1052" s="2" t="str">
-        <v>shield</v>
-      </c>
-      <c r="I1052" s="2"/>
-      <c r="J1052" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I1052" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1052" s="2" t="str">
+        <v>○</v>
+      </c>
     </row>
     <row r="1053" spans="1:10">
       <c r="A1053" s="2" t="str">
-        <v>高機動型ゲルググ(UL)</v>
+        <v>高機動型ゲルググ</v>
       </c>
       <c r="B1053" s="2" t="str">
-        <v>腕部３連装ミサイル・ポッド</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="C1053" s="2">
         <v>2</v>
       </c>
       <c r="D1053" s="2">
-        <v>420</v>
+        <v>126</v>
       </c>
       <c r="E1053" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F1053" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1053" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H1053" s="2" t="str">
         <v>ammo</v>
@@ -91778,30 +92053,30 @@
         <v>×</v>
       </c>
       <c r="J1053" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1054" spans="1:10">
       <c r="A1054" s="2" t="str">
-        <v>高機動型ゲルググ(UL)</v>
+        <v>高機動型ゲルググ</v>
       </c>
       <c r="B1054" s="2" t="str">
-        <v>腕部３連装ミサイル・ポッド</v>
+        <v>ＭＭＰ－８０マシンガン</v>
       </c>
       <c r="C1054" s="2">
         <v>1</v>
       </c>
       <c r="D1054" s="2">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E1054" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F1054" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1054" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H1054" s="2" t="str">
         <v>ammo</v>
@@ -91810,12 +92085,12 @@
         <v>×</v>
       </c>
       <c r="J1054" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1055" spans="1:10">
       <c r="A1055" s="2" t="str">
-        <v>高機動型ゲルググ(VG)</v>
+        <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B1055" s="2" t="str">
         <v>ゲルググシールド</v>
@@ -91839,7 +92114,7 @@
     </row>
     <row r="1056" spans="1:10">
       <c r="A1056" s="2" t="str">
-        <v>高機動型ゲルググ(VG)</v>
+        <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B1056" s="2" t="str">
         <v>ゲルググシールド</v>
@@ -91863,28 +92138,28 @@
     </row>
     <row r="1057" spans="1:10">
       <c r="A1057" s="2" t="str">
-        <v>高機動型ザク</v>
+        <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B1057" s="2" t="str">
-        <v>クラッカー[強化型]</v>
+        <v>腕部３連装ミサイル・ポッド</v>
       </c>
       <c r="C1057" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1057" s="2">
-        <v>1370</v>
+        <v>420</v>
       </c>
       <c r="E1057" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F1057" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1057" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1057" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I1057" s="2" t="str">
         <v>×</v>
@@ -91895,28 +92170,28 @@
     </row>
     <row r="1058" spans="1:10">
       <c r="A1058" s="2" t="str">
-        <v>高機動型ザク</v>
+        <v>高機動型ゲルググ(UL)</v>
       </c>
       <c r="B1058" s="2" t="str">
-        <v>クラッカー[強化型]</v>
+        <v>腕部３連装ミサイル・ポッド</v>
       </c>
       <c r="C1058" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1058" s="2">
-        <v>1310</v>
+        <v>400</v>
       </c>
       <c r="E1058" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F1058" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1058" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1058" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I1058" s="2" t="str">
         <v>×</v>
@@ -91927,98 +92202,82 @@
     </row>
     <row r="1059" spans="1:10">
       <c r="A1059" s="2" t="str">
-        <v>高機動型ザク</v>
+        <v>高機動型ゲルググ(VG)</v>
       </c>
       <c r="B1059" s="2" t="str">
-        <v>クラッカー[強化型]</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C1059" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1059" s="2">
-        <v>1250</v>
-      </c>
-      <c r="E1059" s="2">
-        <v>150</v>
-      </c>
-      <c r="F1059" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G1059" s="2">
-        <v>3</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="E1059" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F1059" s="2"/>
+      <c r="G1059" s="2"/>
       <c r="H1059" s="2" t="str">
-        <v>other</v>
-      </c>
-      <c r="I1059" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J1059" s="2" t="str">
-        <v>×</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I1059" s="2"/>
+      <c r="J1059" s="2"/>
     </row>
     <row r="1060" spans="1:10">
       <c r="A1060" s="2" t="str">
-        <v>高機動型ザク</v>
+        <v>高機動型ゲルググ(VG)</v>
       </c>
       <c r="B1060" s="2" t="str">
-        <v>ザク・マシンガン</v>
+        <v>ゲルググシールド</v>
       </c>
       <c r="C1060" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1060" s="2">
-        <v>73</v>
-      </c>
-      <c r="E1060" s="2">
-        <v>250</v>
-      </c>
-      <c r="F1060" s="2" t="str">
-        <v>bullet</v>
-      </c>
-      <c r="G1060" s="2">
-        <v>100</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="E1060" s="2" t="str">
+        <v>L</v>
+      </c>
+      <c r="F1060" s="2"/>
+      <c r="G1060" s="2"/>
       <c r="H1060" s="2" t="str">
-        <v>ammo</v>
-      </c>
-      <c r="I1060" s="2" t="str">
-        <v>×</v>
-      </c>
-      <c r="J1060" s="2" t="str">
-        <v>○</v>
-      </c>
+        <v>shield</v>
+      </c>
+      <c r="I1060" s="2"/>
+      <c r="J1060" s="2"/>
     </row>
     <row r="1061" spans="1:10">
       <c r="A1061" s="2" t="str">
         <v>高機動型ザク</v>
       </c>
       <c r="B1061" s="2" t="str">
-        <v>ザク・マシンガン</v>
+        <v>クラッカー[強化型]</v>
       </c>
       <c r="C1061" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1061" s="2">
-        <v>70</v>
+        <v>1370</v>
       </c>
       <c r="E1061" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F1061" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1061" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H1061" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I1061" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1061" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="1062" spans="1:10">
@@ -92026,45 +92285,45 @@
         <v>高機動型ザク</v>
       </c>
       <c r="B1062" s="2" t="str">
-        <v>ザク・マシンガン</v>
+        <v>クラッカー[強化型]</v>
       </c>
       <c r="C1062" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1062" s="2">
-        <v>67</v>
+        <v>1310</v>
       </c>
       <c r="E1062" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F1062" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1062" s="2">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H1062" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I1062" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1062" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
     </row>
     <row r="1063" spans="1:10">
       <c r="A1063" s="2" t="str">
-        <v>高機動型ザク後期型</v>
+        <v>高機動型ザク</v>
       </c>
       <c r="B1063" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
+        <v>クラッカー[強化型]</v>
       </c>
       <c r="C1063" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1063" s="2">
-        <v>1837</v>
+        <v>1250</v>
       </c>
       <c r="E1063" s="2">
         <v>150</v>
@@ -92087,57 +92346,57 @@
     </row>
     <row r="1064" spans="1:10">
       <c r="A1064" s="2" t="str">
-        <v>高機動型ザク後期型</v>
+        <v>高機動型ザク</v>
       </c>
       <c r="B1064" s="2" t="str">
-        <v>ハンド・グレネードＺ[強化]</v>
+        <v>ザク・マシンガン</v>
       </c>
       <c r="C1064" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1064" s="2">
-        <v>1750</v>
+        <v>73</v>
       </c>
       <c r="E1064" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F1064" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1064" s="2">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H1064" s="2" t="str">
-        <v>other</v>
+        <v>ammo</v>
       </c>
       <c r="I1064" s="2" t="str">
         <v>×</v>
       </c>
       <c r="J1064" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1065" spans="1:10">
       <c r="A1065" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
+        <v>高機動型ザク</v>
       </c>
       <c r="B1065" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
+        <v>ザク・マシンガン</v>
       </c>
       <c r="C1065" s="2">
         <v>2</v>
       </c>
       <c r="D1065" s="2">
-        <v>840</v>
+        <v>70</v>
       </c>
       <c r="E1065" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F1065" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1065" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H1065" s="2" t="str">
         <v>ammo</v>
@@ -92146,30 +92405,30 @@
         <v>×</v>
       </c>
       <c r="J1065" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1066" spans="1:10">
       <c r="A1066" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
+        <v>高機動型ザク</v>
       </c>
       <c r="B1066" s="2" t="str">
-        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
+        <v>ザク・マシンガン</v>
       </c>
       <c r="C1066" s="2">
         <v>1</v>
       </c>
       <c r="D1066" s="2">
-        <v>800</v>
+        <v>67</v>
       </c>
       <c r="E1066" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F1066" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1066" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H1066" s="2" t="str">
         <v>ammo</v>
@@ -92178,33 +92437,33 @@
         <v>×</v>
       </c>
       <c r="J1066" s="2" t="str">
-        <v>×</v>
+        <v>○</v>
       </c>
     </row>
     <row r="1067" spans="1:10">
       <c r="A1067" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>高機動型ザク後期型</v>
       </c>
       <c r="B1067" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C1067" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1067" s="2">
-        <v>805</v>
+        <v>1837</v>
       </c>
       <c r="E1067" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F1067" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1067" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1067" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I1067" s="2" t="str">
         <v>×</v>
@@ -92215,28 +92474,28 @@
     </row>
     <row r="1068" spans="1:10">
       <c r="A1068" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>高機動型ザク後期型</v>
       </c>
       <c r="B1068" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ハンド・グレネードＺ[強化]</v>
       </c>
       <c r="C1068" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1068" s="2">
-        <v>770</v>
+        <v>1750</v>
       </c>
       <c r="E1068" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F1068" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1068" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1068" s="2" t="str">
-        <v>ammo</v>
+        <v>other</v>
       </c>
       <c r="I1068" s="2" t="str">
         <v>×</v>
@@ -92247,25 +92506,25 @@
     </row>
     <row r="1069" spans="1:10">
       <c r="A1069" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
       </c>
       <c r="B1069" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
       </c>
       <c r="C1069" s="2">
         <v>2</v>
       </c>
       <c r="D1069" s="2">
-        <v>735</v>
+        <v>840</v>
       </c>
       <c r="E1069" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F1069" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1069" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1069" s="2" t="str">
         <v>ammo</v>
@@ -92279,25 +92538,25 @@
     </row>
     <row r="1070" spans="1:10">
       <c r="A1070" s="2" t="str">
-        <v>ＧＤ用ビーム・ライフル[SN]</v>
+        <v>ＧＣ・Ｄ専用Ｂ・ライフル[ＧＮ]</v>
       </c>
       <c r="B1070" s="2" t="str">
-        <v>Ｂライフル付属スーパー・ナパーム</v>
+        <v>ＧＣ・Ｄ専用Ｂ・Ｒ付属グレネード</v>
       </c>
       <c r="C1070" s="2">
         <v>1</v>
       </c>
       <c r="D1070" s="2">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E1070" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F1070" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1070" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1070" s="2" t="str">
         <v>ammo</v>
@@ -92311,16 +92570,16 @@
     </row>
     <row r="1071" spans="1:10">
       <c r="A1071" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B1071" s="2" t="str">
-        <v>ゲルググＲ型用ＢＲ付属グレネード</v>
+        <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C1071" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1071" s="2">
-        <v>1000</v>
+        <v>805</v>
       </c>
       <c r="E1071" s="2">
         <v>250</v>
@@ -92329,7 +92588,7 @@
         <v>bullet</v>
       </c>
       <c r="G1071" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1071" s="2" t="str">
         <v>ammo</v>
@@ -92343,16 +92602,16 @@
     </row>
     <row r="1072" spans="1:10">
       <c r="A1072" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B1072" s="2" t="str">
-        <v>ゲルググＲ型用ＢＲ付属グレネード</v>
+        <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C1072" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1072" s="2">
-        <v>900</v>
+        <v>770</v>
       </c>
       <c r="E1072" s="2">
         <v>250</v>
@@ -92361,7 +92620,7 @@
         <v>bullet</v>
       </c>
       <c r="G1072" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1072" s="2" t="str">
         <v>ammo</v>
@@ -92375,28 +92634,28 @@
     </row>
     <row r="1073" spans="1:10">
       <c r="A1073" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B1073" s="2" t="str">
-        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
+        <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C1073" s="2">
         <v>2</v>
       </c>
       <c r="D1073" s="2">
-        <v>1995</v>
+        <v>735</v>
       </c>
       <c r="E1073" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F1073" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G1073" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H1073" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I1073" s="2" t="str">
         <v>×</v>
@@ -92407,28 +92666,28 @@
     </row>
     <row r="1074" spans="1:10">
       <c r="A1074" s="2" t="str">
-        <v>ＧＲ型用ビーム・ライフル[GN]</v>
+        <v>ＧＤ用ビーム・ライフル[SN]</v>
       </c>
       <c r="B1074" s="2" t="str">
-        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
+        <v>Ｂライフル付属スーパー・ナパーム</v>
       </c>
       <c r="C1074" s="2">
         <v>1</v>
       </c>
       <c r="D1074" s="2">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="E1074" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F1074" s="2" t="str">
-        <v>heat</v>
+        <v>bullet</v>
       </c>
       <c r="G1074" s="2">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H1074" s="2" t="str">
-        <v>beam</v>
+        <v>ammo</v>
       </c>
       <c r="I1074" s="2" t="str">
         <v>×</v>
@@ -92439,19 +92698,19 @@
     </row>
     <row r="1075" spans="1:10">
       <c r="A1075" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B1075" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
+        <v>ゲルググＲ型用ＢＲ付属グレネード</v>
       </c>
       <c r="C1075" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1075" s="2">
-        <v>805</v>
+        <v>1000</v>
       </c>
       <c r="E1075" s="2">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="F1075" s="2" t="str">
         <v>bullet</v>
@@ -92471,19 +92730,19 @@
     </row>
     <row r="1076" spans="1:10">
       <c r="A1076" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B1076" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
+        <v>ゲルググＲ型用ＢＲ付属グレネード</v>
       </c>
       <c r="C1076" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1076" s="2">
-        <v>770</v>
+        <v>900</v>
       </c>
       <c r="E1076" s="2">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="F1076" s="2" t="str">
         <v>bullet</v>
@@ -92503,28 +92762,28 @@
     </row>
     <row r="1077" spans="1:10">
       <c r="A1077" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B1077" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
+        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
       </c>
       <c r="C1077" s="2">
         <v>2</v>
       </c>
       <c r="D1077" s="2">
-        <v>735</v>
+        <v>1995</v>
       </c>
       <c r="E1077" s="2">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="F1077" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G1077" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H1077" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I1077" s="2" t="str">
         <v>×</v>
@@ -92535,28 +92794,28 @@
     </row>
     <row r="1078" spans="1:10">
       <c r="A1078" s="2" t="str">
-        <v>ＭＭＰ－７８マシンガン[GN]</v>
+        <v>ＧＲ型用ビーム・ライフル[GN]</v>
       </c>
       <c r="B1078" s="2" t="str">
-        <v>ＭＭＰ－７８付属グレネード</v>
+        <v>ＧＲ型用Ｂ・ライフル直結状態</v>
       </c>
       <c r="C1078" s="2">
         <v>1</v>
       </c>
       <c r="D1078" s="2">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="E1078" s="2">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="F1078" s="2" t="str">
-        <v>bullet</v>
+        <v>heat</v>
       </c>
       <c r="G1078" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H1078" s="2" t="str">
-        <v>ammo</v>
+        <v>beam</v>
       </c>
       <c r="I1078" s="2" t="str">
         <v>×</v>
@@ -92567,16 +92826,16 @@
     </row>
     <row r="1079" spans="1:10">
       <c r="A1079" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B1079" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1079" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1079" s="2">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="E1079" s="2">
         <v>325</v>
@@ -92599,16 +92858,16 @@
     </row>
     <row r="1080" spans="1:10">
       <c r="A1080" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B1080" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1080" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1080" s="2">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="E1080" s="2">
         <v>325</v>
@@ -92631,16 +92890,16 @@
     </row>
     <row r="1081" spans="1:10">
       <c r="A1081" s="2" t="str">
-        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B1081" s="2" t="str">
         <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1081" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1081" s="2">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="E1081" s="2">
         <v>325</v>
@@ -92663,16 +92922,16 @@
     </row>
     <row r="1082" spans="1:10">
       <c r="A1082" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－７８マシンガン[GN]</v>
       </c>
       <c r="B1082" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
+        <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1082" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1082" s="2">
-        <v>805</v>
+        <v>700</v>
       </c>
       <c r="E1082" s="2">
         <v>325</v>
@@ -92695,10 +92954,10 @@
     </row>
     <row r="1083" spans="1:10">
       <c r="A1083" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B1083" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
+        <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1083" s="2">
         <v>3</v>
@@ -92727,10 +92986,10 @@
     </row>
     <row r="1084" spans="1:10">
       <c r="A1084" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B1084" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
+        <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1084" s="2">
         <v>2</v>
@@ -92759,10 +93018,10 @@
     </row>
     <row r="1085" spans="1:10">
       <c r="A1085" s="2" t="str">
-        <v>ＭＭＰ－８０マシンガン[GN]</v>
+        <v>ＭＭＰ－７８ＧＮ[対空砲弾]</v>
       </c>
       <c r="B1085" s="2" t="str">
-        <v>ＭＭＰ－８０付属グレネード</v>
+        <v>ＭＭＰ－７８付属グレネード</v>
       </c>
       <c r="C1085" s="2">
         <v>1</v>
@@ -92791,47 +93050,57 @@
     </row>
     <row r="1086" spans="1:10">
       <c r="A1086" s="2" t="str">
-        <v>Ｚガンダム</v>
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
       <c r="B1086" s="2" t="str">
-        <v>ロング・ビーム・サーベル</v>
+        <v>ＭＭＰ－８０付属グレネード</v>
       </c>
       <c r="C1086" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1086" s="2">
-        <v>2300</v>
-      </c>
-      <c r="E1086" s="2"/>
-      <c r="F1086" s="2"/>
-      <c r="G1086" s="2"/>
+        <v>805</v>
+      </c>
+      <c r="E1086" s="2">
+        <v>325</v>
+      </c>
+      <c r="F1086" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1086" s="2">
+        <v>1</v>
+      </c>
       <c r="H1086" s="2" t="str">
-        <v>melee</v>
-      </c>
-      <c r="I1086" s="2"/>
-      <c r="J1086" s="2"/>
+        <v>ammo</v>
+      </c>
+      <c r="I1086" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1086" s="2" t="str">
+        <v>×</v>
+      </c>
     </row>
     <row r="1087" spans="1:10">
       <c r="A1087" s="2" t="str">
-        <v>Ｚガンダム</v>
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
       <c r="B1087" s="2" t="str">
-        <v>腕部グレネード・ランチャー</v>
+        <v>ＭＭＰ－８０付属グレネード</v>
       </c>
       <c r="C1087" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1087" s="2">
-        <v>500</v>
+        <v>770</v>
       </c>
       <c r="E1087" s="2">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="F1087" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1087" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1087" s="2" t="str">
         <v>ammo</v>
@@ -92845,31 +93114,31 @@
     </row>
     <row r="1088" spans="1:10">
       <c r="A1088" s="2" t="str">
-        <v>Ｚガンダム</v>
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
       </c>
       <c r="B1088" s="2" t="str">
-        <v>頭部バルカン[改修型]</v>
+        <v>ＭＭＰ－８０付属グレネード</v>
       </c>
       <c r="C1088" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1088" s="2">
-        <v>70</v>
+        <v>735</v>
       </c>
       <c r="E1088" s="2">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="F1088" s="2" t="str">
         <v>bullet</v>
       </c>
       <c r="G1088" s="2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H1088" s="2" t="str">
         <v>ammo</v>
       </c>
       <c r="I1088" s="2" t="str">
-        <v>○</v>
+        <v>×</v>
       </c>
       <c r="J1088" s="2" t="str">
         <v>×</v>
@@ -92877,79 +93146,157 @@
     </row>
     <row r="1089" spans="1:10">
       <c r="A1089" s="2" t="str">
+        <v>ＭＭＰ－８０マシンガン[GN]</v>
+      </c>
+      <c r="B1089" s="2" t="str">
+        <v>ＭＭＰ－８０付属グレネード</v>
+      </c>
+      <c r="C1089" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1089" s="2">
+        <v>700</v>
+      </c>
+      <c r="E1089" s="2">
+        <v>325</v>
+      </c>
+      <c r="F1089" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1089" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1089" s="2" t="str">
+        <v>ammo</v>
+      </c>
+      <c r="I1089" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1089" s="2" t="str">
+        <v>×</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:10">
+      <c r="A1090" s="2" t="str">
         <v>Ｚガンダム</v>
       </c>
-      <c r="B1089" s="2" t="str">
+      <c r="B1090" s="2" t="str">
+        <v>ロング・ビーム・サーベル</v>
+      </c>
+      <c r="C1090" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1090" s="2">
+        <v>2300</v>
+      </c>
+      <c r="E1090" s="2"/>
+      <c r="F1090" s="2"/>
+      <c r="G1090" s="2"/>
+      <c r="H1090" s="2" t="str">
+        <v>melee</v>
+      </c>
+      <c r="I1090" s="2"/>
+      <c r="J1090" s="2"/>
+    </row>
+    <row r="1091" spans="1:10">
+      <c r="A1091" s="2" t="str">
+        <v>Ｚガンダム</v>
+      </c>
+      <c r="B1091" s="2" t="str">
+        <v>腕部グレネード・ランチャー</v>
+      </c>
+      <c r="C1091" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1091" s="2">
+        <v>500</v>
+      </c>
+      <c r="E1091" s="2">
+        <v>250</v>
+      </c>
+      <c r="F1091" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1091" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1091" s="2" t="str">
+        <v>ammo</v>
+      </c>
+      <c r="I1091" s="2" t="str">
+        <v>×</v>
+      </c>
+      <c r="J1091" s="2" t="str">
+        <v>×</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:10">
+      <c r="A1092" s="2" t="str">
+        <v>Ｚガンダム</v>
+      </c>
+      <c r="B1092" s="2" t="str">
+        <v>頭部バルカン[改修型]</v>
+      </c>
+      <c r="C1092" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1092" s="2">
+        <v>70</v>
+      </c>
+      <c r="E1092" s="2">
+        <v>150</v>
+      </c>
+      <c r="F1092" s="2" t="str">
+        <v>bullet</v>
+      </c>
+      <c r="G1092" s="2">
+        <v>60</v>
+      </c>
+      <c r="H1092" s="2" t="str">
+        <v>ammo</v>
+      </c>
+      <c r="I1092" s="2" t="str">
+        <v>○</v>
+      </c>
+      <c r="J1092" s="2" t="str">
+        <v>×</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10">
+      <c r="A1093" s="2" t="str">
+        <v>Ｚガンダム</v>
+      </c>
+      <c r="B1093" s="2" t="str">
         <v>Ｚガンダムシールド</v>
       </c>
-      <c r="C1089" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1089" s="2">
+      <c r="C1093" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1093" s="2">
         <v>3500</v>
       </c>
-      <c r="E1089" s="2" t="str">
+      <c r="E1093" s="2" t="str">
         <v>M</v>
       </c>
-      <c r="F1089" s="2"/>
-      <c r="G1089" s="2"/>
-      <c r="H1089" s="2" t="str">
+      <c r="F1093" s="2"/>
+      <c r="G1093" s="2"/>
+      <c r="H1093" s="2" t="str">
         <v>shield</v>
       </c>
-      <c r="I1089" s="2"/>
-      <c r="J1089" s="2"/>
-    </row>
-    <row r="1090" spans="1:10">
-      <c r="A1090" s="6"/>
-      <c r="B1090" s="6"/>
-      <c r="C1090" s="6"/>
-      <c r="D1090" s="6"/>
-      <c r="E1090" s="6"/>
-      <c r="F1090" s="6"/>
-      <c r="G1090" s="6"/>
-      <c r="H1090" s="6"/>
-      <c r="I1090" s="6"/>
-      <c r="J1090" s="6"/>
-    </row>
-    <row r="1091" spans="1:10">
-      <c r="A1091" s="3"/>
-      <c r="B1091" s="3"/>
-      <c r="C1091" s="3"/>
-      <c r="D1091" s="3"/>
-      <c r="E1091" s="3"/>
-      <c r="F1091" s="3"/>
-      <c r="G1091" s="3"/>
-      <c r="H1091" s="3"/>
-    </row>
-    <row r="1092" spans="1:10">
-      <c r="A1092" s="3"/>
-      <c r="B1092" s="3"/>
-      <c r="C1092" s="3"/>
-      <c r="D1092" s="3"/>
-      <c r="E1092" s="3"/>
-      <c r="F1092" s="3"/>
-      <c r="G1092" s="3"/>
-      <c r="H1092" s="3"/>
-    </row>
-    <row r="1093" spans="1:10">
-      <c r="A1093" s="3"/>
-      <c r="B1093" s="3"/>
-      <c r="C1093" s="3"/>
-      <c r="D1093" s="3"/>
-      <c r="E1093" s="3"/>
-      <c r="F1093" s="3"/>
-      <c r="G1093" s="3"/>
-      <c r="H1093" s="3"/>
+      <c r="I1093" s="2"/>
+      <c r="J1093" s="2"/>
     </row>
     <row r="1094" spans="1:10">
-      <c r="A1094" s="3"/>
-      <c r="B1094" s="3"/>
-      <c r="C1094" s="3"/>
-      <c r="D1094" s="3"/>
-      <c r="E1094" s="3"/>
-      <c r="F1094" s="3"/>
-      <c r="G1094" s="3"/>
-      <c r="H1094" s="3"/>
+      <c r="A1094" s="6"/>
+      <c r="B1094" s="6"/>
+      <c r="C1094" s="6"/>
+      <c r="D1094" s="6"/>
+      <c r="E1094" s="6"/>
+      <c r="F1094" s="6"/>
+      <c r="G1094" s="6"/>
+      <c r="H1094" s="6"/>
+      <c r="I1094" s="6"/>
+      <c r="J1094" s="6"/>
     </row>
     <row r="1095" spans="1:10">
       <c r="A1095" s="3"/>
@@ -93042,7 +93389,7 @@
       <c r="H1103" s="3"/>
     </row>
     <row r="1104" spans="1:10">
-      <c r="A1104" s="7"/>
+      <c r="A1104" s="3"/>
       <c r="B1104" s="3"/>
       <c r="C1104" s="3"/>
       <c r="D1104" s="3"/>
@@ -93050,10 +93397,9 @@
       <c r="F1104" s="3"/>
       <c r="G1104" s="3"/>
       <c r="H1104" s="3"/>
-      <c r="I1104" s="7"/>
     </row>
     <row r="1105" spans="1:9">
-      <c r="A1105" s="7"/>
+      <c r="A1105" s="3"/>
       <c r="B1105" s="3"/>
       <c r="C1105" s="3"/>
       <c r="D1105" s="3"/>
@@ -93061,10 +93407,9 @@
       <c r="F1105" s="3"/>
       <c r="G1105" s="3"/>
       <c r="H1105" s="3"/>
-      <c r="I1105" s="7"/>
     </row>
     <row r="1106" spans="1:9">
-      <c r="A1106" s="7"/>
+      <c r="A1106" s="3"/>
       <c r="B1106" s="3"/>
       <c r="C1106" s="3"/>
       <c r="D1106" s="3"/>
@@ -93072,10 +93417,9 @@
       <c r="F1106" s="3"/>
       <c r="G1106" s="3"/>
       <c r="H1106" s="3"/>
-      <c r="I1106" s="7"/>
     </row>
     <row r="1107" spans="1:9">
-      <c r="A1107" s="7"/>
+      <c r="A1107" s="3"/>
       <c r="B1107" s="3"/>
       <c r="C1107" s="3"/>
       <c r="D1107" s="3"/>
@@ -93083,7 +93427,6 @@
       <c r="F1107" s="3"/>
       <c r="G1107" s="3"/>
       <c r="H1107" s="3"/>
-      <c r="I1107" s="7"/>
     </row>
     <row r="1108" spans="1:9">
       <c r="A1108" s="7"/>
@@ -93108,7 +93451,7 @@
       <c r="I1109" s="7"/>
     </row>
     <row r="1110" spans="1:9">
-      <c r="A1110" s="3"/>
+      <c r="A1110" s="7"/>
       <c r="B1110" s="3"/>
       <c r="C1110" s="3"/>
       <c r="D1110" s="3"/>
@@ -93119,7 +93462,7 @@
       <c r="I1110" s="7"/>
     </row>
     <row r="1111" spans="1:9">
-      <c r="A1111" s="3"/>
+      <c r="A1111" s="7"/>
       <c r="B1111" s="3"/>
       <c r="C1111" s="3"/>
       <c r="D1111" s="3"/>
@@ -93130,7 +93473,7 @@
       <c r="I1111" s="7"/>
     </row>
     <row r="1112" spans="1:9">
-      <c r="A1112" s="3"/>
+      <c r="A1112" s="7"/>
       <c r="B1112" s="3"/>
       <c r="C1112" s="3"/>
       <c r="D1112" s="3"/>
@@ -93138,9 +93481,10 @@
       <c r="F1112" s="3"/>
       <c r="G1112" s="3"/>
       <c r="H1112" s="3"/>
+      <c r="I1112" s="7"/>
     </row>
     <row r="1113" spans="1:9">
-      <c r="A1113" s="3"/>
+      <c r="A1113" s="7"/>
       <c r="B1113" s="3"/>
       <c r="C1113" s="3"/>
       <c r="D1113" s="3"/>
@@ -93159,6 +93503,7 @@
       <c r="F1114" s="3"/>
       <c r="G1114" s="3"/>
       <c r="H1114" s="3"/>
+      <c r="I1114" s="7"/>
     </row>
     <row r="1115" spans="1:9">
       <c r="A1115" s="3"/>
@@ -93190,6 +93535,7 @@
       <c r="F1117" s="3"/>
       <c r="G1117" s="3"/>
       <c r="H1117" s="3"/>
+      <c r="I1117" s="7"/>
     </row>
     <row r="1118" spans="1:9">
       <c r="A1118" s="3"/>
@@ -93210,6 +93556,7 @@
       <c r="F1119" s="3"/>
       <c r="G1119" s="3"/>
       <c r="H1119" s="3"/>
+      <c r="I1119" s="7"/>
     </row>
     <row r="1120" spans="1:9">
       <c r="A1120" s="3"/>
@@ -93230,7 +93577,6 @@
       <c r="F1121" s="3"/>
       <c r="G1121" s="3"/>
       <c r="H1121" s="3"/>
-      <c r="I1121" s="7"/>
     </row>
     <row r="1122" spans="1:9">
       <c r="A1122" s="3"/>
@@ -93241,7 +93587,6 @@
       <c r="F1122" s="3"/>
       <c r="G1122" s="3"/>
       <c r="H1122" s="3"/>
-      <c r="I1122" s="7"/>
     </row>
     <row r="1123" spans="1:9">
       <c r="A1123" s="3"/>
@@ -93252,7 +93597,6 @@
       <c r="F1123" s="3"/>
       <c r="G1123" s="3"/>
       <c r="H1123" s="3"/>
-      <c r="I1123" s="7"/>
     </row>
     <row r="1124" spans="1:9">
       <c r="A1124" s="3"/>
@@ -93273,6 +93617,7 @@
       <c r="F1125" s="3"/>
       <c r="G1125" s="3"/>
       <c r="H1125" s="3"/>
+      <c r="I1125" s="7"/>
     </row>
     <row r="1126" spans="1:9">
       <c r="A1126" s="3"/>
@@ -93283,6 +93628,7 @@
       <c r="F1126" s="3"/>
       <c r="G1126" s="3"/>
       <c r="H1126" s="3"/>
+      <c r="I1126" s="7"/>
     </row>
     <row r="1127" spans="1:9">
       <c r="A1127" s="3"/>
@@ -93314,7 +93660,6 @@
       <c r="F1129" s="3"/>
       <c r="G1129" s="3"/>
       <c r="H1129" s="3"/>
-      <c r="I1129" s="7"/>
     </row>
     <row r="1130" spans="1:9">
       <c r="A1130" s="3"/>
@@ -93325,7 +93670,6 @@
       <c r="F1130" s="3"/>
       <c r="G1130" s="3"/>
       <c r="H1130" s="3"/>
-      <c r="I1130" s="7"/>
     </row>
     <row r="1131" spans="1:9">
       <c r="A1131" s="3"/>
@@ -93347,7 +93691,6 @@
       <c r="F1132" s="3"/>
       <c r="G1132" s="3"/>
       <c r="H1132" s="3"/>
-      <c r="I1132" s="7"/>
     </row>
     <row r="1133" spans="1:9">
       <c r="A1133" s="3"/>
@@ -93391,6 +93734,7 @@
       <c r="F1136" s="3"/>
       <c r="G1136" s="3"/>
       <c r="H1136" s="3"/>
+      <c r="I1136" s="7"/>
     </row>
     <row r="1137" spans="1:9">
       <c r="A1137" s="3"/>
@@ -93423,6 +93767,7 @@
       <c r="F1139" s="3"/>
       <c r="G1139" s="3"/>
       <c r="H1139" s="3"/>
+      <c r="I1139" s="7"/>
     </row>
     <row r="1140" spans="1:9">
       <c r="A1140" s="3"/>
@@ -93433,7 +93778,6 @@
       <c r="F1140" s="3"/>
       <c r="G1140" s="3"/>
       <c r="H1140" s="3"/>
-      <c r="I1140" s="7"/>
     </row>
     <row r="1141" spans="1:9">
       <c r="A1141" s="3"/>
@@ -93476,6 +93820,7 @@
       <c r="F1144" s="3"/>
       <c r="G1144" s="3"/>
       <c r="H1144" s="3"/>
+      <c r="I1144" s="7"/>
     </row>
     <row r="1145" spans="1:9">
       <c r="A1145" s="3"/>
@@ -93486,6 +93831,7 @@
       <c r="F1145" s="3"/>
       <c r="G1145" s="3"/>
       <c r="H1145" s="3"/>
+      <c r="I1145" s="7"/>
     </row>
     <row r="1146" spans="1:9">
       <c r="A1146" s="3"/>
@@ -93496,6 +93842,7 @@
       <c r="F1146" s="3"/>
       <c r="G1146" s="3"/>
       <c r="H1146" s="3"/>
+      <c r="I1146" s="7"/>
     </row>
     <row r="1147" spans="1:9">
       <c r="A1147" s="3"/>
@@ -93516,7 +93863,6 @@
       <c r="F1148" s="3"/>
       <c r="G1148" s="3"/>
       <c r="H1148" s="3"/>
-      <c r="I1148" s="7"/>
     </row>
     <row r="1149" spans="1:9">
       <c r="A1149" s="3"/>
@@ -93527,7 +93873,6 @@
       <c r="F1149" s="3"/>
       <c r="G1149" s="3"/>
       <c r="H1149" s="3"/>
-      <c r="I1149" s="7"/>
     </row>
     <row r="1150" spans="1:9">
       <c r="A1150" s="3"/>
@@ -93538,7 +93883,6 @@
       <c r="F1150" s="3"/>
       <c r="G1150" s="3"/>
       <c r="H1150" s="3"/>
-      <c r="I1150" s="7"/>
     </row>
     <row r="1151" spans="1:9">
       <c r="A1151" s="3"/>
@@ -93559,6 +93903,7 @@
       <c r="F1152" s="3"/>
       <c r="G1152" s="3"/>
       <c r="H1152" s="3"/>
+      <c r="I1152" s="7"/>
     </row>
     <row r="1153" spans="1:9">
       <c r="A1153" s="3"/>
@@ -93569,6 +93914,7 @@
       <c r="F1153" s="3"/>
       <c r="G1153" s="3"/>
       <c r="H1153" s="3"/>
+      <c r="I1153" s="7"/>
     </row>
     <row r="1154" spans="1:9">
       <c r="A1154" s="3"/>
@@ -93579,6 +93925,7 @@
       <c r="F1154" s="3"/>
       <c r="G1154" s="3"/>
       <c r="H1154" s="3"/>
+      <c r="I1154" s="7"/>
     </row>
     <row r="1155" spans="1:9">
       <c r="A1155" s="3"/>
@@ -93589,7 +93936,6 @@
       <c r="F1155" s="3"/>
       <c r="G1155" s="3"/>
       <c r="H1155" s="3"/>
-      <c r="I1155" s="7"/>
     </row>
     <row r="1156" spans="1:9">
       <c r="A1156" s="3"/>
@@ -93610,7 +93956,6 @@
       <c r="F1157" s="3"/>
       <c r="G1157" s="3"/>
       <c r="H1157" s="3"/>
-      <c r="I1157" s="7"/>
     </row>
     <row r="1158" spans="1:9">
       <c r="A1158" s="3"/>
@@ -93652,6 +93997,7 @@
       <c r="F1161" s="3"/>
       <c r="G1161" s="3"/>
       <c r="H1161" s="3"/>
+      <c r="I1161" s="7"/>
     </row>
     <row r="1162" spans="1:9">
       <c r="A1162" s="3"/>
@@ -93662,7 +94008,6 @@
       <c r="F1162" s="3"/>
       <c r="G1162" s="3"/>
       <c r="H1162" s="3"/>
-      <c r="I1162" s="7"/>
     </row>
     <row r="1163" spans="1:9">
       <c r="A1163" s="3"/>
@@ -93684,7 +94029,6 @@
       <c r="F1164" s="3"/>
       <c r="G1164" s="3"/>
       <c r="H1164" s="3"/>
-      <c r="I1164" s="7"/>
     </row>
     <row r="1165" spans="1:9">
       <c r="A1165" s="3"/>
@@ -93695,7 +94039,6 @@
       <c r="F1165" s="3"/>
       <c r="G1165" s="3"/>
       <c r="H1165" s="3"/>
-      <c r="I1165" s="7"/>
     </row>
     <row r="1166" spans="1:9">
       <c r="A1166" s="3"/>
@@ -93706,6 +94049,7 @@
       <c r="F1166" s="3"/>
       <c r="G1166" s="3"/>
       <c r="H1166" s="3"/>
+      <c r="I1166" s="7"/>
     </row>
     <row r="1167" spans="1:9">
       <c r="A1167" s="3"/>
@@ -93716,6 +94060,7 @@
       <c r="F1167" s="3"/>
       <c r="G1167" s="3"/>
       <c r="H1167" s="3"/>
+      <c r="I1167" s="7"/>
     </row>
     <row r="1168" spans="1:9">
       <c r="A1168" s="3"/>
@@ -93726,6 +94071,7 @@
       <c r="F1168" s="3"/>
       <c r="G1168" s="3"/>
       <c r="H1168" s="3"/>
+      <c r="I1168" s="7"/>
     </row>
     <row r="1169" spans="1:9">
       <c r="A1169" s="3"/>
@@ -93736,6 +94082,7 @@
       <c r="F1169" s="3"/>
       <c r="G1169" s="3"/>
       <c r="H1169" s="3"/>
+      <c r="I1169" s="7"/>
     </row>
     <row r="1170" spans="1:9">
       <c r="A1170" s="3"/>
@@ -93756,7 +94103,6 @@
       <c r="F1171" s="3"/>
       <c r="G1171" s="3"/>
       <c r="H1171" s="3"/>
-      <c r="I1171" s="7"/>
     </row>
     <row r="1172" spans="1:9">
       <c r="A1172" s="3"/>
@@ -93777,7 +94123,6 @@
       <c r="F1173" s="3"/>
       <c r="G1173" s="3"/>
       <c r="H1173" s="3"/>
-      <c r="I1173" s="7"/>
     </row>
     <row r="1174" spans="1:9">
       <c r="A1174" s="3"/>
@@ -93788,7 +94133,6 @@
       <c r="F1174" s="3"/>
       <c r="G1174" s="3"/>
       <c r="H1174" s="3"/>
-      <c r="I1174" s="7"/>
     </row>
     <row r="1175" spans="1:9">
       <c r="A1175" s="3"/>
@@ -93799,6 +94143,7 @@
       <c r="F1175" s="3"/>
       <c r="G1175" s="3"/>
       <c r="H1175" s="3"/>
+      <c r="I1175" s="7"/>
     </row>
     <row r="1176" spans="1:9">
       <c r="A1176" s="3"/>
@@ -93830,6 +94175,7 @@
       <c r="F1178" s="3"/>
       <c r="G1178" s="3"/>
       <c r="H1178" s="3"/>
+      <c r="I1178" s="7"/>
     </row>
     <row r="1179" spans="1:9">
       <c r="A1179" s="3"/>
@@ -93850,7 +94196,6 @@
       <c r="F1180" s="3"/>
       <c r="G1180" s="3"/>
       <c r="H1180" s="3"/>
-      <c r="I1180" s="7"/>
     </row>
     <row r="1181" spans="1:9">
       <c r="A1181" s="3"/>
@@ -93861,6 +94206,7 @@
       <c r="F1181" s="3"/>
       <c r="G1181" s="3"/>
       <c r="H1181" s="3"/>
+      <c r="I1181" s="7"/>
     </row>
     <row r="1182" spans="1:9">
       <c r="A1182" s="3"/>
@@ -93891,6 +94237,7 @@
       <c r="F1184" s="3"/>
       <c r="G1184" s="3"/>
       <c r="H1184" s="3"/>
+      <c r="I1184" s="7"/>
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" s="3"/>
@@ -93911,7 +94258,6 @@
       <c r="F1186" s="3"/>
       <c r="G1186" s="3"/>
       <c r="H1186" s="3"/>
-      <c r="I1186" s="7"/>
     </row>
     <row r="1187" spans="1:9">
       <c r="A1187" s="3"/>
@@ -93922,7 +94268,6 @@
       <c r="F1187" s="3"/>
       <c r="G1187" s="3"/>
       <c r="H1187" s="3"/>
-      <c r="I1187" s="7"/>
     </row>
     <row r="1188" spans="1:9">
       <c r="A1188" s="3"/>
@@ -93933,7 +94278,6 @@
       <c r="F1188" s="3"/>
       <c r="G1188" s="3"/>
       <c r="H1188" s="3"/>
-      <c r="I1188" s="7"/>
     </row>
     <row r="1189" spans="1:9">
       <c r="A1189" s="3"/>
@@ -93987,7 +94331,6 @@
       <c r="F1193" s="3"/>
       <c r="G1193" s="3"/>
       <c r="H1193" s="3"/>
-      <c r="I1193" s="7"/>
     </row>
     <row r="1194" spans="1:9">
       <c r="A1194" s="3"/>
@@ -94009,6 +94352,7 @@
       <c r="F1195" s="3"/>
       <c r="G1195" s="3"/>
       <c r="H1195" s="3"/>
+      <c r="I1195" s="7"/>
     </row>
     <row r="1196" spans="1:9">
       <c r="A1196" s="3"/>
@@ -94019,6 +94363,7 @@
       <c r="F1196" s="3"/>
       <c r="G1196" s="3"/>
       <c r="H1196" s="3"/>
+      <c r="I1196" s="7"/>
     </row>
     <row r="1197" spans="1:9">
       <c r="A1197" s="3"/>
@@ -94040,6 +94385,7 @@
       <c r="F1198" s="3"/>
       <c r="G1198" s="3"/>
       <c r="H1198" s="3"/>
+      <c r="I1198" s="7"/>
     </row>
     <row r="1199" spans="1:9">
       <c r="A1199" s="3"/>
@@ -94070,6 +94416,7 @@
       <c r="F1201" s="3"/>
       <c r="G1201" s="3"/>
       <c r="H1201" s="3"/>
+      <c r="I1201" s="7"/>
     </row>
     <row r="1202" spans="1:9">
       <c r="A1202" s="3"/>
@@ -94080,7 +94427,6 @@
       <c r="F1202" s="3"/>
       <c r="G1202" s="3"/>
       <c r="H1202" s="3"/>
-      <c r="I1202" s="7"/>
     </row>
     <row r="1203" spans="1:9">
       <c r="A1203" s="3"/>
@@ -94142,7 +94488,6 @@
       <c r="F1208" s="3"/>
       <c r="G1208" s="3"/>
       <c r="H1208" s="3"/>
-      <c r="I1208" s="7"/>
     </row>
     <row r="1209" spans="1:9">
       <c r="A1209" s="3"/>
@@ -94153,7 +94498,6 @@
       <c r="F1209" s="3"/>
       <c r="G1209" s="3"/>
       <c r="H1209" s="3"/>
-      <c r="I1209" s="7"/>
     </row>
     <row r="1210" spans="1:9">
       <c r="A1210" s="3"/>
@@ -94164,6 +94508,7 @@
       <c r="F1210" s="3"/>
       <c r="G1210" s="3"/>
       <c r="H1210" s="3"/>
+      <c r="I1210" s="7"/>
     </row>
     <row r="1211" spans="1:9">
       <c r="A1211" s="3"/>
@@ -94174,7 +94519,6 @@
       <c r="F1211" s="3"/>
       <c r="G1211" s="3"/>
       <c r="H1211" s="3"/>
-      <c r="I1211" s="7"/>
     </row>
     <row r="1212" spans="1:9">
       <c r="A1212" s="3"/>
@@ -94207,7 +94551,6 @@
       <c r="F1214" s="3"/>
       <c r="G1214" s="3"/>
       <c r="H1214" s="3"/>
-      <c r="I1214" s="7"/>
     </row>
     <row r="1215" spans="1:9">
       <c r="A1215" s="3"/>
@@ -94240,6 +94583,7 @@
       <c r="F1217" s="3"/>
       <c r="G1217" s="3"/>
       <c r="H1217" s="3"/>
+      <c r="I1217" s="7"/>
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218" s="3"/>
@@ -94250,6 +94594,7 @@
       <c r="F1218" s="3"/>
       <c r="G1218" s="3"/>
       <c r="H1218" s="3"/>
+      <c r="I1218" s="7"/>
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219" s="3"/>
@@ -94260,6 +94605,7 @@
       <c r="F1219" s="3"/>
       <c r="G1219" s="3"/>
       <c r="H1219" s="3"/>
+      <c r="I1219" s="7"/>
     </row>
     <row r="1220" spans="1:9">
       <c r="A1220" s="3"/>
@@ -94281,7 +94627,6 @@
       <c r="F1221" s="3"/>
       <c r="G1221" s="3"/>
       <c r="H1221" s="3"/>
-      <c r="I1221" s="7"/>
     </row>
     <row r="1222" spans="1:9">
       <c r="A1222" s="3"/>
@@ -94302,7 +94647,6 @@
       <c r="F1223" s="3"/>
       <c r="G1223" s="3"/>
       <c r="H1223" s="3"/>
-      <c r="I1223" s="7"/>
     </row>
     <row r="1224" spans="1:9">
       <c r="A1224" s="3"/>
@@ -94324,6 +94668,7 @@
       <c r="F1225" s="3"/>
       <c r="G1225" s="3"/>
       <c r="H1225" s="3"/>
+      <c r="I1225" s="7"/>
     </row>
     <row r="1226" spans="1:9">
       <c r="A1226" s="3"/>
@@ -94344,6 +94689,7 @@
       <c r="F1227" s="3"/>
       <c r="G1227" s="3"/>
       <c r="H1227" s="3"/>
+      <c r="I1227" s="7"/>
     </row>
     <row r="1228" spans="1:9">
       <c r="A1228" s="3"/>
@@ -94354,6 +94700,7 @@
       <c r="F1228" s="3"/>
       <c r="G1228" s="3"/>
       <c r="H1228" s="3"/>
+      <c r="I1228" s="7"/>
     </row>
     <row r="1229" spans="1:9">
       <c r="A1229" s="3"/>
@@ -94454,7 +94801,6 @@
       <c r="F1238" s="3"/>
       <c r="G1238" s="3"/>
       <c r="H1238" s="3"/>
-      <c r="I1238" s="7"/>
     </row>
     <row r="1239" spans="1:9">
       <c r="A1239" s="3"/>
@@ -94495,6 +94841,7 @@
       <c r="F1242" s="3"/>
       <c r="G1242" s="3"/>
       <c r="H1242" s="3"/>
+      <c r="I1242" s="7"/>
     </row>
     <row r="1243" spans="1:9">
       <c r="A1243" s="3"/>
@@ -94545,7 +94892,6 @@
       <c r="F1247" s="3"/>
       <c r="G1247" s="3"/>
       <c r="H1247" s="3"/>
-      <c r="I1247" s="7"/>
     </row>
     <row r="1248" spans="1:9">
       <c r="A1248" s="3"/>
@@ -94556,9 +94902,8 @@
       <c r="F1248" s="3"/>
       <c r="G1248" s="3"/>
       <c r="H1248" s="3"/>
-      <c r="I1248" s="7"/>
-    </row>
-    <row r="1249" spans="1:8">
+    </row>
+    <row r="1249" spans="1:9">
       <c r="A1249" s="3"/>
       <c r="B1249" s="3"/>
       <c r="C1249" s="3"/>
@@ -94568,59 +94913,101 @@
       <c r="G1249" s="3"/>
       <c r="H1249" s="3"/>
     </row>
-    <row r="1250" spans="1:8">
-      <c r="A1250" s="3" t="str">
+    <row r="1250" spans="1:9">
+      <c r="A1250" s="3"/>
+      <c r="B1250" s="3"/>
+      <c r="C1250" s="3"/>
+      <c r="D1250" s="3"/>
+      <c r="E1250" s="3"/>
+      <c r="F1250" s="3"/>
+      <c r="G1250" s="3"/>
+      <c r="H1250" s="3"/>
+    </row>
+    <row r="1251" spans="1:9">
+      <c r="A1251" s="3"/>
+      <c r="B1251" s="3"/>
+      <c r="C1251" s="3"/>
+      <c r="D1251" s="3"/>
+      <c r="E1251" s="3"/>
+      <c r="F1251" s="3"/>
+      <c r="G1251" s="3"/>
+      <c r="H1251" s="3"/>
+      <c r="I1251" s="7"/>
+    </row>
+    <row r="1252" spans="1:9">
+      <c r="A1252" s="3"/>
+      <c r="B1252" s="3"/>
+      <c r="C1252" s="3"/>
+      <c r="D1252" s="3"/>
+      <c r="E1252" s="3"/>
+      <c r="F1252" s="3"/>
+      <c r="G1252" s="3"/>
+      <c r="H1252" s="3"/>
+      <c r="I1252" s="7"/>
+    </row>
+    <row r="1253" spans="1:9">
+      <c r="A1253" s="3"/>
+      <c r="B1253" s="3"/>
+      <c r="C1253" s="3"/>
+      <c r="D1253" s="3"/>
+      <c r="E1253" s="3"/>
+      <c r="F1253" s="3"/>
+      <c r="G1253" s="3"/>
+      <c r="H1253" s="3"/>
+    </row>
+    <row r="1254" spans="1:9">
+      <c r="A1254" s="3" t="str">
         <v>Ｚガンダム</v>
       </c>
-      <c r="B1250" s="3" t="str">
+      <c r="B1254" s="3" t="str">
         <v>ロング・ビーム・サーベル</v>
       </c>
-      <c r="C1250" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:8">
-      <c r="A1251" s="3" t="str">
+      <c r="C1254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9">
+      <c r="A1255" s="3" t="str">
         <v>Ｚガンダム</v>
       </c>
-      <c r="B1251" s="3" t="str">
+      <c r="B1255" s="3" t="str">
         <v>腕部グレネード・ランチャー</v>
       </c>
-      <c r="C1251" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:8">
-      <c r="A1252" s="3" t="str">
+      <c r="C1255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9">
+      <c r="A1256" s="3" t="str">
         <v>Ｚガンダム</v>
       </c>
-      <c r="B1252" s="3" t="str">
+      <c r="B1256" s="3" t="str">
         <v>頭部バルカン[改修型]</v>
       </c>
-      <c r="C1252" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:8">
-      <c r="A1253" s="3" t="str">
+      <c r="C1256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9">
+      <c r="A1257" s="3" t="str">
         <v>Ｚガンダム</v>
       </c>
-      <c r="B1253" s="3" t="str">
+      <c r="B1257" s="3" t="str">
         <v>Ｚガンダムシールド</v>
       </c>
-      <c r="C1253" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:8">
-      <c r="A1254" s="3"/>
-      <c r="B1254" s="3"/>
-      <c r="C1254" s="3"/>
-      <c r="D1254" s="3"/>
-      <c r="E1254" s="3"/>
-      <c r="F1254" s="3"/>
-      <c r="G1254" s="3"/>
-      <c r="H1254" s="3"/>
+      <c r="C1257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9">
+      <c r="A1258" s="3"/>
+      <c r="B1258" s="3"/>
+      <c r="C1258" s="3"/>
+      <c r="D1258" s="3"/>
+      <c r="E1258" s="3"/>
+      <c r="F1258" s="3"/>
+      <c r="G1258" s="3"/>
+      <c r="H1258" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
